--- a/Images/Ganolia/Mecanismo.xlsx
+++ b/Images/Ganolia/Mecanismo.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\chs\Images\Ganolia\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7F47CE8-2E6B-4342-8F6D-742AE6B90247}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8590DF3A-67C9-48E8-A8CA-567C2E76A9AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="15000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
     <externalReference r:id="rId4"/>
   </externalReferences>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">CORE!$B$1:$I$76</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">CORE!$B$1:$J$76</definedName>
     <definedName name="Criaturas_1">INDEX([1]Criaturas!$B$1:$B$125,MATCH([1]Jogo!$C$48,[1]Criaturas!$A$1:$A$125,0))</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="433" uniqueCount="212">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="441" uniqueCount="220">
   <si>
     <t>Mago</t>
   </si>
@@ -657,9 +657,6 @@
     <t>Qtd.Total</t>
   </si>
   <si>
-    <t>ATQ</t>
-  </si>
-  <si>
     <t>Ranking[baseRaridade]</t>
   </si>
   <si>
@@ -667,17 +664,58 @@
   </si>
   <si>
     <t>Equivalente</t>
+  </si>
+  <si>
+    <t>all</t>
+  </si>
+  <si>
+    <t>MAX ATQ</t>
+  </si>
+  <si>
+    <t>Recompensa:</t>
+  </si>
+  <si>
+    <t>A;B;C;D;E</t>
+  </si>
+  <si>
+    <t>A = COMUM</t>
+  </si>
+  <si>
+    <t>B = INCOMUM</t>
+  </si>
+  <si>
+    <t>C = MÁGICO</t>
+  </si>
+  <si>
+    <t>D = RARO</t>
+  </si>
+  <si>
+    <t>E = LENDÁRIO</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="16">
+  <fonts count="18">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1007,120 +1045,138 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="57">
+  <cellXfs count="65">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="9" fontId="7" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="9" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="9" fontId="7" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="9" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1990,11 +2046,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C6BD44E-C49F-49F0-BAAC-5F0D8342ACD5}">
-  <dimension ref="B1:L76"/>
+  <sheetPr filterMode="1"/>
+  <dimension ref="B1:M76"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E17" sqref="E17"/>
+      <selection pane="bottomLeft" activeCell="F77" sqref="F77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2003,1440 +2060,2222 @@
     <col min="3" max="3" width="13.85546875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="34.7109375" style="36" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="23.42578125" customWidth="1"/>
-    <col min="6" max="6" width="9.28515625" customWidth="1"/>
-    <col min="7" max="7" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="17.28515625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="18" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="41.85546875" style="36" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.28515625" style="36" customWidth="1"/>
+    <col min="7" max="7" width="16.140625" style="36" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.85546875" style="36" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.85546875" style="36" customWidth="1"/>
+    <col min="10" max="10" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="18" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="41.85546875" style="36" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:12" ht="21">
+    <row r="1" spans="2:13" ht="21">
       <c r="B1" s="28" t="s">
         <v>81</v>
       </c>
       <c r="C1" s="29" t="s">
         <v>113</v>
       </c>
-      <c r="D1" s="45" t="s">
-        <v>209</v>
+      <c r="D1" s="43" t="s">
+        <v>208</v>
       </c>
       <c r="E1" s="30" t="s">
         <v>195</v>
       </c>
-      <c r="F1" s="29" t="s">
+      <c r="F1" s="55" t="s">
         <v>206</v>
       </c>
-      <c r="G1" s="29" t="s">
-        <v>208</v>
-      </c>
-      <c r="H1" s="29" t="s">
+      <c r="G1" s="55" t="s">
+        <v>212</v>
+      </c>
+      <c r="H1" s="55" t="s">
         <v>205</v>
       </c>
-      <c r="I1" s="29" t="s">
+      <c r="I1" s="55" t="s">
+        <v>211</v>
+      </c>
+      <c r="J1" s="29" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="2" spans="2:12">
+    <row r="2" spans="2:13" hidden="1">
       <c r="B2" s="31" t="s">
-        <v>177</v>
+        <v>190</v>
       </c>
       <c r="C2" s="39" t="s">
         <v>201</v>
       </c>
-      <c r="D2" s="46">
+      <c r="D2" s="44">
+        <v>1</v>
+      </c>
+      <c r="E2" s="39" t="s">
+        <v>196</v>
+      </c>
+      <c r="F2" s="37">
         <v>7</v>
       </c>
-      <c r="E2" s="39" t="s">
-        <v>197</v>
-      </c>
-      <c r="F2" s="25"/>
-      <c r="G2" s="26"/>
-      <c r="H2" s="26"/>
-      <c r="I2" s="26"/>
-      <c r="K2" s="25" t="s">
+      <c r="G2" s="56">
+        <v>3</v>
+      </c>
+      <c r="H2" s="56">
+        <v>4</v>
+      </c>
+      <c r="I2" s="56">
+        <f>SUM(G2+H2)</f>
+        <v>7</v>
+      </c>
+      <c r="J2" s="26"/>
+      <c r="L2" s="25" t="s">
         <v>114</v>
       </c>
-      <c r="L2" s="37">
+      <c r="M2" s="37">
         <f>COUNTIF(C:C,"Comum")</f>
         <v>31</v>
       </c>
     </row>
-    <row r="3" spans="2:12">
-      <c r="B3" s="27" t="s">
-        <v>117</v>
+    <row r="3" spans="2:13" hidden="1">
+      <c r="B3" s="31" t="s">
+        <v>158</v>
       </c>
       <c r="C3" s="39" t="s">
         <v>201</v>
       </c>
-      <c r="D3" s="46">
-        <v>30</v>
+      <c r="D3" s="44">
+        <v>2</v>
       </c>
       <c r="E3" s="39" t="s">
-        <v>198</v>
-      </c>
-      <c r="F3" s="26"/>
-      <c r="G3" s="26"/>
-      <c r="H3" s="26"/>
-      <c r="I3" s="26"/>
-      <c r="K3" s="25" t="s">
+        <v>196</v>
+      </c>
+      <c r="F3" s="37">
+        <v>8</v>
+      </c>
+      <c r="G3" s="56">
+        <v>3</v>
+      </c>
+      <c r="H3" s="56">
+        <v>4</v>
+      </c>
+      <c r="I3" s="56">
+        <f>SUM(G3+H3)</f>
+        <v>7</v>
+      </c>
+      <c r="J3" s="26"/>
+      <c r="L3" s="25" t="s">
         <v>115</v>
       </c>
-      <c r="L3" s="37">
+      <c r="M3" s="37">
         <f>COUNTIF(C:C,"Incomum")</f>
         <v>27</v>
       </c>
     </row>
-    <row r="4" spans="2:12">
+    <row r="4" spans="2:13" hidden="1">
       <c r="B4" s="27" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="C4" s="39" t="s">
         <v>201</v>
       </c>
-      <c r="D4" s="46">
-        <v>26</v>
+      <c r="D4" s="44">
+        <v>3</v>
       </c>
       <c r="E4" s="25" t="s">
         <v>199</v>
       </c>
-      <c r="F4" s="25"/>
-      <c r="G4" s="26"/>
-      <c r="H4" s="26"/>
-      <c r="I4" s="26"/>
-      <c r="K4" s="39" t="s">
+      <c r="F4" s="37">
+        <v>7</v>
+      </c>
+      <c r="G4" s="56">
+        <v>3</v>
+      </c>
+      <c r="H4" s="56">
+        <v>4</v>
+      </c>
+      <c r="I4" s="56">
+        <f>SUM(G4+H4)</f>
+        <v>7</v>
+      </c>
+      <c r="J4" s="26"/>
+      <c r="L4" s="39" t="s">
         <v>204</v>
       </c>
-      <c r="L4" s="37">
+      <c r="M4" s="37">
         <f>COUNTIF(C:C,"Épico")</f>
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="2:12">
+    <row r="5" spans="2:13" hidden="1">
       <c r="B5" s="31" t="s">
-        <v>147</v>
+        <v>189</v>
       </c>
       <c r="C5" s="39" t="s">
         <v>201</v>
       </c>
-      <c r="D5" s="46">
-        <v>9</v>
+      <c r="D5" s="44">
+        <v>4</v>
       </c>
       <c r="E5" s="39" t="s">
-        <v>198</v>
-      </c>
-      <c r="F5" s="25"/>
-      <c r="G5" s="26"/>
-      <c r="H5" s="26"/>
-      <c r="I5" s="26"/>
-      <c r="K5" s="25" t="s">
+        <v>196</v>
+      </c>
+      <c r="F5" s="37">
+        <v>6</v>
+      </c>
+      <c r="G5" s="56">
+        <v>3</v>
+      </c>
+      <c r="H5" s="56">
+        <v>4</v>
+      </c>
+      <c r="I5" s="56">
+        <f>SUM(G5+H5)</f>
+        <v>7</v>
+      </c>
+      <c r="J5" s="26"/>
+      <c r="L5" s="25" t="s">
         <v>152</v>
       </c>
-      <c r="L5" s="37">
+      <c r="M5" s="37">
         <f>COUNTIF(C:C,"SemiBoss")</f>
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="2:12">
-      <c r="B6" s="27" t="s">
-        <v>138</v>
+    <row r="6" spans="2:13" hidden="1">
+      <c r="B6" s="31" t="s">
+        <v>159</v>
       </c>
       <c r="C6" s="39" t="s">
         <v>201</v>
       </c>
-      <c r="D6" s="46">
-        <v>13</v>
-      </c>
-      <c r="E6" s="25" t="s">
-        <v>199</v>
-      </c>
-      <c r="F6" s="25"/>
-      <c r="G6" s="26"/>
-      <c r="H6" s="26"/>
-      <c r="I6" s="26"/>
-      <c r="K6" s="25" t="s">
+      <c r="D6" s="44">
+        <v>5</v>
+      </c>
+      <c r="E6" s="39" t="s">
+        <v>196</v>
+      </c>
+      <c r="F6" s="37">
+        <v>6</v>
+      </c>
+      <c r="G6" s="56">
+        <v>3</v>
+      </c>
+      <c r="H6" s="56">
+        <v>4</v>
+      </c>
+      <c r="I6" s="56">
+        <f>SUM(G6+H6)</f>
+        <v>7</v>
+      </c>
+      <c r="J6" s="26"/>
+      <c r="L6" s="25" t="s">
         <v>153</v>
       </c>
-      <c r="L6" s="37">
+      <c r="M6" s="37">
         <f>COUNTIF(C:C,"Boss")</f>
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="2:12">
-      <c r="B7" s="27" t="s">
-        <v>118</v>
+    <row r="7" spans="2:13" hidden="1">
+      <c r="B7" s="31" t="s">
+        <v>169</v>
       </c>
       <c r="C7" s="39" t="s">
         <v>201</v>
       </c>
-      <c r="D7" s="46">
-        <v>20</v>
+      <c r="D7" s="44">
+        <v>6</v>
       </c>
       <c r="E7" s="39" t="s">
-        <v>198</v>
-      </c>
-      <c r="F7" s="25"/>
-      <c r="G7" s="26"/>
-      <c r="H7" s="26"/>
-      <c r="I7" s="26"/>
-      <c r="K7" s="25" t="s">
+        <v>197</v>
+      </c>
+      <c r="F7" s="37">
+        <v>8</v>
+      </c>
+      <c r="G7" s="56">
+        <v>3</v>
+      </c>
+      <c r="H7" s="56">
+        <v>3</v>
+      </c>
+      <c r="I7" s="56">
+        <f>SUM(G7+H7)</f>
+        <v>6</v>
+      </c>
+      <c r="J7" s="56"/>
+      <c r="L7" s="25" t="s">
         <v>207</v>
       </c>
-      <c r="L7" s="37">
-        <f>SUM(L2:L6)</f>
+      <c r="M7" s="37">
+        <f>SUM(M2:M6)</f>
         <v>75</v>
       </c>
     </row>
-    <row r="8" spans="2:12">
+    <row r="8" spans="2:13" hidden="1">
       <c r="B8" s="31" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C8" s="39" t="s">
         <v>201</v>
       </c>
-      <c r="D8" s="46">
-        <v>17</v>
+      <c r="D8" s="44">
+        <v>7</v>
       </c>
       <c r="E8" s="39" t="s">
-        <v>200</v>
-      </c>
-      <c r="F8" s="25"/>
-      <c r="G8" s="26"/>
-      <c r="H8" s="26"/>
-      <c r="I8" s="26"/>
-    </row>
-    <row r="9" spans="2:12">
-      <c r="B9" s="31" t="s">
-        <v>161</v>
+        <v>197</v>
+      </c>
+      <c r="F8" s="37">
+        <v>8</v>
+      </c>
+      <c r="G8" s="56">
+        <v>3</v>
+      </c>
+      <c r="H8" s="56">
+        <v>3</v>
+      </c>
+      <c r="I8" s="56">
+        <f>SUM(G8+H8)</f>
+        <v>6</v>
+      </c>
+      <c r="J8" s="56"/>
+    </row>
+    <row r="9" spans="2:13" hidden="1">
+      <c r="B9" s="27" t="s">
+        <v>139</v>
       </c>
       <c r="C9" s="39" t="s">
-        <v>202</v>
-      </c>
-      <c r="D9" s="47">
-        <v>15</v>
-      </c>
-      <c r="E9" s="39" t="s">
-        <v>196</v>
-      </c>
-      <c r="F9" s="25"/>
-      <c r="G9" s="26"/>
-      <c r="H9" s="26"/>
-      <c r="I9" s="26"/>
-    </row>
-    <row r="10" spans="2:12">
-      <c r="B10" s="27" t="s">
-        <v>143</v>
+        <v>201</v>
+      </c>
+      <c r="D9" s="44">
+        <v>8</v>
+      </c>
+      <c r="E9" s="25" t="s">
+        <v>199</v>
+      </c>
+      <c r="F9" s="37">
+        <v>7</v>
+      </c>
+      <c r="G9" s="56">
+        <v>3</v>
+      </c>
+      <c r="H9" s="56">
+        <v>3</v>
+      </c>
+      <c r="I9" s="56">
+        <f>SUM(G9+H9)</f>
+        <v>6</v>
+      </c>
+      <c r="J9" s="56"/>
+      <c r="L9" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="10" spans="2:13" hidden="1">
+      <c r="B10" s="31" t="s">
+        <v>147</v>
       </c>
       <c r="C10" s="39" t="s">
-        <v>202</v>
-      </c>
-      <c r="D10" s="47">
+        <v>201</v>
+      </c>
+      <c r="D10" s="44">
         <v>9</v>
       </c>
-      <c r="E10" s="25" t="s">
-        <v>199</v>
-      </c>
-      <c r="F10" s="25"/>
-      <c r="G10" s="26"/>
-      <c r="H10" s="26"/>
-      <c r="I10" s="26"/>
-    </row>
-    <row r="11" spans="2:12">
-      <c r="B11" s="27" t="s">
-        <v>126</v>
+      <c r="E10" s="39" t="s">
+        <v>198</v>
+      </c>
+      <c r="F10" s="37">
+        <v>7</v>
+      </c>
+      <c r="G10" s="56">
+        <v>3</v>
+      </c>
+      <c r="H10" s="56">
+        <v>3</v>
+      </c>
+      <c r="I10" s="56">
+        <f>SUM(G10+H10)</f>
+        <v>6</v>
+      </c>
+      <c r="J10" s="26"/>
+      <c r="L10" s="36" t="s">
+        <v>214</v>
+      </c>
+      <c r="M10" s="36" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="11" spans="2:13" hidden="1">
+      <c r="B11" s="31" t="s">
+        <v>167</v>
       </c>
       <c r="C11" s="39" t="s">
         <v>201</v>
       </c>
-      <c r="D11" s="46">
-        <v>25</v>
+      <c r="D11" s="44">
+        <v>10</v>
       </c>
       <c r="E11" s="39" t="s">
-        <v>198</v>
-      </c>
-      <c r="F11" s="25"/>
-      <c r="G11" s="26"/>
-      <c r="H11" s="26"/>
-      <c r="I11" s="26"/>
-    </row>
-    <row r="12" spans="2:12">
+        <v>197</v>
+      </c>
+      <c r="F11" s="37">
+        <v>6</v>
+      </c>
+      <c r="G11" s="56">
+        <v>3</v>
+      </c>
+      <c r="H11" s="56">
+        <v>3</v>
+      </c>
+      <c r="I11" s="56">
+        <f>SUM(G11+H11)</f>
+        <v>6</v>
+      </c>
+      <c r="J11" s="26"/>
+      <c r="M11" s="36" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="12" spans="2:13" hidden="1">
       <c r="B12" s="31" t="s">
-        <v>169</v>
+        <v>180</v>
       </c>
       <c r="C12" s="39" t="s">
         <v>201</v>
       </c>
-      <c r="D12" s="46">
+      <c r="D12" s="44">
+        <v>11</v>
+      </c>
+      <c r="E12" s="39" t="s">
+        <v>200</v>
+      </c>
+      <c r="F12" s="37">
         <v>6</v>
       </c>
-      <c r="E12" s="39" t="s">
-        <v>197</v>
-      </c>
-      <c r="F12" s="25"/>
-      <c r="G12" s="26"/>
-      <c r="H12" s="26"/>
-      <c r="I12" s="26"/>
-    </row>
-    <row r="13" spans="2:12">
-      <c r="B13" s="31" t="s">
-        <v>156</v>
+      <c r="G12" s="56">
+        <v>3</v>
+      </c>
+      <c r="H12" s="56">
+        <v>3</v>
+      </c>
+      <c r="I12" s="56">
+        <f>SUM(G12+H12)</f>
+        <v>6</v>
+      </c>
+      <c r="J12" s="26"/>
+      <c r="M12" s="36" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="13" spans="2:13" hidden="1">
+      <c r="B13" s="27" t="s">
+        <v>122</v>
       </c>
       <c r="C13" s="39" t="s">
         <v>201</v>
       </c>
-      <c r="D13" s="46">
-        <v>27</v>
+      <c r="D13" s="44">
+        <v>12</v>
       </c>
       <c r="E13" s="39" t="s">
-        <v>196</v>
-      </c>
-      <c r="F13" s="25"/>
-      <c r="G13" s="26"/>
-      <c r="H13" s="26"/>
-      <c r="I13" s="26"/>
-    </row>
-    <row r="14" spans="2:12">
-      <c r="B14" s="31" t="s">
-        <v>180</v>
+        <v>198</v>
+      </c>
+      <c r="F13" s="37">
+        <v>5</v>
+      </c>
+      <c r="G13" s="56">
+        <v>3</v>
+      </c>
+      <c r="H13" s="56">
+        <v>3</v>
+      </c>
+      <c r="I13" s="56">
+        <f>SUM(G13+H13)</f>
+        <v>6</v>
+      </c>
+      <c r="J13" s="26"/>
+      <c r="M13" s="36" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="14" spans="2:13" hidden="1">
+      <c r="B14" s="27" t="s">
+        <v>138</v>
       </c>
       <c r="C14" s="39" t="s">
         <v>201</v>
       </c>
-      <c r="D14" s="46">
-        <v>11</v>
-      </c>
-      <c r="E14" s="39" t="s">
+      <c r="D14" s="44">
+        <v>13</v>
+      </c>
+      <c r="E14" s="25" t="s">
+        <v>199</v>
+      </c>
+      <c r="F14" s="37">
+        <v>5</v>
+      </c>
+      <c r="G14" s="56">
+        <v>3</v>
+      </c>
+      <c r="H14" s="56">
+        <v>3</v>
+      </c>
+      <c r="I14" s="56">
+        <f>SUM(G14+H14)</f>
+        <v>6</v>
+      </c>
+      <c r="J14" s="26"/>
+      <c r="M14" s="36" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="15" spans="2:13" hidden="1">
+      <c r="B15" s="27" t="s">
+        <v>129</v>
+      </c>
+      <c r="C15" s="39" t="s">
+        <v>201</v>
+      </c>
+      <c r="D15" s="44">
+        <v>14</v>
+      </c>
+      <c r="E15" s="39" t="s">
+        <v>198</v>
+      </c>
+      <c r="F15" s="37">
+        <v>4</v>
+      </c>
+      <c r="G15" s="56">
+        <v>3</v>
+      </c>
+      <c r="H15" s="56">
+        <v>3</v>
+      </c>
+      <c r="I15" s="56">
+        <f>SUM(G15+H15)</f>
+        <v>6</v>
+      </c>
+      <c r="J15" s="26"/>
+    </row>
+    <row r="16" spans="2:13" hidden="1">
+      <c r="B16" s="31" t="s">
+        <v>168</v>
+      </c>
+      <c r="C16" s="39" t="s">
+        <v>201</v>
+      </c>
+      <c r="D16" s="44">
+        <v>15</v>
+      </c>
+      <c r="E16" s="39" t="s">
+        <v>197</v>
+      </c>
+      <c r="F16" s="37">
+        <v>4</v>
+      </c>
+      <c r="G16" s="56">
+        <v>3</v>
+      </c>
+      <c r="H16" s="56">
+        <v>3</v>
+      </c>
+      <c r="I16" s="56">
+        <f>SUM(G16+H16)</f>
+        <v>6</v>
+      </c>
+      <c r="J16" s="26"/>
+    </row>
+    <row r="17" spans="2:12" hidden="1">
+      <c r="B17" s="31" t="s">
+        <v>146</v>
+      </c>
+      <c r="C17" s="39" t="s">
+        <v>201</v>
+      </c>
+      <c r="D17" s="44">
+        <v>16</v>
+      </c>
+      <c r="E17" s="39" t="s">
         <v>200</v>
       </c>
-      <c r="F14" s="25"/>
-      <c r="G14" s="26"/>
-      <c r="H14" s="26"/>
-      <c r="I14" s="26"/>
-    </row>
-    <row r="15" spans="2:12">
-      <c r="B15" s="27" t="s">
-        <v>136</v>
-      </c>
-      <c r="C15" s="44" t="s">
-        <v>202</v>
-      </c>
-      <c r="D15" s="46">
-        <v>27</v>
-      </c>
-      <c r="E15" s="25" t="s">
-        <v>199</v>
-      </c>
-      <c r="F15" s="25"/>
-      <c r="G15" s="26"/>
-      <c r="H15" s="26"/>
-      <c r="I15" s="26"/>
-    </row>
-    <row r="16" spans="2:12">
-      <c r="B16" s="27" t="s">
-        <v>130</v>
-      </c>
-      <c r="C16" s="39" t="s">
-        <v>202</v>
-      </c>
-      <c r="D16" s="47">
-        <v>19</v>
-      </c>
-      <c r="E16" s="39" t="s">
-        <v>198</v>
-      </c>
-      <c r="F16" s="25"/>
-      <c r="G16" s="26"/>
-      <c r="H16" s="26"/>
-      <c r="I16" s="26"/>
-    </row>
-    <row r="17" spans="2:11">
-      <c r="B17" s="27" t="s">
-        <v>142</v>
-      </c>
-      <c r="C17" s="39" t="s">
-        <v>202</v>
-      </c>
-      <c r="D17" s="47">
-        <v>20</v>
-      </c>
-      <c r="E17" s="25" t="s">
-        <v>199</v>
-      </c>
-      <c r="F17" s="25"/>
-      <c r="G17" s="26"/>
-      <c r="H17" s="26"/>
-      <c r="I17" s="26"/>
-    </row>
-    <row r="18" spans="2:11">
+      <c r="F17" s="37">
+        <v>5</v>
+      </c>
+      <c r="G17" s="56">
+        <v>2</v>
+      </c>
+      <c r="H17" s="56">
+        <v>3</v>
+      </c>
+      <c r="I17" s="56">
+        <f>SUM(G17+H17)</f>
+        <v>5</v>
+      </c>
+      <c r="J17" s="26"/>
+    </row>
+    <row r="18" spans="2:12" hidden="1">
       <c r="B18" s="31" t="s">
-        <v>191</v>
+        <v>178</v>
       </c>
       <c r="C18" s="39" t="s">
-        <v>202</v>
-      </c>
-      <c r="D18" s="47">
-        <v>1</v>
+        <v>201</v>
+      </c>
+      <c r="D18" s="44">
+        <v>17</v>
       </c>
       <c r="E18" s="39" t="s">
         <v>200</v>
       </c>
-      <c r="F18" s="25"/>
-      <c r="G18" s="26"/>
-      <c r="H18" s="26"/>
-      <c r="I18" s="26"/>
-    </row>
-    <row r="19" spans="2:11">
-      <c r="B19" s="31" t="s">
-        <v>182</v>
+      <c r="F18" s="37">
+        <v>5</v>
+      </c>
+      <c r="G18" s="56">
+        <v>2</v>
+      </c>
+      <c r="H18" s="56">
+        <v>3</v>
+      </c>
+      <c r="I18" s="56">
+        <f>SUM(G18+H18)</f>
+        <v>5</v>
+      </c>
+      <c r="J18" s="56"/>
+    </row>
+    <row r="19" spans="2:12" hidden="1">
+      <c r="B19" s="27" t="s">
+        <v>119</v>
       </c>
       <c r="C19" s="39" t="s">
-        <v>202</v>
-      </c>
-      <c r="D19" s="47">
+        <v>201</v>
+      </c>
+      <c r="D19" s="44">
+        <v>18</v>
+      </c>
+      <c r="E19" s="39" t="s">
+        <v>198</v>
+      </c>
+      <c r="F19" s="37">
+        <v>4</v>
+      </c>
+      <c r="G19" s="56">
+        <v>2</v>
+      </c>
+      <c r="H19" s="56">
+        <v>3</v>
+      </c>
+      <c r="I19" s="56">
+        <f>SUM(G19+H19)</f>
         <v>5</v>
       </c>
-      <c r="E19" s="39" t="s">
-        <v>200</v>
-      </c>
-      <c r="F19" s="25"/>
-      <c r="G19" s="26"/>
-      <c r="H19" s="26"/>
-      <c r="I19" s="26"/>
-    </row>
-    <row r="20" spans="2:11">
-      <c r="B20" s="50" t="s">
-        <v>135</v>
-      </c>
-      <c r="C20" s="51" t="s">
-        <v>203</v>
-      </c>
-      <c r="D20" s="52">
-        <v>8</v>
-      </c>
-      <c r="E20" s="51" t="s">
+      <c r="J19" s="56"/>
+    </row>
+    <row r="20" spans="2:12" hidden="1">
+      <c r="B20" s="27" t="s">
+        <v>120</v>
+      </c>
+      <c r="C20" s="39" t="s">
+        <v>201</v>
+      </c>
+      <c r="D20" s="44">
+        <v>19</v>
+      </c>
+      <c r="E20" s="39" t="s">
         <v>198</v>
       </c>
-      <c r="F20" s="41"/>
-      <c r="G20" s="41"/>
-      <c r="H20" s="41"/>
-      <c r="I20" s="41"/>
-    </row>
-    <row r="21" spans="2:11">
-      <c r="B21" s="31" t="s">
-        <v>163</v>
+      <c r="F20" s="37">
+        <v>4</v>
+      </c>
+      <c r="G20" s="56">
+        <v>2</v>
+      </c>
+      <c r="H20" s="56">
+        <v>3</v>
+      </c>
+      <c r="I20" s="56">
+        <f>SUM(G20+H20)</f>
+        <v>5</v>
+      </c>
+      <c r="J20" s="56"/>
+    </row>
+    <row r="21" spans="2:12" hidden="1">
+      <c r="B21" s="27" t="s">
+        <v>118</v>
       </c>
       <c r="C21" s="39" t="s">
-        <v>202</v>
-      </c>
-      <c r="D21" s="47">
-        <v>4</v>
+        <v>201</v>
+      </c>
+      <c r="D21" s="44">
+        <v>20</v>
       </c>
       <c r="E21" s="39" t="s">
-        <v>196</v>
-      </c>
-      <c r="F21" s="25"/>
-      <c r="G21" s="26"/>
-      <c r="H21" s="26"/>
-      <c r="I21" s="26"/>
-    </row>
-    <row r="22" spans="2:11">
-      <c r="B22" s="31" t="s">
-        <v>170</v>
+        <v>198</v>
+      </c>
+      <c r="F21" s="37">
+        <v>3</v>
+      </c>
+      <c r="G21" s="56">
+        <v>2</v>
+      </c>
+      <c r="H21" s="56">
+        <v>3</v>
+      </c>
+      <c r="I21" s="56">
+        <f>SUM(G21+H21)</f>
+        <v>5</v>
+      </c>
+      <c r="J21" s="56"/>
+    </row>
+    <row r="22" spans="2:12" hidden="1">
+      <c r="B22" s="27" t="s">
+        <v>128</v>
       </c>
       <c r="C22" s="39" t="s">
         <v>201</v>
       </c>
-      <c r="D22" s="46">
-        <v>29</v>
+      <c r="D22" s="44">
+        <v>21</v>
       </c>
       <c r="E22" s="39" t="s">
-        <v>197</v>
-      </c>
-      <c r="F22" s="25"/>
-      <c r="G22" s="26"/>
-      <c r="H22" s="26"/>
-      <c r="I22" s="26"/>
-    </row>
-    <row r="23" spans="2:11">
-      <c r="B23" s="31" t="s">
-        <v>181</v>
+        <v>198</v>
+      </c>
+      <c r="F22" s="37">
+        <v>3</v>
+      </c>
+      <c r="G22" s="56">
+        <v>2</v>
+      </c>
+      <c r="H22" s="56">
+        <v>3</v>
+      </c>
+      <c r="I22" s="56">
+        <f>SUM(G22+H22)</f>
+        <v>5</v>
+      </c>
+      <c r="J22" s="56"/>
+    </row>
+    <row r="23" spans="2:12" hidden="1">
+      <c r="B23" s="27" t="s">
+        <v>121</v>
       </c>
       <c r="C23" s="39" t="s">
         <v>201</v>
       </c>
-      <c r="D23" s="46">
-        <v>24</v>
+      <c r="D23" s="44">
+        <v>22</v>
       </c>
       <c r="E23" s="39" t="s">
-        <v>200</v>
-      </c>
-      <c r="F23" s="25"/>
-      <c r="G23" s="26"/>
-      <c r="H23" s="26"/>
-      <c r="I23" s="26"/>
-    </row>
-    <row r="24" spans="2:11">
-      <c r="B24" s="31" t="s">
-        <v>190</v>
+        <v>198</v>
+      </c>
+      <c r="F23" s="37">
+        <v>3</v>
+      </c>
+      <c r="G23" s="56">
+        <v>2</v>
+      </c>
+      <c r="H23" s="56">
+        <v>3</v>
+      </c>
+      <c r="I23" s="56">
+        <f>SUM(G23+H23)</f>
+        <v>5</v>
+      </c>
+      <c r="J23" s="56"/>
+    </row>
+    <row r="24" spans="2:12" hidden="1">
+      <c r="B24" s="27" t="s">
+        <v>127</v>
       </c>
       <c r="C24" s="39" t="s">
         <v>201</v>
       </c>
-      <c r="D24" s="46">
-        <v>1</v>
+      <c r="D24" s="44">
+        <v>23</v>
       </c>
       <c r="E24" s="39" t="s">
-        <v>196</v>
-      </c>
-      <c r="F24" s="25"/>
-      <c r="G24" s="26"/>
-      <c r="H24" s="26"/>
-      <c r="I24" s="26"/>
-      <c r="K24" s="38"/>
-    </row>
-    <row r="25" spans="2:11">
-      <c r="B25" s="27" t="s">
-        <v>139</v>
+        <v>198</v>
+      </c>
+      <c r="F24" s="37">
+        <v>5</v>
+      </c>
+      <c r="G24" s="56">
+        <v>2</v>
+      </c>
+      <c r="H24" s="56">
+        <v>2</v>
+      </c>
+      <c r="I24" s="56">
+        <f>SUM(G24+H24)</f>
+        <v>4</v>
+      </c>
+      <c r="J24" s="63"/>
+      <c r="L24" s="38"/>
+    </row>
+    <row r="25" spans="2:12" hidden="1">
+      <c r="B25" s="31" t="s">
+        <v>181</v>
       </c>
       <c r="C25" s="39" t="s">
         <v>201</v>
       </c>
-      <c r="D25" s="46">
-        <v>8</v>
-      </c>
-      <c r="E25" s="25" t="s">
+      <c r="D25" s="44">
+        <v>24</v>
+      </c>
+      <c r="E25" s="39" t="s">
+        <v>200</v>
+      </c>
+      <c r="F25" s="37">
+        <v>5</v>
+      </c>
+      <c r="G25" s="56">
+        <v>2</v>
+      </c>
+      <c r="H25" s="56">
+        <v>2</v>
+      </c>
+      <c r="I25" s="56">
+        <f>SUM(G25+H25)</f>
+        <v>4</v>
+      </c>
+      <c r="J25" s="26"/>
+    </row>
+    <row r="26" spans="2:12" hidden="1">
+      <c r="B26" s="27" t="s">
+        <v>126</v>
+      </c>
+      <c r="C26" s="39" t="s">
+        <v>201</v>
+      </c>
+      <c r="D26" s="44">
+        <v>25</v>
+      </c>
+      <c r="E26" s="39" t="s">
+        <v>198</v>
+      </c>
+      <c r="F26" s="37">
+        <v>5</v>
+      </c>
+      <c r="G26" s="56">
+        <v>2</v>
+      </c>
+      <c r="H26" s="56">
+        <v>2</v>
+      </c>
+      <c r="I26" s="56">
+        <f>SUM(G26+H26)</f>
+        <v>4</v>
+      </c>
+      <c r="J26" s="26"/>
+    </row>
+    <row r="27" spans="2:12" hidden="1">
+      <c r="B27" s="27" t="s">
+        <v>137</v>
+      </c>
+      <c r="C27" s="39" t="s">
+        <v>201</v>
+      </c>
+      <c r="D27" s="44">
+        <v>26</v>
+      </c>
+      <c r="E27" s="25" t="s">
         <v>199</v>
       </c>
-      <c r="F25" s="25"/>
-      <c r="G25" s="26"/>
-      <c r="H25" s="26"/>
-      <c r="I25" s="26"/>
-    </row>
-    <row r="26" spans="2:11">
-      <c r="B26" s="31" t="s">
-        <v>162</v>
-      </c>
-      <c r="C26" s="39" t="s">
-        <v>202</v>
-      </c>
-      <c r="D26" s="47">
-        <v>7</v>
-      </c>
-      <c r="E26" s="39" t="s">
+      <c r="F27" s="37">
+        <v>4</v>
+      </c>
+      <c r="G27" s="56">
+        <v>2</v>
+      </c>
+      <c r="H27" s="56">
+        <v>2</v>
+      </c>
+      <c r="I27" s="56">
+        <f>SUM(G27+H27)</f>
+        <v>4</v>
+      </c>
+      <c r="J27" s="26"/>
+    </row>
+    <row r="28" spans="2:12" hidden="1">
+      <c r="B28" s="31" t="s">
+        <v>156</v>
+      </c>
+      <c r="C28" s="39" t="s">
+        <v>201</v>
+      </c>
+      <c r="D28" s="44">
+        <v>27</v>
+      </c>
+      <c r="E28" s="39" t="s">
         <v>196</v>
       </c>
-      <c r="F26" s="25"/>
-      <c r="G26" s="26"/>
-      <c r="H26" s="26"/>
-      <c r="I26" s="26"/>
-    </row>
-    <row r="27" spans="2:11">
-      <c r="B27" s="31" t="s">
-        <v>179</v>
-      </c>
-      <c r="C27" s="39" t="s">
-        <v>202</v>
-      </c>
-      <c r="D27" s="47">
-        <v>13</v>
-      </c>
-      <c r="E27" s="39" t="s">
-        <v>200</v>
-      </c>
-      <c r="F27" s="25"/>
-      <c r="G27" s="26"/>
-      <c r="H27" s="26"/>
-      <c r="I27" s="26"/>
-    </row>
-    <row r="28" spans="2:11">
-      <c r="B28" s="31" t="s">
-        <v>150</v>
-      </c>
-      <c r="C28" s="39" t="s">
-        <v>202</v>
-      </c>
-      <c r="D28" s="47">
-        <v>24</v>
-      </c>
-      <c r="E28" s="39" t="s">
+      <c r="F28" s="37">
+        <v>4</v>
+      </c>
+      <c r="G28" s="56">
+        <v>2</v>
+      </c>
+      <c r="H28" s="56">
+        <v>2</v>
+      </c>
+      <c r="I28" s="56">
+        <f>SUM(G28+H28)</f>
+        <v>4</v>
+      </c>
+      <c r="J28" s="26"/>
+    </row>
+    <row r="29" spans="2:12" hidden="1">
+      <c r="B29" s="31" t="s">
+        <v>157</v>
+      </c>
+      <c r="C29" s="39" t="s">
+        <v>201</v>
+      </c>
+      <c r="D29" s="44">
+        <v>28</v>
+      </c>
+      <c r="E29" s="39" t="s">
+        <v>196</v>
+      </c>
+      <c r="F29" s="37">
+        <v>4</v>
+      </c>
+      <c r="G29" s="56">
+        <v>2</v>
+      </c>
+      <c r="H29" s="56">
+        <v>2</v>
+      </c>
+      <c r="I29" s="56">
+        <f>SUM(G29+H29)</f>
+        <v>4</v>
+      </c>
+      <c r="J29" s="26"/>
+    </row>
+    <row r="30" spans="2:12" hidden="1">
+      <c r="B30" s="31" t="s">
+        <v>170</v>
+      </c>
+      <c r="C30" s="52" t="s">
+        <v>201</v>
+      </c>
+      <c r="D30" s="53">
+        <v>29</v>
+      </c>
+      <c r="E30" s="52" t="s">
+        <v>197</v>
+      </c>
+      <c r="F30" s="59">
+        <v>4</v>
+      </c>
+      <c r="G30" s="57">
+        <v>2</v>
+      </c>
+      <c r="H30" s="57">
+        <v>2</v>
+      </c>
+      <c r="I30" s="56">
+        <f>SUM(G30+H30)</f>
+        <v>4</v>
+      </c>
+      <c r="J30" s="26"/>
+    </row>
+    <row r="31" spans="2:12" hidden="1">
+      <c r="B31" s="27" t="s">
+        <v>117</v>
+      </c>
+      <c r="C31" s="39" t="s">
+        <v>201</v>
+      </c>
+      <c r="D31" s="44">
+        <v>30</v>
+      </c>
+      <c r="E31" s="39" t="s">
         <v>198</v>
       </c>
-      <c r="F28" s="25"/>
-      <c r="G28" s="26"/>
-      <c r="H28" s="26"/>
-      <c r="I28" s="26"/>
-    </row>
-    <row r="29" spans="2:11">
-      <c r="B29" s="27" t="s">
-        <v>131</v>
-      </c>
-      <c r="C29" s="39" t="s">
-        <v>202</v>
-      </c>
-      <c r="D29" s="47">
-        <v>26</v>
-      </c>
-      <c r="E29" s="39" t="s">
-        <v>198</v>
-      </c>
-      <c r="F29" s="25"/>
-      <c r="G29" s="26"/>
-      <c r="H29" s="26"/>
-      <c r="I29" s="26"/>
-    </row>
-    <row r="30" spans="2:11">
-      <c r="B30" s="32" t="s">
-        <v>210</v>
-      </c>
-      <c r="C30" s="32" t="s">
-        <v>203</v>
-      </c>
-      <c r="D30" s="48">
-        <v>7</v>
-      </c>
-      <c r="E30" s="32" t="s">
-        <v>199</v>
-      </c>
-      <c r="F30" s="32"/>
-      <c r="G30" s="32"/>
-      <c r="H30" s="32"/>
-      <c r="I30" s="32"/>
-    </row>
-    <row r="31" spans="2:11">
-      <c r="B31" s="40" t="s">
-        <v>145</v>
-      </c>
-      <c r="C31" s="41" t="s">
-        <v>151</v>
-      </c>
-      <c r="D31" s="53">
+      <c r="F31" s="56">
+        <v>3</v>
+      </c>
+      <c r="G31" s="56">
         <v>2</v>
       </c>
-      <c r="E31" s="41" t="s">
-        <v>199</v>
-      </c>
-      <c r="F31" s="41"/>
-      <c r="G31" s="41"/>
-      <c r="H31" s="41"/>
-      <c r="I31" s="41"/>
-    </row>
-    <row r="32" spans="2:11">
+      <c r="H31" s="56">
+        <v>2</v>
+      </c>
+      <c r="I31" s="56">
+        <f>SUM(G31+H31)</f>
+        <v>4</v>
+      </c>
+      <c r="J31" s="26"/>
+    </row>
+    <row r="32" spans="2:12" hidden="1">
       <c r="B32" s="27" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="C32" s="39" t="s">
         <v>201</v>
       </c>
-      <c r="D32" s="46">
-        <v>23</v>
+      <c r="D32" s="44">
+        <v>31</v>
       </c>
       <c r="E32" s="39" t="s">
         <v>198</v>
       </c>
-      <c r="F32" s="25"/>
-      <c r="G32" s="26"/>
-      <c r="H32" s="26"/>
-      <c r="I32" s="26"/>
-    </row>
-    <row r="33" spans="2:9">
-      <c r="B33" s="27" t="s">
-        <v>119</v>
+      <c r="F32" s="37">
+        <v>2</v>
+      </c>
+      <c r="G32" s="58">
+        <v>2</v>
+      </c>
+      <c r="H32" s="56">
+        <v>2</v>
+      </c>
+      <c r="I32" s="56">
+        <f>SUM(G32+H32)</f>
+        <v>4</v>
+      </c>
+      <c r="J32" s="26"/>
+    </row>
+    <row r="33" spans="2:10" hidden="1">
+      <c r="B33" s="31" t="s">
+        <v>191</v>
       </c>
       <c r="C33" s="39" t="s">
-        <v>201</v>
-      </c>
-      <c r="D33" s="46">
-        <v>18</v>
+        <v>202</v>
+      </c>
+      <c r="D33" s="45">
+        <v>1</v>
       </c>
       <c r="E33" s="39" t="s">
-        <v>198</v>
-      </c>
-      <c r="F33" s="25"/>
-      <c r="G33" s="26"/>
-      <c r="H33" s="26"/>
-      <c r="I33" s="26"/>
-    </row>
-    <row r="34" spans="2:9">
-      <c r="B34" s="31" t="s">
-        <v>148</v>
+        <v>200</v>
+      </c>
+      <c r="F33" s="37">
+        <v>14</v>
+      </c>
+      <c r="G33" s="56">
+        <v>5</v>
+      </c>
+      <c r="H33" s="56">
+        <v>6</v>
+      </c>
+      <c r="I33" s="56">
+        <f>SUM(G33+H33)</f>
+        <v>11</v>
+      </c>
+      <c r="J33" s="26"/>
+    </row>
+    <row r="34" spans="2:10" hidden="1">
+      <c r="B34" s="27" t="s">
+        <v>144</v>
       </c>
       <c r="C34" s="39" t="s">
         <v>202</v>
       </c>
-      <c r="D34" s="47">
-        <v>10</v>
-      </c>
-      <c r="E34" s="39" t="s">
-        <v>198</v>
-      </c>
-      <c r="F34" s="25"/>
-      <c r="G34" s="26"/>
-      <c r="H34" s="26"/>
-      <c r="I34" s="26"/>
-    </row>
-    <row r="35" spans="2:9">
+      <c r="D34" s="45">
+        <v>2</v>
+      </c>
+      <c r="E34" s="25" t="s">
+        <v>199</v>
+      </c>
+      <c r="F34" s="37">
+        <v>14</v>
+      </c>
+      <c r="G34" s="56">
+        <v>5</v>
+      </c>
+      <c r="H34" s="56">
+        <v>6</v>
+      </c>
+      <c r="I34" s="56">
+        <f>SUM(G34+H34)</f>
+        <v>11</v>
+      </c>
+      <c r="J34" s="26"/>
+    </row>
+    <row r="35" spans="2:10" hidden="1">
       <c r="B35" s="31" t="s">
-        <v>149</v>
+        <v>183</v>
       </c>
       <c r="C35" s="39" t="s">
         <v>202</v>
       </c>
-      <c r="D35" s="47">
-        <v>8</v>
+      <c r="D35" s="45">
+        <v>3</v>
       </c>
       <c r="E35" s="39" t="s">
-        <v>198</v>
-      </c>
-      <c r="F35" s="25"/>
-      <c r="G35" s="26"/>
-      <c r="H35" s="26"/>
-      <c r="I35" s="26"/>
-    </row>
-    <row r="36" spans="2:9">
+        <v>200</v>
+      </c>
+      <c r="F35" s="37">
+        <v>13</v>
+      </c>
+      <c r="G35" s="56">
+        <v>5</v>
+      </c>
+      <c r="H35" s="56">
+        <v>6</v>
+      </c>
+      <c r="I35" s="56">
+        <f>SUM(G35+H35)</f>
+        <v>11</v>
+      </c>
+      <c r="J35" s="26"/>
+    </row>
+    <row r="36" spans="2:10" hidden="1">
       <c r="B36" s="31" t="s">
-        <v>173</v>
+        <v>163</v>
       </c>
       <c r="C36" s="39" t="s">
         <v>202</v>
       </c>
-      <c r="D36" s="47">
-        <v>18</v>
+      <c r="D36" s="45">
+        <v>4</v>
       </c>
       <c r="E36" s="39" t="s">
-        <v>197</v>
-      </c>
-      <c r="F36" s="25"/>
-      <c r="G36" s="26"/>
-      <c r="H36" s="26"/>
-      <c r="I36" s="26"/>
-    </row>
-    <row r="37" spans="2:9">
-      <c r="B37" s="32" t="s">
-        <v>154</v>
-      </c>
-      <c r="C37" s="33" t="s">
-        <v>203</v>
-      </c>
-      <c r="D37" s="49">
-        <v>1</v>
-      </c>
-      <c r="E37" s="33" t="s">
+        <v>196</v>
+      </c>
+      <c r="F36" s="37">
+        <v>13</v>
+      </c>
+      <c r="G36" s="56">
+        <v>5</v>
+      </c>
+      <c r="H36" s="56">
+        <v>6</v>
+      </c>
+      <c r="I36" s="56">
+        <f>SUM(G36+H36)</f>
+        <v>11</v>
+      </c>
+      <c r="J36" s="26"/>
+    </row>
+    <row r="37" spans="2:10" hidden="1">
+      <c r="B37" s="31" t="s">
+        <v>182</v>
+      </c>
+      <c r="C37" s="39" t="s">
+        <v>202</v>
+      </c>
+      <c r="D37" s="45">
+        <v>5</v>
+      </c>
+      <c r="E37" s="39" t="s">
         <v>200</v>
       </c>
-      <c r="F37" s="33"/>
-      <c r="G37" s="33"/>
-      <c r="H37" s="33"/>
-      <c r="I37" s="33"/>
-    </row>
-    <row r="38" spans="2:9">
-      <c r="B38" s="32" t="s">
-        <v>155</v>
-      </c>
-      <c r="C38" s="33" t="s">
-        <v>203</v>
-      </c>
-      <c r="D38" s="49">
-        <v>4</v>
-      </c>
-      <c r="E38" s="33" t="s">
+      <c r="F37" s="37">
+        <v>12</v>
+      </c>
+      <c r="G37" s="56">
+        <v>5</v>
+      </c>
+      <c r="H37" s="56">
+        <v>6</v>
+      </c>
+      <c r="I37" s="56">
+        <f>SUM(G37+H37)</f>
+        <v>11</v>
+      </c>
+      <c r="J37" s="26"/>
+    </row>
+    <row r="38" spans="2:10" hidden="1">
+      <c r="B38" s="31" t="s">
+        <v>184</v>
+      </c>
+      <c r="C38" s="39" t="s">
+        <v>202</v>
+      </c>
+      <c r="D38" s="45">
+        <v>6</v>
+      </c>
+      <c r="E38" s="39" t="s">
+        <v>200</v>
+      </c>
+      <c r="F38" s="37">
+        <v>12</v>
+      </c>
+      <c r="G38" s="56">
+        <v>5</v>
+      </c>
+      <c r="H38" s="56">
+        <v>6</v>
+      </c>
+      <c r="I38" s="56">
+        <f>SUM(G38+H38)</f>
+        <v>11</v>
+      </c>
+      <c r="J38" s="26"/>
+    </row>
+    <row r="39" spans="2:10" hidden="1">
+      <c r="B39" s="31" t="s">
+        <v>162</v>
+      </c>
+      <c r="C39" s="39" t="s">
+        <v>202</v>
+      </c>
+      <c r="D39" s="45">
+        <v>7</v>
+      </c>
+      <c r="E39" s="39" t="s">
+        <v>196</v>
+      </c>
+      <c r="F39" s="37">
+        <v>11</v>
+      </c>
+      <c r="G39" s="56">
+        <v>5</v>
+      </c>
+      <c r="H39" s="56">
+        <v>5</v>
+      </c>
+      <c r="I39" s="56">
+        <f>SUM(G39+H39)</f>
+        <v>10</v>
+      </c>
+      <c r="J39" s="26"/>
+    </row>
+    <row r="40" spans="2:10" hidden="1">
+      <c r="B40" s="31" t="s">
+        <v>149</v>
+      </c>
+      <c r="C40" s="39" t="s">
+        <v>202</v>
+      </c>
+      <c r="D40" s="45">
+        <v>8</v>
+      </c>
+      <c r="E40" s="39" t="s">
         <v>198</v>
       </c>
-      <c r="F38" s="33"/>
-      <c r="G38" s="33"/>
-      <c r="H38" s="33"/>
-      <c r="I38" s="33"/>
-    </row>
-    <row r="39" spans="2:9">
-      <c r="B39" s="27" t="s">
-        <v>120</v>
-      </c>
-      <c r="C39" s="39" t="s">
-        <v>201</v>
-      </c>
-      <c r="D39" s="46">
-        <v>19</v>
-      </c>
-      <c r="E39" s="39" t="s">
+      <c r="F40" s="37">
+        <v>11</v>
+      </c>
+      <c r="G40" s="56">
+        <v>5</v>
+      </c>
+      <c r="H40" s="56">
+        <v>5</v>
+      </c>
+      <c r="I40" s="56">
+        <f>SUM(G40+H40)</f>
+        <v>10</v>
+      </c>
+      <c r="J40" s="26"/>
+    </row>
+    <row r="41" spans="2:10" hidden="1">
+      <c r="B41" s="27" t="s">
+        <v>143</v>
+      </c>
+      <c r="C41" s="39" t="s">
+        <v>202</v>
+      </c>
+      <c r="D41" s="45">
+        <v>9</v>
+      </c>
+      <c r="E41" s="25" t="s">
+        <v>199</v>
+      </c>
+      <c r="F41" s="37">
+        <v>10</v>
+      </c>
+      <c r="G41" s="56">
+        <v>5</v>
+      </c>
+      <c r="H41" s="56">
+        <v>5</v>
+      </c>
+      <c r="I41" s="56">
+        <f>SUM(G41+H41)</f>
+        <v>10</v>
+      </c>
+      <c r="J41" s="26"/>
+    </row>
+    <row r="42" spans="2:10" hidden="1">
+      <c r="B42" s="31" t="s">
+        <v>148</v>
+      </c>
+      <c r="C42" s="39" t="s">
+        <v>202</v>
+      </c>
+      <c r="D42" s="45">
+        <v>10</v>
+      </c>
+      <c r="E42" s="39" t="s">
         <v>198</v>
       </c>
-      <c r="F39" s="25"/>
-      <c r="G39" s="26"/>
-      <c r="H39" s="26"/>
-      <c r="I39" s="26"/>
-    </row>
-    <row r="40" spans="2:9">
-      <c r="B40" s="31" t="s">
-        <v>157</v>
-      </c>
-      <c r="C40" s="39" t="s">
-        <v>201</v>
-      </c>
-      <c r="D40" s="46">
-        <v>28</v>
-      </c>
-      <c r="E40" s="39" t="s">
-        <v>196</v>
-      </c>
-      <c r="F40" s="25"/>
-      <c r="G40" s="26"/>
-      <c r="H40" s="26"/>
-      <c r="I40" s="26"/>
-    </row>
-    <row r="41" spans="2:9">
-      <c r="B41" s="31" t="s">
-        <v>158</v>
-      </c>
-      <c r="C41" s="39" t="s">
-        <v>201</v>
-      </c>
-      <c r="D41" s="46">
-        <v>2</v>
-      </c>
-      <c r="E41" s="39" t="s">
-        <v>196</v>
-      </c>
-      <c r="F41" s="25"/>
-      <c r="G41" s="26"/>
-      <c r="H41" s="26"/>
-      <c r="I41" s="26"/>
-    </row>
-    <row r="42" spans="2:9">
-      <c r="B42" s="31" t="s">
-        <v>146</v>
-      </c>
-      <c r="C42" s="39" t="s">
-        <v>201</v>
-      </c>
-      <c r="D42" s="46">
-        <v>16</v>
-      </c>
-      <c r="E42" s="39" t="s">
-        <v>200</v>
-      </c>
-      <c r="F42" s="25"/>
-      <c r="G42" s="26"/>
-      <c r="H42" s="26"/>
-      <c r="I42" s="26"/>
-    </row>
-    <row r="43" spans="2:9">
+      <c r="F42" s="37">
+        <v>10</v>
+      </c>
+      <c r="G42" s="56">
+        <v>5</v>
+      </c>
+      <c r="H42" s="56">
+        <v>5</v>
+      </c>
+      <c r="I42" s="56">
+        <f>SUM(G42+H42)</f>
+        <v>10</v>
+      </c>
+      <c r="J42" s="26"/>
+    </row>
+    <row r="43" spans="2:10" hidden="1">
       <c r="B43" s="27" t="s">
-        <v>125</v>
+        <v>134</v>
       </c>
       <c r="C43" s="39" t="s">
         <v>202</v>
       </c>
-      <c r="D43" s="47">
-        <v>16</v>
+      <c r="D43" s="45">
+        <v>11</v>
       </c>
       <c r="E43" s="39" t="s">
         <v>198</v>
       </c>
-      <c r="F43" s="25"/>
-      <c r="G43" s="26"/>
-      <c r="H43" s="26"/>
-      <c r="I43" s="26"/>
-    </row>
-    <row r="44" spans="2:9">
-      <c r="B44" s="27" t="s">
-        <v>132</v>
+      <c r="F43" s="37">
+        <v>10</v>
+      </c>
+      <c r="G43" s="56">
+        <v>5</v>
+      </c>
+      <c r="H43" s="56">
+        <v>5</v>
+      </c>
+      <c r="I43" s="56">
+        <f>SUM(G43+H43)</f>
+        <v>10</v>
+      </c>
+      <c r="J43" s="26"/>
+    </row>
+    <row r="44" spans="2:10" hidden="1">
+      <c r="B44" s="31" t="s">
+        <v>172</v>
       </c>
       <c r="C44" s="39" t="s">
         <v>202</v>
       </c>
-      <c r="D44" s="47">
-        <v>25</v>
+      <c r="D44" s="45">
+        <v>12</v>
       </c>
       <c r="E44" s="39" t="s">
-        <v>198</v>
-      </c>
-      <c r="F44" s="25"/>
-      <c r="G44" s="26"/>
-      <c r="H44" s="26"/>
-      <c r="I44" s="26"/>
-    </row>
-    <row r="45" spans="2:9">
+        <v>197</v>
+      </c>
+      <c r="F44" s="37">
+        <v>10</v>
+      </c>
+      <c r="G44" s="56">
+        <v>5</v>
+      </c>
+      <c r="H44" s="56">
+        <v>5</v>
+      </c>
+      <c r="I44" s="56">
+        <f>SUM(G44+H44)</f>
+        <v>10</v>
+      </c>
+      <c r="J44" s="26"/>
+    </row>
+    <row r="45" spans="2:10" hidden="1">
       <c r="B45" s="31" t="s">
-        <v>160</v>
+        <v>179</v>
       </c>
       <c r="C45" s="39" t="s">
         <v>202</v>
       </c>
-      <c r="D45" s="47">
-        <v>14</v>
+      <c r="D45" s="45">
+        <v>13</v>
       </c>
       <c r="E45" s="39" t="s">
-        <v>196</v>
-      </c>
-      <c r="F45" s="25"/>
-      <c r="G45" s="26"/>
-      <c r="H45" s="26"/>
-      <c r="I45" s="26"/>
-    </row>
-    <row r="46" spans="2:9">
-      <c r="B46" s="27" t="s">
-        <v>144</v>
+        <v>200</v>
+      </c>
+      <c r="F45" s="37">
+        <v>9</v>
+      </c>
+      <c r="G45" s="56">
+        <v>4</v>
+      </c>
+      <c r="H45" s="56">
+        <v>5</v>
+      </c>
+      <c r="I45" s="56">
+        <f>SUM(G45+H45)</f>
+        <v>9</v>
+      </c>
+      <c r="J45" s="26"/>
+    </row>
+    <row r="46" spans="2:10" hidden="1">
+      <c r="B46" s="31" t="s">
+        <v>160</v>
       </c>
       <c r="C46" s="39" t="s">
         <v>202</v>
       </c>
-      <c r="D46" s="47">
-        <v>2</v>
-      </c>
-      <c r="E46" s="25" t="s">
-        <v>199</v>
-      </c>
-      <c r="F46" s="25"/>
-      <c r="G46" s="26"/>
-      <c r="H46" s="26"/>
-      <c r="I46" s="26"/>
-    </row>
-    <row r="47" spans="2:9">
-      <c r="B47" s="32" t="s">
-        <v>164</v>
-      </c>
-      <c r="C47" s="33" t="s">
-        <v>203</v>
-      </c>
-      <c r="D47" s="49">
+      <c r="D46" s="45">
+        <v>14</v>
+      </c>
+      <c r="E46" s="39" t="s">
+        <v>196</v>
+      </c>
+      <c r="F46" s="37">
         <v>9</v>
       </c>
-      <c r="E47" s="33" t="s">
+      <c r="G46" s="56">
+        <v>4</v>
+      </c>
+      <c r="H46" s="56">
+        <v>5</v>
+      </c>
+      <c r="I46" s="56">
+        <f>SUM(G46+H46)</f>
+        <v>9</v>
+      </c>
+      <c r="J46" s="26"/>
+    </row>
+    <row r="47" spans="2:10" hidden="1">
+      <c r="B47" s="31" t="s">
+        <v>161</v>
+      </c>
+      <c r="C47" s="39" t="s">
+        <v>202</v>
+      </c>
+      <c r="D47" s="45">
+        <v>15</v>
+      </c>
+      <c r="E47" s="39" t="s">
         <v>196</v>
       </c>
-      <c r="F47" s="33"/>
-      <c r="G47" s="33"/>
-      <c r="H47" s="33"/>
-      <c r="I47" s="33"/>
-    </row>
-    <row r="48" spans="2:9">
-      <c r="B48" s="40" t="s">
-        <v>165</v>
-      </c>
-      <c r="C48" s="40" t="s">
-        <v>151</v>
+      <c r="F47" s="37">
+        <v>9</v>
+      </c>
+      <c r="G47" s="56">
+        <v>4</v>
+      </c>
+      <c r="H47" s="56">
+        <v>5</v>
+      </c>
+      <c r="I47" s="56">
+        <f>SUM(G47+H47)</f>
+        <v>9</v>
+      </c>
+      <c r="J47" s="26"/>
+    </row>
+    <row r="48" spans="2:10" hidden="1">
+      <c r="B48" s="27" t="s">
+        <v>125</v>
+      </c>
+      <c r="C48" s="52" t="s">
+        <v>202</v>
       </c>
       <c r="D48" s="54">
-        <v>6</v>
-      </c>
-      <c r="E48" s="41" t="s">
-        <v>196</v>
-      </c>
-      <c r="F48" s="40"/>
-      <c r="G48" s="40"/>
-      <c r="H48" s="40"/>
-      <c r="I48" s="40"/>
-    </row>
-    <row r="49" spans="2:9">
-      <c r="B49" s="40" t="s">
-        <v>166</v>
-      </c>
-      <c r="C49" s="40" t="s">
-        <v>151</v>
+        <v>16</v>
+      </c>
+      <c r="E48" s="39" t="s">
+        <v>198</v>
+      </c>
+      <c r="F48" s="59">
+        <v>8</v>
+      </c>
+      <c r="G48" s="57">
+        <v>4</v>
+      </c>
+      <c r="H48" s="57">
+        <v>5</v>
+      </c>
+      <c r="I48" s="56">
+        <f>SUM(G48+H48)</f>
+        <v>9</v>
+      </c>
+      <c r="J48" s="26"/>
+    </row>
+    <row r="49" spans="2:10" hidden="1">
+      <c r="B49" s="31" t="s">
+        <v>171</v>
+      </c>
+      <c r="C49" s="52" t="s">
+        <v>202</v>
       </c>
       <c r="D49" s="54">
-        <v>3</v>
-      </c>
-      <c r="E49" s="41" t="s">
-        <v>196</v>
-      </c>
-      <c r="F49" s="40"/>
-      <c r="G49" s="40"/>
-      <c r="H49" s="40"/>
-      <c r="I49" s="40"/>
-    </row>
-    <row r="50" spans="2:9">
-      <c r="B50" s="27" t="s">
-        <v>121</v>
+        <v>17</v>
+      </c>
+      <c r="E49" s="39" t="s">
+        <v>197</v>
+      </c>
+      <c r="F49" s="59">
+        <v>8</v>
+      </c>
+      <c r="G49" s="57">
+        <v>4</v>
+      </c>
+      <c r="H49" s="57">
+        <v>5</v>
+      </c>
+      <c r="I49" s="56">
+        <f>SUM(G49+H49)</f>
+        <v>9</v>
+      </c>
+      <c r="J49" s="26"/>
+    </row>
+    <row r="50" spans="2:10" hidden="1">
+      <c r="B50" s="31" t="s">
+        <v>173</v>
       </c>
       <c r="C50" s="39" t="s">
-        <v>201</v>
-      </c>
-      <c r="D50" s="46">
-        <v>22</v>
+        <v>202</v>
+      </c>
+      <c r="D50" s="45">
+        <v>18</v>
       </c>
       <c r="E50" s="39" t="s">
-        <v>198</v>
-      </c>
-      <c r="F50" s="25"/>
-      <c r="G50" s="26"/>
-      <c r="H50" s="26"/>
-      <c r="I50" s="26"/>
-    </row>
-    <row r="51" spans="2:9">
+        <v>197</v>
+      </c>
+      <c r="F50" s="37">
+        <v>9</v>
+      </c>
+      <c r="G50" s="56">
+        <v>4</v>
+      </c>
+      <c r="H50" s="56">
+        <v>4</v>
+      </c>
+      <c r="I50" s="56">
+        <f>SUM(G50+H50)</f>
+        <v>8</v>
+      </c>
+      <c r="J50" s="26"/>
+    </row>
+    <row r="51" spans="2:10" hidden="1">
       <c r="B51" s="27" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="C51" s="39" t="s">
-        <v>201</v>
-      </c>
-      <c r="D51" s="46">
-        <v>21</v>
+        <v>202</v>
+      </c>
+      <c r="D51" s="45">
+        <v>19</v>
       </c>
       <c r="E51" s="39" t="s">
         <v>198</v>
       </c>
-      <c r="F51" s="25"/>
-      <c r="G51" s="26"/>
-      <c r="H51" s="26"/>
-      <c r="I51" s="26"/>
-    </row>
-    <row r="52" spans="2:9">
-      <c r="B52" s="31" t="s">
-        <v>189</v>
+      <c r="F51" s="37">
+        <v>9</v>
+      </c>
+      <c r="G51" s="56">
+        <v>4</v>
+      </c>
+      <c r="H51" s="56">
+        <v>4</v>
+      </c>
+      <c r="I51" s="56">
+        <f>SUM(G51+H51)</f>
+        <v>8</v>
+      </c>
+      <c r="J51" s="26"/>
+    </row>
+    <row r="52" spans="2:10" hidden="1">
+      <c r="B52" s="27" t="s">
+        <v>142</v>
       </c>
       <c r="C52" s="39" t="s">
-        <v>201</v>
-      </c>
-      <c r="D52" s="46">
+        <v>202</v>
+      </c>
+      <c r="D52" s="45">
+        <v>20</v>
+      </c>
+      <c r="E52" s="25" t="s">
+        <v>199</v>
+      </c>
+      <c r="F52" s="37">
+        <v>8</v>
+      </c>
+      <c r="G52" s="56">
         <v>4</v>
       </c>
-      <c r="E52" s="39" t="s">
-        <v>196</v>
-      </c>
-      <c r="F52" s="25"/>
-      <c r="G52" s="26"/>
-      <c r="H52" s="26"/>
-      <c r="I52" s="26"/>
-    </row>
-    <row r="53" spans="2:9">
+      <c r="H52" s="56">
+        <v>4</v>
+      </c>
+      <c r="I52" s="56">
+        <f>SUM(G52+H52)</f>
+        <v>8</v>
+      </c>
+      <c r="J52" s="26"/>
+    </row>
+    <row r="53" spans="2:10" hidden="1">
       <c r="B53" s="27" t="s">
-        <v>140</v>
+        <v>124</v>
       </c>
       <c r="C53" s="39" t="s">
-        <v>201</v>
-      </c>
-      <c r="D53" s="46">
-        <v>3</v>
-      </c>
-      <c r="E53" s="25" t="s">
+        <v>202</v>
+      </c>
+      <c r="D53" s="45">
+        <v>21</v>
+      </c>
+      <c r="E53" s="39" t="s">
+        <v>198</v>
+      </c>
+      <c r="F53" s="37">
+        <v>8</v>
+      </c>
+      <c r="G53" s="56">
+        <v>4</v>
+      </c>
+      <c r="H53" s="56">
+        <v>4</v>
+      </c>
+      <c r="I53" s="56">
+        <f>SUM(G53+H53)</f>
+        <v>8</v>
+      </c>
+      <c r="J53" s="26"/>
+    </row>
+    <row r="54" spans="2:10" hidden="1">
+      <c r="B54" s="27" t="s">
+        <v>141</v>
+      </c>
+      <c r="C54" s="42" t="s">
+        <v>202</v>
+      </c>
+      <c r="D54" s="44">
+        <v>22</v>
+      </c>
+      <c r="E54" s="25" t="s">
         <v>199</v>
       </c>
-      <c r="F53" s="25"/>
-      <c r="G53" s="26"/>
-      <c r="H53" s="26"/>
-      <c r="I53" s="26"/>
-    </row>
-    <row r="54" spans="2:9">
-      <c r="B54" s="27" t="s">
-        <v>124</v>
-      </c>
-      <c r="C54" s="39" t="s">
-        <v>202</v>
-      </c>
-      <c r="D54" s="47">
-        <v>21</v>
-      </c>
-      <c r="E54" s="39" t="s">
-        <v>198</v>
-      </c>
-      <c r="F54" s="25"/>
-      <c r="G54" s="26"/>
-      <c r="H54" s="26"/>
-      <c r="I54" s="26"/>
-    </row>
-    <row r="55" spans="2:9">
+      <c r="F54" s="37">
+        <v>7</v>
+      </c>
+      <c r="G54" s="56">
+        <v>4</v>
+      </c>
+      <c r="H54" s="56">
+        <v>4</v>
+      </c>
+      <c r="I54" s="56">
+        <f>SUM(G54+H54)</f>
+        <v>8</v>
+      </c>
+      <c r="J54" s="26"/>
+    </row>
+    <row r="55" spans="2:10" hidden="1">
       <c r="B55" s="27" t="s">
         <v>133</v>
       </c>
       <c r="C55" s="39" t="s">
         <v>202</v>
       </c>
-      <c r="D55" s="47">
+      <c r="D55" s="45">
         <v>23</v>
       </c>
       <c r="E55" s="39" t="s">
         <v>198</v>
       </c>
-      <c r="F55" s="25"/>
-      <c r="G55" s="26"/>
-      <c r="H55" s="26"/>
-      <c r="I55" s="26"/>
-    </row>
-    <row r="56" spans="2:9">
+      <c r="F55" s="37">
+        <v>7</v>
+      </c>
+      <c r="G55" s="56">
+        <v>4</v>
+      </c>
+      <c r="H55" s="56">
+        <v>4</v>
+      </c>
+      <c r="I55" s="56">
+        <f>SUM(G55+H55)</f>
+        <v>8</v>
+      </c>
+      <c r="J55" s="26"/>
+    </row>
+    <row r="56" spans="2:10" hidden="1">
       <c r="B56" s="31" t="s">
-        <v>172</v>
+        <v>150</v>
       </c>
       <c r="C56" s="39" t="s">
         <v>202</v>
       </c>
-      <c r="D56" s="47">
+      <c r="D56" s="45">
+        <v>24</v>
+      </c>
+      <c r="E56" s="39" t="s">
+        <v>198</v>
+      </c>
+      <c r="F56" s="37">
+        <v>6</v>
+      </c>
+      <c r="G56" s="56">
+        <v>4</v>
+      </c>
+      <c r="H56" s="56">
+        <v>4</v>
+      </c>
+      <c r="I56" s="56">
+        <f>SUM(G56+H56)</f>
+        <v>8</v>
+      </c>
+      <c r="J56" s="26"/>
+    </row>
+    <row r="57" spans="2:10" hidden="1">
+      <c r="B57" s="27" t="s">
+        <v>132</v>
+      </c>
+      <c r="C57" s="39" t="s">
+        <v>202</v>
+      </c>
+      <c r="D57" s="45">
+        <v>25</v>
+      </c>
+      <c r="E57" s="39" t="s">
+        <v>198</v>
+      </c>
+      <c r="F57" s="37">
+        <v>6</v>
+      </c>
+      <c r="G57" s="56">
+        <v>4</v>
+      </c>
+      <c r="H57" s="56">
+        <v>4</v>
+      </c>
+      <c r="I57" s="56">
+        <f>SUM(G57+H57)</f>
+        <v>8</v>
+      </c>
+      <c r="J57" s="26"/>
+    </row>
+    <row r="58" spans="2:10" hidden="1">
+      <c r="B58" s="27" t="s">
+        <v>131</v>
+      </c>
+      <c r="C58" s="39" t="s">
+        <v>202</v>
+      </c>
+      <c r="D58" s="45">
+        <v>26</v>
+      </c>
+      <c r="E58" s="39" t="s">
+        <v>198</v>
+      </c>
+      <c r="F58" s="59">
+        <v>5</v>
+      </c>
+      <c r="G58" s="57">
+        <v>4</v>
+      </c>
+      <c r="H58" s="56">
+        <v>4</v>
+      </c>
+      <c r="I58" s="56">
+        <f>SUM(G58+H58)</f>
+        <v>8</v>
+      </c>
+      <c r="J58" s="26"/>
+    </row>
+    <row r="59" spans="2:10" hidden="1">
+      <c r="B59" s="27" t="s">
+        <v>136</v>
+      </c>
+      <c r="C59" s="64" t="s">
+        <v>202</v>
+      </c>
+      <c r="D59" s="53">
+        <v>27</v>
+      </c>
+      <c r="E59" s="27" t="s">
+        <v>199</v>
+      </c>
+      <c r="F59" s="37">
+        <v>5</v>
+      </c>
+      <c r="G59" s="57">
+        <v>4</v>
+      </c>
+      <c r="H59" s="56">
+        <v>4</v>
+      </c>
+      <c r="I59" s="56">
+        <f>SUM(G59+H59)</f>
+        <v>8</v>
+      </c>
+      <c r="J59" s="26"/>
+    </row>
+    <row r="60" spans="2:10">
+      <c r="B60" s="32" t="s">
+        <v>164</v>
+      </c>
+      <c r="C60" s="33" t="s">
+        <v>203</v>
+      </c>
+      <c r="D60" s="62">
+        <v>9</v>
+      </c>
+      <c r="E60" s="32" t="s">
+        <v>196</v>
+      </c>
+      <c r="F60" s="46">
+        <v>10</v>
+      </c>
+      <c r="G60" s="62">
+        <v>6</v>
+      </c>
+      <c r="H60" s="46">
+        <v>6</v>
+      </c>
+      <c r="I60" s="46">
+        <f>SUM(G60+H60)</f>
         <v>12</v>
       </c>
-      <c r="E56" s="39" t="s">
-        <v>197</v>
-      </c>
-      <c r="F56" s="25"/>
-      <c r="G56" s="26"/>
-      <c r="H56" s="26"/>
-      <c r="I56" s="26"/>
-    </row>
-    <row r="57" spans="2:9">
-      <c r="B57" s="32" t="s">
-        <v>174</v>
-      </c>
-      <c r="C57" s="33" t="s">
+      <c r="J60" s="33"/>
+    </row>
+    <row r="61" spans="2:10">
+      <c r="B61" s="47" t="s">
+        <v>135</v>
+      </c>
+      <c r="C61" s="48" t="s">
         <v>203</v>
       </c>
-      <c r="D57" s="49">
-        <v>3</v>
-      </c>
-      <c r="E57" s="33" t="s">
-        <v>197</v>
-      </c>
-      <c r="F57" s="33"/>
-      <c r="G57" s="33"/>
-      <c r="H57" s="33"/>
-      <c r="I57" s="33"/>
-    </row>
-    <row r="58" spans="2:9">
-      <c r="B58" s="32" t="s">
-        <v>175</v>
-      </c>
-      <c r="C58" s="33" t="s">
+      <c r="D61" s="49">
+        <v>8</v>
+      </c>
+      <c r="E61" s="48" t="s">
+        <v>198</v>
+      </c>
+      <c r="F61" s="46">
+        <v>10</v>
+      </c>
+      <c r="G61" s="46">
+        <v>6</v>
+      </c>
+      <c r="H61" s="46">
+        <v>6</v>
+      </c>
+      <c r="I61" s="46">
+        <f>SUM(G61+H61)</f>
+        <v>12</v>
+      </c>
+      <c r="J61" s="46"/>
+    </row>
+    <row r="62" spans="2:10">
+      <c r="B62" s="32" t="s">
+        <v>209</v>
+      </c>
+      <c r="C62" s="33" t="s">
         <v>203</v>
       </c>
-      <c r="D58" s="49">
-        <v>2</v>
-      </c>
-      <c r="E58" s="33" t="s">
-        <v>197</v>
-      </c>
-      <c r="F58" s="32"/>
-      <c r="G58" s="32"/>
-      <c r="H58" s="33"/>
-      <c r="I58" s="33"/>
-    </row>
-    <row r="59" spans="2:9">
-      <c r="B59" s="40" t="s">
-        <v>176</v>
-      </c>
-      <c r="C59" s="40" t="s">
-        <v>151</v>
-      </c>
-      <c r="D59" s="54">
-        <v>4</v>
-      </c>
-      <c r="E59" s="40" t="s">
-        <v>197</v>
-      </c>
-      <c r="F59" s="35"/>
-      <c r="G59" s="34"/>
-      <c r="H59" s="35"/>
-      <c r="I59" s="34"/>
-    </row>
-    <row r="60" spans="2:9">
-      <c r="B60" s="34" t="s">
-        <v>188</v>
-      </c>
-      <c r="C60" s="35" t="s">
-        <v>187</v>
-      </c>
-      <c r="D60" s="55" t="s">
-        <v>211</v>
-      </c>
-      <c r="E60" s="34" t="s">
-        <v>197</v>
-      </c>
-      <c r="F60" s="35"/>
-      <c r="G60" s="34"/>
-      <c r="H60" s="35"/>
-      <c r="I60" s="34"/>
-    </row>
-    <row r="61" spans="2:9">
-      <c r="B61" s="31" t="s">
-        <v>167</v>
-      </c>
-      <c r="C61" s="39" t="s">
-        <v>201</v>
-      </c>
-      <c r="D61" s="46">
-        <v>10</v>
-      </c>
-      <c r="E61" s="39" t="s">
-        <v>197</v>
-      </c>
-      <c r="F61" s="25"/>
-      <c r="G61" s="26"/>
-      <c r="H61" s="26"/>
-      <c r="I61" s="26"/>
-    </row>
-    <row r="62" spans="2:9">
-      <c r="B62" s="27" t="s">
-        <v>122</v>
-      </c>
-      <c r="C62" s="39" t="s">
-        <v>201</v>
-      </c>
       <c r="D62" s="46">
+        <v>7</v>
+      </c>
+      <c r="E62" s="33" t="s">
+        <v>199</v>
+      </c>
+      <c r="F62" s="46">
+        <v>11</v>
+      </c>
+      <c r="G62" s="46">
+        <v>6</v>
+      </c>
+      <c r="H62" s="46">
+        <v>6</v>
+      </c>
+      <c r="I62" s="46">
+        <f>SUM(G62+H62)</f>
         <v>12</v>
       </c>
-      <c r="E62" s="39" t="s">
-        <v>198</v>
-      </c>
-      <c r="F62" s="25"/>
-      <c r="G62" s="26"/>
-      <c r="H62" s="26"/>
-      <c r="I62" s="26"/>
-    </row>
-    <row r="63" spans="2:9">
-      <c r="B63" s="27" t="s">
-        <v>129</v>
-      </c>
-      <c r="C63" s="39" t="s">
-        <v>201</v>
+      <c r="J62" s="33"/>
+    </row>
+    <row r="63" spans="2:10">
+      <c r="B63" s="32" t="s">
+        <v>185</v>
+      </c>
+      <c r="C63" s="33" t="s">
+        <v>203</v>
       </c>
       <c r="D63" s="46">
-        <v>14</v>
-      </c>
-      <c r="E63" s="39" t="s">
-        <v>198</v>
-      </c>
-      <c r="F63" s="25"/>
-      <c r="G63" s="26"/>
-      <c r="H63" s="26"/>
-      <c r="I63" s="26"/>
-    </row>
-    <row r="64" spans="2:9">
-      <c r="B64" s="31" t="s">
-        <v>159</v>
-      </c>
-      <c r="C64" s="39" t="s">
-        <v>201</v>
+        <v>6</v>
+      </c>
+      <c r="E63" s="33" t="s">
+        <v>200</v>
+      </c>
+      <c r="F63" s="46">
+        <v>11</v>
+      </c>
+      <c r="G63" s="46">
+        <v>6</v>
+      </c>
+      <c r="H63" s="46">
+        <v>7</v>
+      </c>
+      <c r="I63" s="46">
+        <f>SUM(G63+H63)</f>
+        <v>13</v>
+      </c>
+      <c r="J63" s="33"/>
+    </row>
+    <row r="64" spans="2:10">
+      <c r="B64" s="32" t="s">
+        <v>192</v>
+      </c>
+      <c r="C64" s="33" t="s">
+        <v>203</v>
       </c>
       <c r="D64" s="46">
         <v>5</v>
       </c>
-      <c r="E64" s="39" t="s">
+      <c r="E64" s="33" t="s">
         <v>196</v>
       </c>
-      <c r="F64" s="25"/>
-      <c r="G64" s="26"/>
-      <c r="H64" s="26"/>
-      <c r="I64" s="26"/>
-    </row>
-    <row r="65" spans="2:9">
-      <c r="B65" s="27" t="s">
-        <v>134</v>
-      </c>
-      <c r="C65" s="39" t="s">
-        <v>202</v>
-      </c>
-      <c r="D65" s="47">
-        <v>11</v>
-      </c>
-      <c r="E65" s="39" t="s">
+      <c r="F64" s="46">
+        <v>12</v>
+      </c>
+      <c r="G64" s="46">
+        <v>7</v>
+      </c>
+      <c r="H64" s="46">
+        <v>6</v>
+      </c>
+      <c r="I64" s="46">
+        <f>SUM(G64+H64)</f>
+        <v>13</v>
+      </c>
+      <c r="J64" s="33"/>
+    </row>
+    <row r="65" spans="2:10">
+      <c r="B65" s="32" t="s">
+        <v>155</v>
+      </c>
+      <c r="C65" s="33" t="s">
+        <v>203</v>
+      </c>
+      <c r="D65" s="46">
+        <v>4</v>
+      </c>
+      <c r="E65" s="33" t="s">
         <v>198</v>
       </c>
-      <c r="F65" s="25"/>
-      <c r="G65" s="26"/>
-      <c r="H65" s="26"/>
-      <c r="I65" s="26"/>
-    </row>
-    <row r="66" spans="2:9">
-      <c r="B66" s="31" t="s">
-        <v>171</v>
-      </c>
-      <c r="C66" s="39" t="s">
-        <v>202</v>
-      </c>
-      <c r="D66" s="47">
-        <v>17</v>
-      </c>
-      <c r="E66" s="39" t="s">
+      <c r="F65" s="46">
+        <v>12</v>
+      </c>
+      <c r="G65" s="46">
+        <v>7</v>
+      </c>
+      <c r="H65" s="46">
+        <v>7</v>
+      </c>
+      <c r="I65" s="46">
+        <f>SUM(G65+H65)</f>
+        <v>14</v>
+      </c>
+      <c r="J65" s="33"/>
+    </row>
+    <row r="66" spans="2:10">
+      <c r="B66" s="32" t="s">
+        <v>174</v>
+      </c>
+      <c r="C66" s="33" t="s">
+        <v>203</v>
+      </c>
+      <c r="D66" s="46">
+        <v>3</v>
+      </c>
+      <c r="E66" s="33" t="s">
         <v>197</v>
       </c>
-      <c r="F66" s="25"/>
-      <c r="G66" s="26"/>
-      <c r="H66" s="26"/>
-      <c r="I66" s="26"/>
-    </row>
-    <row r="67" spans="2:9">
-      <c r="B67" s="31" t="s">
-        <v>183</v>
-      </c>
-      <c r="C67" s="39" t="s">
-        <v>202</v>
-      </c>
-      <c r="D67" s="47">
-        <v>3</v>
-      </c>
-      <c r="E67" s="39" t="s">
-        <v>200</v>
-      </c>
-      <c r="F67" s="25"/>
-      <c r="G67" s="26"/>
-      <c r="H67" s="26"/>
-      <c r="I67" s="26"/>
-    </row>
-    <row r="68" spans="2:9">
-      <c r="B68" s="27" t="s">
-        <v>141</v>
-      </c>
-      <c r="C68" s="44" t="s">
-        <v>202</v>
+      <c r="F66" s="46">
+        <v>13</v>
+      </c>
+      <c r="G66" s="46">
+        <v>7</v>
+      </c>
+      <c r="H66" s="46">
+        <v>7</v>
+      </c>
+      <c r="I66" s="46">
+        <f>SUM(G66+H66)</f>
+        <v>14</v>
+      </c>
+      <c r="J66" s="33"/>
+    </row>
+    <row r="67" spans="2:10">
+      <c r="B67" s="40" t="s">
+        <v>176</v>
+      </c>
+      <c r="C67" s="41" t="s">
+        <v>151</v>
+      </c>
+      <c r="D67" s="50">
+        <v>4</v>
+      </c>
+      <c r="E67" s="41" t="s">
+        <v>197</v>
+      </c>
+      <c r="F67" s="50">
+        <v>16</v>
+      </c>
+      <c r="G67" s="50">
+        <v>8</v>
+      </c>
+      <c r="H67" s="50">
+        <v>7</v>
+      </c>
+      <c r="I67" s="50">
+        <f>SUM(G67+H67)</f>
+        <v>15</v>
+      </c>
+      <c r="J67" s="41"/>
+    </row>
+    <row r="68" spans="2:10">
+      <c r="B68" s="32" t="s">
+        <v>175</v>
+      </c>
+      <c r="C68" s="33" t="s">
+        <v>203</v>
       </c>
       <c r="D68" s="46">
-        <v>22</v>
-      </c>
-      <c r="E68" s="25" t="s">
-        <v>199</v>
-      </c>
-      <c r="F68" s="25"/>
-      <c r="G68" s="26"/>
-      <c r="H68" s="26"/>
-      <c r="I68" s="26"/>
-    </row>
-    <row r="69" spans="2:9">
+        <v>2</v>
+      </c>
+      <c r="E68" s="33" t="s">
+        <v>197</v>
+      </c>
+      <c r="F68" s="46">
+        <v>14</v>
+      </c>
+      <c r="G68" s="46">
+        <v>7</v>
+      </c>
+      <c r="H68" s="46">
+        <v>8</v>
+      </c>
+      <c r="I68" s="46">
+        <f>SUM(G68+H68)</f>
+        <v>15</v>
+      </c>
+      <c r="J68" s="33"/>
+    </row>
+    <row r="69" spans="2:10">
       <c r="B69" s="32" t="s">
-        <v>185</v>
+        <v>154</v>
       </c>
       <c r="C69" s="33" t="s">
         <v>203</v>
       </c>
-      <c r="D69" s="49">
-        <v>6</v>
+      <c r="D69" s="46">
+        <v>1</v>
       </c>
       <c r="E69" s="33" t="s">
         <v>200</v>
       </c>
-      <c r="F69" s="33"/>
-      <c r="G69" s="33"/>
-      <c r="H69" s="33"/>
-      <c r="I69" s="33"/>
-    </row>
-    <row r="70" spans="2:9">
-      <c r="B70" s="34" t="s">
+      <c r="F69" s="46">
+        <v>14</v>
+      </c>
+      <c r="G69" s="46">
+        <v>7</v>
+      </c>
+      <c r="H69" s="46">
+        <v>8</v>
+      </c>
+      <c r="I69" s="46">
+        <f>SUM(G69+H69)</f>
+        <v>15</v>
+      </c>
+      <c r="J69" s="33"/>
+    </row>
+    <row r="70" spans="2:10">
+      <c r="B70" s="40" t="s">
+        <v>194</v>
+      </c>
+      <c r="C70" s="41" t="s">
+        <v>151</v>
+      </c>
+      <c r="D70" s="50">
+        <v>5</v>
+      </c>
+      <c r="E70" s="41" t="s">
+        <v>196</v>
+      </c>
+      <c r="F70" s="50">
+        <v>15</v>
+      </c>
+      <c r="G70" s="50">
+        <v>8</v>
+      </c>
+      <c r="H70" s="50">
+        <v>7</v>
+      </c>
+      <c r="I70" s="50">
+        <f>SUM(G70+H70)</f>
+        <v>15</v>
+      </c>
+      <c r="J70" s="41"/>
+    </row>
+    <row r="71" spans="2:10">
+      <c r="B71" s="40" t="s">
+        <v>165</v>
+      </c>
+      <c r="C71" s="41" t="s">
+        <v>151</v>
+      </c>
+      <c r="D71" s="50">
+        <v>6</v>
+      </c>
+      <c r="E71" s="41" t="s">
+        <v>196</v>
+      </c>
+      <c r="F71" s="50">
+        <v>15</v>
+      </c>
+      <c r="G71" s="50">
+        <v>8</v>
+      </c>
+      <c r="H71" s="50">
+        <v>7</v>
+      </c>
+      <c r="I71" s="50">
+        <f>SUM(G71+H71)</f>
+        <v>15</v>
+      </c>
+      <c r="J71" s="41"/>
+    </row>
+    <row r="72" spans="2:10">
+      <c r="B72" s="40" t="s">
+        <v>166</v>
+      </c>
+      <c r="C72" s="41" t="s">
+        <v>151</v>
+      </c>
+      <c r="D72" s="50">
+        <v>3</v>
+      </c>
+      <c r="E72" s="41" t="s">
+        <v>196</v>
+      </c>
+      <c r="F72" s="50">
+        <v>16</v>
+      </c>
+      <c r="G72" s="50">
+        <v>8</v>
+      </c>
+      <c r="H72" s="50">
+        <v>8</v>
+      </c>
+      <c r="I72" s="50">
+        <f>SUM(G72+H72)</f>
+        <v>16</v>
+      </c>
+      <c r="J72" s="41"/>
+    </row>
+    <row r="73" spans="2:10">
+      <c r="B73" s="40" t="s">
+        <v>193</v>
+      </c>
+      <c r="C73" s="41" t="s">
+        <v>151</v>
+      </c>
+      <c r="D73" s="50">
+        <v>1</v>
+      </c>
+      <c r="E73" s="41" t="s">
+        <v>197</v>
+      </c>
+      <c r="F73" s="50">
+        <v>17</v>
+      </c>
+      <c r="G73" s="50">
+        <v>9</v>
+      </c>
+      <c r="H73" s="50">
+        <v>8</v>
+      </c>
+      <c r="I73" s="50">
+        <f>SUM(G73+H73)</f>
+        <v>17</v>
+      </c>
+      <c r="J73" s="41"/>
+    </row>
+    <row r="74" spans="2:10">
+      <c r="B74" s="40" t="s">
+        <v>145</v>
+      </c>
+      <c r="C74" s="41" t="s">
+        <v>151</v>
+      </c>
+      <c r="D74" s="50">
+        <v>2</v>
+      </c>
+      <c r="E74" s="41" t="s">
+        <v>199</v>
+      </c>
+      <c r="F74" s="50">
+        <v>17</v>
+      </c>
+      <c r="G74" s="50">
+        <v>9</v>
+      </c>
+      <c r="H74" s="50">
+        <v>8</v>
+      </c>
+      <c r="I74" s="50">
+        <f>SUM(G74+H74)</f>
+        <v>17</v>
+      </c>
+      <c r="J74" s="41"/>
+    </row>
+    <row r="75" spans="2:10">
+      <c r="B75" s="34" t="s">
+        <v>188</v>
+      </c>
+      <c r="C75" s="35" t="s">
+        <v>187</v>
+      </c>
+      <c r="D75" s="51" t="s">
+        <v>210</v>
+      </c>
+      <c r="E75" s="35" t="s">
+        <v>197</v>
+      </c>
+      <c r="F75" s="51">
+        <v>20</v>
+      </c>
+      <c r="G75" s="51">
+        <v>10</v>
+      </c>
+      <c r="H75" s="51">
+        <v>9</v>
+      </c>
+      <c r="I75" s="51">
+        <f>SUM(G75+H75)</f>
+        <v>19</v>
+      </c>
+      <c r="J75" s="35"/>
+    </row>
+    <row r="76" spans="2:10">
+      <c r="B76" s="34" t="s">
         <v>186</v>
       </c>
-      <c r="C70" s="35" t="s">
+      <c r="C76" s="35" t="s">
         <v>187</v>
       </c>
-      <c r="D70" s="56" t="s">
-        <v>211</v>
-      </c>
-      <c r="E70" s="35" t="s">
+      <c r="D76" s="51" t="s">
+        <v>210</v>
+      </c>
+      <c r="E76" s="35" t="s">
         <v>197</v>
       </c>
-      <c r="F70" s="35"/>
-      <c r="G70" s="35"/>
-      <c r="H70" s="35"/>
-      <c r="I70" s="35"/>
-    </row>
-    <row r="71" spans="2:9">
-      <c r="B71" s="31" t="s">
-        <v>168</v>
-      </c>
-      <c r="C71" s="39" t="s">
-        <v>201</v>
-      </c>
-      <c r="D71" s="46">
-        <v>15</v>
-      </c>
-      <c r="E71" s="39" t="s">
-        <v>197</v>
-      </c>
-      <c r="F71" s="25"/>
-      <c r="G71" s="26"/>
-      <c r="H71" s="26"/>
-      <c r="I71" s="26"/>
-    </row>
-    <row r="72" spans="2:9">
-      <c r="B72" s="27" t="s">
-        <v>123</v>
-      </c>
-      <c r="C72" s="39" t="s">
-        <v>201</v>
-      </c>
-      <c r="D72" s="46">
-        <v>31</v>
-      </c>
-      <c r="E72" s="39" t="s">
-        <v>198</v>
-      </c>
-      <c r="F72" s="25"/>
-      <c r="G72" s="26"/>
-      <c r="H72" s="26"/>
-      <c r="I72" s="26"/>
-    </row>
-    <row r="73" spans="2:9">
-      <c r="B73" s="31" t="s">
-        <v>184</v>
-      </c>
-      <c r="C73" s="39" t="s">
-        <v>202</v>
-      </c>
-      <c r="D73" s="47">
-        <v>6</v>
-      </c>
-      <c r="E73" s="39" t="s">
-        <v>200</v>
-      </c>
-      <c r="F73" s="25"/>
-      <c r="G73" s="26"/>
-      <c r="H73" s="26"/>
-      <c r="I73" s="26"/>
-    </row>
-    <row r="74" spans="2:9">
-      <c r="B74" s="32" t="s">
-        <v>192</v>
-      </c>
-      <c r="C74" s="33" t="s">
-        <v>203</v>
-      </c>
-      <c r="D74" s="49">
-        <v>5</v>
-      </c>
-      <c r="E74" s="33" t="s">
-        <v>196</v>
-      </c>
-      <c r="F74" s="33"/>
-      <c r="G74" s="33"/>
-      <c r="H74" s="33"/>
-      <c r="I74" s="33"/>
-    </row>
-    <row r="75" spans="2:9">
-      <c r="B75" s="40" t="s">
-        <v>193</v>
-      </c>
-      <c r="C75" s="41" t="s">
-        <v>151</v>
-      </c>
-      <c r="D75" s="53">
-        <v>1</v>
-      </c>
-      <c r="E75" s="41" t="s">
-        <v>197</v>
-      </c>
-      <c r="F75" s="41"/>
-      <c r="G75" s="41"/>
-      <c r="H75" s="41"/>
-      <c r="I75" s="41"/>
-    </row>
-    <row r="76" spans="2:9">
-      <c r="B76" s="40" t="s">
-        <v>194</v>
-      </c>
-      <c r="C76" s="41" t="s">
-        <v>151</v>
-      </c>
-      <c r="D76" s="53">
-        <v>5</v>
-      </c>
-      <c r="E76" s="41" t="s">
-        <v>196</v>
-      </c>
-      <c r="F76" s="41"/>
-      <c r="G76" s="41"/>
-      <c r="H76" s="41"/>
-      <c r="I76" s="41"/>
+      <c r="F76" s="51">
+        <v>20</v>
+      </c>
+      <c r="G76" s="51">
+        <v>10</v>
+      </c>
+      <c r="H76" s="51">
+        <v>9</v>
+      </c>
+      <c r="I76" s="51">
+        <f>SUM(G76+H76)</f>
+        <v>19</v>
+      </c>
+      <c r="J76" s="35"/>
     </row>
   </sheetData>
-  <autoFilter ref="B1:I76" xr:uid="{2C6BD44E-C49F-49F0-BAAC-5F0D8342ACD5}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B9:I73">
-      <sortCondition ref="B1:B76"/>
+  <autoFilter ref="B1:J76" xr:uid="{2C6BD44E-C49F-49F0-BAAC-5F0D8342ACD5}">
+    <filterColumn colId="1">
+      <filters>
+        <filter val="Boss"/>
+        <filter val="Épico"/>
+        <filter val="SemiBoss"/>
+      </filters>
+    </filterColumn>
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B33:J59">
+      <sortCondition ref="D1:D76"/>
     </sortState>
   </autoFilter>
-  <phoneticPr fontId="9" type="noConversion"/>
+  <phoneticPr fontId="11" type="noConversion"/>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -3474,26 +4313,26 @@
       <c r="B1" s="1"/>
     </row>
     <row r="2" spans="2:15">
-      <c r="B2" s="42" t="s">
+      <c r="B2" s="60" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="43"/>
-      <c r="E2" s="42" t="s">
+      <c r="C2" s="61"/>
+      <c r="E2" s="60" t="s">
         <v>1</v>
       </c>
-      <c r="F2" s="43"/>
-      <c r="H2" s="42" t="s">
+      <c r="F2" s="61"/>
+      <c r="H2" s="60" t="s">
         <v>2</v>
       </c>
-      <c r="I2" s="43"/>
-      <c r="K2" s="42" t="s">
+      <c r="I2" s="61"/>
+      <c r="K2" s="60" t="s">
         <v>3</v>
       </c>
-      <c r="L2" s="43"/>
-      <c r="N2" s="42" t="s">
+      <c r="L2" s="61"/>
+      <c r="N2" s="60" t="s">
         <v>4</v>
       </c>
-      <c r="O2" s="43"/>
+      <c r="O2" s="61"/>
     </row>
     <row r="3" spans="2:15">
       <c r="B3" s="2" t="s">

--- a/Images/Ganolia/Mecanismo.xlsx
+++ b/Images/Ganolia/Mecanismo.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\chs\Images\Ganolia\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8590DF3A-67C9-48E8-A8CA-567C2E76A9AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33B45671-98C1-4AB1-92B8-F0B4B4CCF4BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="15000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="441" uniqueCount="220">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="459" uniqueCount="238">
   <si>
     <t>Mago</t>
   </si>
@@ -684,24 +684,85 @@
     <t>B = INCOMUM</t>
   </si>
   <si>
-    <t>C = MÁGICO</t>
-  </si>
-  <si>
-    <t>D = RARO</t>
-  </si>
-  <si>
-    <t>E = LENDÁRIO</t>
+    <t>C = RARO</t>
+  </si>
+  <si>
+    <t>D = LENDÁRIO</t>
+  </si>
+  <si>
+    <t>C 60% B 40%</t>
+  </si>
+  <si>
+    <t>D 70% C 30%</t>
+  </si>
+  <si>
+    <t>C 80% B 10% D10%</t>
+  </si>
+  <si>
+    <t>B 50% A 40% C 10%</t>
+  </si>
+  <si>
+    <t>A 65% B 30% C 5%</t>
+  </si>
+  <si>
+    <t>Qtd. Baixo/IDEAL</t>
+  </si>
+  <si>
+    <t>Qtd. Medio/IDEAL</t>
+  </si>
+  <si>
+    <t>Qtd. Épico/IDEAL</t>
+  </si>
+  <si>
+    <t>Qtd. SemiBoss/IDEAL</t>
+  </si>
+  <si>
+    <t>Qtd. Boss/IDEAL</t>
+  </si>
+  <si>
+    <t>Qtd.Total/IDEAL</t>
+  </si>
+  <si>
+    <t>CP2</t>
+  </si>
+  <si>
+    <t>CP3</t>
+  </si>
+  <si>
+    <t>CP4</t>
+  </si>
+  <si>
+    <t>CP5</t>
+  </si>
+  <si>
+    <t>CP6</t>
+  </si>
+  <si>
+    <t>CP7</t>
+  </si>
+  <si>
+    <t>CP8</t>
+  </si>
+  <si>
+    <t>CP9</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="18">
+  <fonts count="19">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1045,138 +1106,147 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="65">
+  <cellXfs count="70">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="9" fontId="9" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="10" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="9" fontId="9" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="10" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="14" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="14" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2046,12 +2116,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C6BD44E-C49F-49F0-BAAC-5F0D8342ACD5}">
-  <sheetPr filterMode="1"/>
-  <dimension ref="B1:M76"/>
+  <dimension ref="B1:N76"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F77" sqref="F77"/>
+      <selection pane="bottomLeft" activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2065,11 +2134,11 @@
     <col min="8" max="8" width="9.85546875" style="36" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="9.85546875" style="36" customWidth="1"/>
     <col min="10" max="10" width="17.28515625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="18" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="19.85546875" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="41.85546875" style="36" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:13" ht="21">
+    <row r="1" spans="2:14" ht="21">
       <c r="B1" s="28" t="s">
         <v>81</v>
       </c>
@@ -2098,290 +2167,302 @@
         <v>116</v>
       </c>
     </row>
-    <row r="2" spans="2:13" hidden="1">
-      <c r="B2" s="31" t="s">
-        <v>190</v>
+    <row r="2" spans="2:14">
+      <c r="B2" s="27" t="s">
+        <v>123</v>
       </c>
       <c r="C2" s="39" t="s">
         <v>201</v>
       </c>
       <c r="D2" s="44">
-        <v>1</v>
+        <v>31</v>
       </c>
       <c r="E2" s="39" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="F2" s="37">
-        <v>7</v>
-      </c>
-      <c r="G2" s="56">
-        <v>3</v>
+        <v>2</v>
+      </c>
+      <c r="G2" s="58">
+        <v>2</v>
       </c>
       <c r="H2" s="56">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I2" s="56">
         <f>SUM(G2+H2)</f>
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="J2" s="26"/>
-      <c r="L2" s="25" t="s">
+    </row>
+    <row r="3" spans="2:14">
+      <c r="B3" s="27" t="s">
+        <v>117</v>
+      </c>
+      <c r="C3" s="39" t="s">
+        <v>201</v>
+      </c>
+      <c r="D3" s="44">
+        <v>30</v>
+      </c>
+      <c r="E3" s="39" t="s">
+        <v>198</v>
+      </c>
+      <c r="F3" s="56">
+        <v>3</v>
+      </c>
+      <c r="G3" s="56">
+        <v>2</v>
+      </c>
+      <c r="H3" s="56">
+        <v>2</v>
+      </c>
+      <c r="I3" s="56">
+        <f>SUM(G3+H3)</f>
+        <v>4</v>
+      </c>
+      <c r="J3" s="26"/>
+      <c r="L3" s="64" t="s">
         <v>114</v>
       </c>
-      <c r="M2" s="37">
+      <c r="M3" s="65">
         <f>COUNTIF(C:C,"Comum")</f>
         <v>31</v>
       </c>
-    </row>
-    <row r="3" spans="2:13" hidden="1">
-      <c r="B3" s="31" t="s">
-        <v>158</v>
-      </c>
-      <c r="C3" s="39" t="s">
+      <c r="N3" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="4" spans="2:14">
+      <c r="B4" s="27" t="s">
+        <v>118</v>
+      </c>
+      <c r="C4" s="39" t="s">
         <v>201</v>
       </c>
-      <c r="D3" s="44">
+      <c r="D4" s="44">
+        <v>20</v>
+      </c>
+      <c r="E4" s="39" t="s">
+        <v>198</v>
+      </c>
+      <c r="F4" s="37">
+        <v>3</v>
+      </c>
+      <c r="G4" s="56">
         <v>2</v>
       </c>
-      <c r="E3" s="39" t="s">
-        <v>196</v>
-      </c>
-      <c r="F3" s="37">
-        <v>8</v>
-      </c>
-      <c r="G3" s="56">
+      <c r="H4" s="56">
         <v>3</v>
       </c>
-      <c r="H3" s="56">
-        <v>4</v>
-      </c>
-      <c r="I3" s="56">
-        <f>SUM(G3+H3)</f>
-        <v>7</v>
-      </c>
-      <c r="J3" s="26"/>
-      <c r="L3" s="25" t="s">
+      <c r="I4" s="56">
+        <f>SUM(G4+H4)</f>
+        <v>5</v>
+      </c>
+      <c r="J4" s="56"/>
+      <c r="L4" s="64" t="s">
         <v>115</v>
       </c>
-      <c r="M3" s="37">
+      <c r="M4" s="65">
         <f>COUNTIF(C:C,"Incomum")</f>
         <v>27</v>
       </c>
-    </row>
-    <row r="4" spans="2:13" hidden="1">
-      <c r="B4" s="27" t="s">
-        <v>140</v>
-      </c>
-      <c r="C4" s="39" t="s">
+      <c r="N4" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="5" spans="2:14">
+      <c r="B5" s="27" t="s">
+        <v>128</v>
+      </c>
+      <c r="C5" s="39" t="s">
         <v>201</v>
       </c>
-      <c r="D4" s="44">
+      <c r="D5" s="44">
+        <v>21</v>
+      </c>
+      <c r="E5" s="39" t="s">
+        <v>198</v>
+      </c>
+      <c r="F5" s="37">
         <v>3</v>
       </c>
-      <c r="E4" s="25" t="s">
-        <v>199</v>
-      </c>
-      <c r="F4" s="37">
-        <v>7</v>
-      </c>
-      <c r="G4" s="56">
+      <c r="G5" s="56">
+        <v>2</v>
+      </c>
+      <c r="H5" s="56">
         <v>3</v>
       </c>
-      <c r="H4" s="56">
-        <v>4</v>
-      </c>
-      <c r="I4" s="56">
-        <f>SUM(G4+H4)</f>
-        <v>7</v>
-      </c>
-      <c r="J4" s="26"/>
-      <c r="L4" s="39" t="s">
+      <c r="I5" s="56">
+        <f>SUM(G5+H5)</f>
+        <v>5</v>
+      </c>
+      <c r="J5" s="56"/>
+      <c r="L5" s="64" t="s">
         <v>204</v>
       </c>
-      <c r="M4" s="37">
+      <c r="M5" s="65">
         <f>COUNTIF(C:C,"Épico")</f>
         <v>9</v>
       </c>
-    </row>
-    <row r="5" spans="2:13" hidden="1">
-      <c r="B5" s="31" t="s">
-        <v>189</v>
-      </c>
-      <c r="C5" s="39" t="s">
+      <c r="N5" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="6" spans="2:14">
+      <c r="B6" s="27" t="s">
+        <v>121</v>
+      </c>
+      <c r="C6" s="39" t="s">
         <v>201</v>
       </c>
-      <c r="D5" s="44">
-        <v>4</v>
-      </c>
-      <c r="E5" s="39" t="s">
-        <v>196</v>
-      </c>
-      <c r="F5" s="37">
-        <v>6</v>
-      </c>
-      <c r="G5" s="56">
+      <c r="D6" s="44">
+        <v>22</v>
+      </c>
+      <c r="E6" s="39" t="s">
+        <v>198</v>
+      </c>
+      <c r="F6" s="37">
         <v>3</v>
       </c>
-      <c r="H5" s="56">
-        <v>4</v>
-      </c>
-      <c r="I5" s="56">
-        <f>SUM(G5+H5)</f>
-        <v>7</v>
-      </c>
-      <c r="J5" s="26"/>
-      <c r="L5" s="25" t="s">
+      <c r="G6" s="56">
+        <v>2</v>
+      </c>
+      <c r="H6" s="56">
+        <v>3</v>
+      </c>
+      <c r="I6" s="56">
+        <f>SUM(G6+H6)</f>
+        <v>5</v>
+      </c>
+      <c r="J6" s="56"/>
+      <c r="L6" s="64" t="s">
         <v>152</v>
       </c>
-      <c r="M5" s="37">
+      <c r="M6" s="65">
         <f>COUNTIF(C:C,"SemiBoss")</f>
         <v>6</v>
       </c>
-    </row>
-    <row r="6" spans="2:13" hidden="1">
-      <c r="B6" s="31" t="s">
-        <v>159</v>
-      </c>
-      <c r="C6" s="39" t="s">
+      <c r="N6" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="7" spans="2:14">
+      <c r="B7" s="31" t="s">
+        <v>156</v>
+      </c>
+      <c r="C7" s="39" t="s">
         <v>201</v>
       </c>
-      <c r="D6" s="44">
-        <v>5</v>
-      </c>
-      <c r="E6" s="39" t="s">
+      <c r="D7" s="44">
+        <v>27</v>
+      </c>
+      <c r="E7" s="39" t="s">
         <v>196</v>
       </c>
-      <c r="F6" s="37">
-        <v>6</v>
-      </c>
-      <c r="G6" s="56">
-        <v>3</v>
-      </c>
-      <c r="H6" s="56">
+      <c r="F7" s="37">
         <v>4</v>
       </c>
-      <c r="I6" s="56">
-        <f>SUM(G6+H6)</f>
-        <v>7</v>
-      </c>
-      <c r="J6" s="26"/>
-      <c r="L6" s="25" t="s">
+      <c r="G7" s="56">
+        <v>2</v>
+      </c>
+      <c r="H7" s="56">
+        <v>2</v>
+      </c>
+      <c r="I7" s="56">
+        <f>SUM(G7+H7)</f>
+        <v>4</v>
+      </c>
+      <c r="J7" s="26"/>
+      <c r="L7" s="64" t="s">
         <v>153</v>
       </c>
-      <c r="M6" s="37">
+      <c r="M7" s="65">
         <f>COUNTIF(C:C,"Boss")</f>
         <v>2</v>
       </c>
-    </row>
-    <row r="7" spans="2:13" hidden="1">
-      <c r="B7" s="31" t="s">
-        <v>169</v>
-      </c>
-      <c r="C7" s="39" t="s">
-        <v>201</v>
-      </c>
-      <c r="D7" s="44">
-        <v>6</v>
-      </c>
-      <c r="E7" s="39" t="s">
-        <v>197</v>
-      </c>
-      <c r="F7" s="37">
-        <v>8</v>
-      </c>
-      <c r="G7" s="56">
-        <v>3</v>
-      </c>
-      <c r="H7" s="56">
-        <v>3</v>
-      </c>
-      <c r="I7" s="56">
-        <f>SUM(G7+H7)</f>
-        <v>6</v>
-      </c>
-      <c r="J7" s="56"/>
-      <c r="L7" s="25" t="s">
-        <v>207</v>
-      </c>
-      <c r="M7" s="37">
-        <f>SUM(M2:M6)</f>
-        <v>75</v>
-      </c>
-    </row>
-    <row r="8" spans="2:13" hidden="1">
+      <c r="N7" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="8" spans="2:14">
       <c r="B8" s="31" t="s">
-        <v>177</v>
+        <v>157</v>
       </c>
       <c r="C8" s="39" t="s">
         <v>201</v>
       </c>
       <c r="D8" s="44">
-        <v>7</v>
+        <v>28</v>
       </c>
       <c r="E8" s="39" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="F8" s="37">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="G8" s="56">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H8" s="56">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I8" s="56">
         <f>SUM(G8+H8)</f>
-        <v>6</v>
-      </c>
-      <c r="J8" s="56"/>
-    </row>
-    <row r="9" spans="2:13" hidden="1">
-      <c r="B9" s="27" t="s">
-        <v>139</v>
+        <v>4</v>
+      </c>
+      <c r="J8" s="26"/>
+      <c r="L8" s="64" t="s">
+        <v>207</v>
+      </c>
+      <c r="M8" s="65">
+        <f>SUM(M3:M7)</f>
+        <v>75</v>
+      </c>
+    </row>
+    <row r="9" spans="2:14">
+      <c r="B9" s="31" t="s">
+        <v>170</v>
       </c>
       <c r="C9" s="39" t="s">
         <v>201</v>
       </c>
       <c r="D9" s="44">
-        <v>8</v>
-      </c>
-      <c r="E9" s="25" t="s">
-        <v>199</v>
+        <v>29</v>
+      </c>
+      <c r="E9" s="39" t="s">
+        <v>197</v>
       </c>
       <c r="F9" s="37">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="G9" s="56">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H9" s="56">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I9" s="56">
         <f>SUM(G9+H9)</f>
-        <v>6</v>
-      </c>
-      <c r="J9" s="56"/>
-      <c r="L9" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="10" spans="2:13" hidden="1">
-      <c r="B10" s="31" t="s">
-        <v>147</v>
+        <v>4</v>
+      </c>
+      <c r="J9" s="26"/>
+    </row>
+    <row r="10" spans="2:14">
+      <c r="B10" s="27" t="s">
+        <v>129</v>
       </c>
       <c r="C10" s="39" t="s">
         <v>201</v>
       </c>
       <c r="D10" s="44">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="E10" s="39" t="s">
         <v>198</v>
       </c>
       <c r="F10" s="37">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="G10" s="56">
         <v>3</v>
@@ -2394,28 +2475,25 @@
         <v>6</v>
       </c>
       <c r="J10" s="26"/>
-      <c r="L10" s="36" t="s">
-        <v>214</v>
-      </c>
-      <c r="M10" s="36" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="11" spans="2:13" hidden="1">
+      <c r="L10" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="11" spans="2:14">
       <c r="B11" s="31" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="C11" s="39" t="s">
         <v>201</v>
       </c>
       <c r="D11" s="44">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E11" s="39" t="s">
         <v>197</v>
       </c>
       <c r="F11" s="37">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="G11" s="56">
         <v>3</v>
@@ -2428,118 +2506,121 @@
         <v>6</v>
       </c>
       <c r="J11" s="26"/>
+      <c r="L11" s="36" t="s">
+        <v>214</v>
+      </c>
       <c r="M11" s="36" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="12" spans="2:13" hidden="1">
-      <c r="B12" s="31" t="s">
-        <v>180</v>
+        <v>215</v>
+      </c>
+    </row>
+    <row r="12" spans="2:14">
+      <c r="B12" s="27" t="s">
+        <v>119</v>
       </c>
       <c r="C12" s="39" t="s">
         <v>201</v>
       </c>
       <c r="D12" s="44">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="E12" s="39" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="F12" s="37">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="G12" s="56">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H12" s="56">
         <v>3</v>
       </c>
       <c r="I12" s="56">
         <f>SUM(G12+H12)</f>
-        <v>6</v>
-      </c>
-      <c r="J12" s="26"/>
+        <v>5</v>
+      </c>
+      <c r="J12" s="56"/>
       <c r="M12" s="36" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="13" spans="2:13" hidden="1">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="13" spans="2:14">
       <c r="B13" s="27" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C13" s="39" t="s">
         <v>201</v>
       </c>
       <c r="D13" s="44">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="E13" s="39" t="s">
         <v>198</v>
       </c>
       <c r="F13" s="37">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G13" s="56">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H13" s="56">
         <v>3</v>
       </c>
       <c r="I13" s="56">
         <f>SUM(G13+H13)</f>
-        <v>6</v>
-      </c>
-      <c r="J13" s="26"/>
+        <v>5</v>
+      </c>
+      <c r="J13" s="56"/>
       <c r="M13" s="36" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="14" spans="2:13" hidden="1">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="14" spans="2:14">
       <c r="B14" s="27" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C14" s="39" t="s">
         <v>201</v>
       </c>
       <c r="D14" s="44">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="E14" s="25" t="s">
         <v>199</v>
       </c>
       <c r="F14" s="37">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G14" s="56">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H14" s="56">
         <v>3</v>
       </c>
       <c r="I14" s="56">
         <f>SUM(G14+H14)</f>
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J14" s="26"/>
       <c r="M14" s="36" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="15" spans="2:13" hidden="1">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="15" spans="2:14">
       <c r="B15" s="27" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="C15" s="39" t="s">
         <v>201</v>
       </c>
       <c r="D15" s="44">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E15" s="39" t="s">
         <v>198</v>
       </c>
       <c r="F15" s="37">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G15" s="56">
         <v>3</v>
@@ -2553,21 +2634,21 @@
       </c>
       <c r="J15" s="26"/>
     </row>
-    <row r="16" spans="2:13" hidden="1">
-      <c r="B16" s="31" t="s">
-        <v>168</v>
+    <row r="16" spans="2:14">
+      <c r="B16" s="27" t="s">
+        <v>138</v>
       </c>
       <c r="C16" s="39" t="s">
         <v>201</v>
       </c>
       <c r="D16" s="44">
-        <v>15</v>
-      </c>
-      <c r="E16" s="39" t="s">
-        <v>197</v>
+        <v>13</v>
+      </c>
+      <c r="E16" s="25" t="s">
+        <v>199</v>
       </c>
       <c r="F16" s="37">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G16" s="56">
         <v>3</v>
@@ -2580,8 +2661,14 @@
         <v>6</v>
       </c>
       <c r="J16" s="26"/>
-    </row>
-    <row r="17" spans="2:12" hidden="1">
+      <c r="L16" s="25" t="s">
+        <v>224</v>
+      </c>
+      <c r="M16" s="66">
+        <v>0.41</v>
+      </c>
+    </row>
+    <row r="17" spans="2:14">
       <c r="B17" s="31" t="s">
         <v>146</v>
       </c>
@@ -2608,8 +2695,14 @@
         <v>5</v>
       </c>
       <c r="J17" s="26"/>
-    </row>
-    <row r="18" spans="2:12" hidden="1">
+      <c r="L17" s="25" t="s">
+        <v>225</v>
+      </c>
+      <c r="M17" s="66">
+        <v>0.36</v>
+      </c>
+    </row>
+    <row r="18" spans="2:14">
       <c r="B18" s="31" t="s">
         <v>178</v>
       </c>
@@ -2636,22 +2729,28 @@
         <v>5</v>
       </c>
       <c r="J18" s="56"/>
-    </row>
-    <row r="19" spans="2:12" hidden="1">
+      <c r="L18" s="64" t="s">
+        <v>226</v>
+      </c>
+      <c r="M18" s="66">
+        <v>0.22</v>
+      </c>
+    </row>
+    <row r="19" spans="2:14">
       <c r="B19" s="27" t="s">
-        <v>119</v>
+        <v>127</v>
       </c>
       <c r="C19" s="39" t="s">
         <v>201</v>
       </c>
       <c r="D19" s="44">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="E19" s="39" t="s">
         <v>198</v>
       </c>
       <c r="F19" s="37">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G19" s="56">
         <v>2</v>
@@ -2663,23 +2762,29 @@
         <f>SUM(G19+H19)</f>
         <v>5</v>
       </c>
-      <c r="J19" s="56"/>
-    </row>
-    <row r="20" spans="2:12" hidden="1">
-      <c r="B20" s="27" t="s">
-        <v>120</v>
+      <c r="J19" s="61"/>
+      <c r="L19" s="25" t="s">
+        <v>227</v>
+      </c>
+      <c r="M19" s="66">
+        <v>0.22</v>
+      </c>
+    </row>
+    <row r="20" spans="2:14">
+      <c r="B20" s="31" t="s">
+        <v>181</v>
       </c>
       <c r="C20" s="39" t="s">
         <v>201</v>
       </c>
       <c r="D20" s="44">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="E20" s="39" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="F20" s="37">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G20" s="56">
         <v>2</v>
@@ -2691,23 +2796,29 @@
         <f>SUM(G20+H20)</f>
         <v>5</v>
       </c>
-      <c r="J20" s="56"/>
-    </row>
-    <row r="21" spans="2:12" hidden="1">
+      <c r="J20" s="26"/>
+      <c r="L20" s="25" t="s">
+        <v>228</v>
+      </c>
+      <c r="M20" s="66">
+        <v>0.22</v>
+      </c>
+    </row>
+    <row r="21" spans="2:14">
       <c r="B21" s="27" t="s">
-        <v>118</v>
+        <v>126</v>
       </c>
       <c r="C21" s="39" t="s">
         <v>201</v>
       </c>
       <c r="D21" s="44">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="E21" s="39" t="s">
         <v>198</v>
       </c>
       <c r="F21" s="37">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G21" s="56">
         <v>2</v>
@@ -2719,665 +2830,739 @@
         <f>SUM(G21+H21)</f>
         <v>5</v>
       </c>
-      <c r="J21" s="56"/>
-    </row>
-    <row r="22" spans="2:12" hidden="1">
+      <c r="J21" s="26"/>
+      <c r="L21" s="25" t="s">
+        <v>229</v>
+      </c>
+      <c r="M21" s="37">
+        <f>SUM(M16:M20)</f>
+        <v>1.43</v>
+      </c>
+    </row>
+    <row r="22" spans="2:14">
       <c r="B22" s="27" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="C22" s="39" t="s">
-        <v>201</v>
-      </c>
-      <c r="D22" s="44">
-        <v>21</v>
+        <v>202</v>
+      </c>
+      <c r="D22" s="45">
+        <v>26</v>
       </c>
       <c r="E22" s="39" t="s">
         <v>198</v>
       </c>
       <c r="F22" s="37">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G22" s="56">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H22" s="56">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I22" s="56">
         <f>SUM(G22+H22)</f>
+        <v>8</v>
+      </c>
+      <c r="J22" s="26"/>
+    </row>
+    <row r="23" spans="2:14">
+      <c r="B23" s="27" t="s">
+        <v>136</v>
+      </c>
+      <c r="C23" s="42" t="s">
+        <v>202</v>
+      </c>
+      <c r="D23" s="44">
+        <v>27</v>
+      </c>
+      <c r="E23" s="25" t="s">
+        <v>199</v>
+      </c>
+      <c r="F23" s="37">
         <v>5</v>
       </c>
-      <c r="J22" s="56"/>
-    </row>
-    <row r="23" spans="2:12" hidden="1">
-      <c r="B23" s="27" t="s">
-        <v>121</v>
-      </c>
-      <c r="C23" s="39" t="s">
-        <v>201</v>
-      </c>
-      <c r="D23" s="44">
-        <v>22</v>
-      </c>
-      <c r="E23" s="39" t="s">
-        <v>198</v>
-      </c>
-      <c r="F23" s="37">
-        <v>3</v>
-      </c>
       <c r="G23" s="56">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H23" s="56">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I23" s="56">
         <f>SUM(G23+H23)</f>
-        <v>5</v>
-      </c>
-      <c r="J23" s="56"/>
-    </row>
-    <row r="24" spans="2:12" hidden="1">
-      <c r="B24" s="27" t="s">
-        <v>127</v>
+        <v>8</v>
+      </c>
+      <c r="J23" s="26"/>
+    </row>
+    <row r="24" spans="2:14">
+      <c r="B24" s="31" t="s">
+        <v>189</v>
       </c>
       <c r="C24" s="39" t="s">
         <v>201</v>
       </c>
       <c r="D24" s="44">
-        <v>23</v>
+        <v>4</v>
       </c>
       <c r="E24" s="39" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="F24" s="37">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G24" s="56">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H24" s="56">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I24" s="56">
         <f>SUM(G24+H24)</f>
-        <v>4</v>
-      </c>
-      <c r="J24" s="63"/>
-      <c r="L24" s="38"/>
-    </row>
-    <row r="25" spans="2:12" hidden="1">
+        <v>7</v>
+      </c>
+      <c r="J24" s="26"/>
+      <c r="L24" s="38" t="s">
+        <v>230</v>
+      </c>
+      <c r="M24" s="36">
+        <f>COUNTIF(H:H,2)</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25" spans="2:14">
       <c r="B25" s="31" t="s">
-        <v>181</v>
+        <v>159</v>
       </c>
       <c r="C25" s="39" t="s">
         <v>201</v>
       </c>
       <c r="D25" s="44">
-        <v>24</v>
+        <v>5</v>
       </c>
       <c r="E25" s="39" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="F25" s="37">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G25" s="56">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H25" s="56">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I25" s="56">
         <f>SUM(G25+H25)</f>
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="J25" s="26"/>
-    </row>
-    <row r="26" spans="2:12" hidden="1">
-      <c r="B26" s="27" t="s">
-        <v>126</v>
+      <c r="L25" s="67" t="s">
+        <v>231</v>
+      </c>
+      <c r="M25" s="36">
+        <f>COUNTIF(H:H,3)</f>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="26" spans="2:14">
+      <c r="B26" s="31" t="s">
+        <v>167</v>
       </c>
       <c r="C26" s="39" t="s">
         <v>201</v>
       </c>
       <c r="D26" s="44">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="E26" s="39" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="F26" s="37">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G26" s="56">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H26" s="56">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I26" s="56">
         <f>SUM(G26+H26)</f>
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="J26" s="26"/>
-    </row>
-    <row r="27" spans="2:12" hidden="1">
-      <c r="B27" s="27" t="s">
-        <v>137</v>
+      <c r="L26" s="68" t="s">
+        <v>232</v>
+      </c>
+      <c r="M26" s="36">
+        <f>COUNTIF(H:H,4)</f>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="27" spans="2:14">
+      <c r="B27" s="31" t="s">
+        <v>180</v>
       </c>
       <c r="C27" s="39" t="s">
         <v>201</v>
       </c>
       <c r="D27" s="44">
-        <v>26</v>
-      </c>
-      <c r="E27" s="25" t="s">
-        <v>199</v>
+        <v>11</v>
+      </c>
+      <c r="E27" s="39" t="s">
+        <v>200</v>
       </c>
       <c r="F27" s="37">
+        <v>6</v>
+      </c>
+      <c r="G27" s="56">
+        <v>3</v>
+      </c>
+      <c r="H27" s="56">
         <v>4</v>
-      </c>
-      <c r="G27" s="56">
-        <v>2</v>
-      </c>
-      <c r="H27" s="56">
-        <v>2</v>
       </c>
       <c r="I27" s="56">
         <f>SUM(G27+H27)</f>
+        <v>7</v>
+      </c>
+      <c r="J27" s="26"/>
+      <c r="L27" s="68" t="s">
+        <v>233</v>
+      </c>
+      <c r="M27" s="36">
+        <f>COUNTIF(H:H,5)</f>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="28" spans="2:14">
+      <c r="B28" s="31" t="s">
+        <v>150</v>
+      </c>
+      <c r="C28" s="39" t="s">
+        <v>202</v>
+      </c>
+      <c r="D28" s="45">
+        <v>24</v>
+      </c>
+      <c r="E28" s="39" t="s">
+        <v>198</v>
+      </c>
+      <c r="F28" s="37">
+        <v>6</v>
+      </c>
+      <c r="G28" s="56">
         <v>4</v>
       </c>
-      <c r="J27" s="26"/>
-    </row>
-    <row r="28" spans="2:12" hidden="1">
-      <c r="B28" s="31" t="s">
-        <v>156</v>
-      </c>
-      <c r="C28" s="39" t="s">
-        <v>201</v>
-      </c>
-      <c r="D28" s="44">
-        <v>27</v>
-      </c>
-      <c r="E28" s="39" t="s">
-        <v>196</v>
-      </c>
-      <c r="F28" s="37">
+      <c r="H28" s="56">
         <v>4</v>
-      </c>
-      <c r="G28" s="56">
-        <v>2</v>
-      </c>
-      <c r="H28" s="56">
-        <v>2</v>
       </c>
       <c r="I28" s="56">
         <f>SUM(G28+H28)</f>
+        <v>8</v>
+      </c>
+      <c r="J28" s="26"/>
+      <c r="L28" s="68" t="s">
+        <v>234</v>
+      </c>
+      <c r="M28" s="36">
+        <f>COUNTIF(H:H,6)</f>
+        <v>10</v>
+      </c>
+      <c r="N28" s="69">
+        <v>0.57999999999999996</v>
+      </c>
+    </row>
+    <row r="29" spans="2:14">
+      <c r="B29" s="27" t="s">
+        <v>132</v>
+      </c>
+      <c r="C29" s="39" t="s">
+        <v>202</v>
+      </c>
+      <c r="D29" s="45">
+        <v>25</v>
+      </c>
+      <c r="E29" s="39" t="s">
+        <v>198</v>
+      </c>
+      <c r="F29" s="37">
+        <v>6</v>
+      </c>
+      <c r="G29" s="56">
         <v>4</v>
       </c>
-      <c r="J28" s="26"/>
-    </row>
-    <row r="29" spans="2:12" hidden="1">
-      <c r="B29" s="31" t="s">
-        <v>157</v>
-      </c>
-      <c r="C29" s="39" t="s">
-        <v>201</v>
-      </c>
-      <c r="D29" s="44">
-        <v>28</v>
-      </c>
-      <c r="E29" s="39" t="s">
-        <v>196</v>
-      </c>
-      <c r="F29" s="37">
+      <c r="H29" s="56">
         <v>4</v>
-      </c>
-      <c r="G29" s="56">
-        <v>2</v>
-      </c>
-      <c r="H29" s="56">
-        <v>2</v>
       </c>
       <c r="I29" s="56">
         <f>SUM(G29+H29)</f>
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="J29" s="26"/>
-    </row>
-    <row r="30" spans="2:12" hidden="1">
+      <c r="L29" s="68" t="s">
+        <v>235</v>
+      </c>
+      <c r="M29" s="36">
+        <f>COUNTIF(H:H,7)</f>
+        <v>6</v>
+      </c>
+      <c r="N29" s="69">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="30" spans="2:14">
       <c r="B30" s="31" t="s">
-        <v>170</v>
+        <v>190</v>
       </c>
       <c r="C30" s="52" t="s">
         <v>201</v>
       </c>
       <c r="D30" s="53">
-        <v>29</v>
+        <v>1</v>
       </c>
       <c r="E30" s="52" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="F30" s="59">
+        <v>7</v>
+      </c>
+      <c r="G30" s="57">
+        <v>3</v>
+      </c>
+      <c r="H30" s="57">
         <v>4</v>
-      </c>
-      <c r="G30" s="57">
-        <v>2</v>
-      </c>
-      <c r="H30" s="57">
-        <v>2</v>
       </c>
       <c r="I30" s="56">
         <f>SUM(G30+H30)</f>
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="J30" s="26"/>
-    </row>
-    <row r="31" spans="2:12" hidden="1">
+      <c r="L30" s="68" t="s">
+        <v>236</v>
+      </c>
+      <c r="M30" s="36">
+        <f>COUNTIF(H:H,8)</f>
+        <v>5</v>
+      </c>
+      <c r="N30" s="69">
+        <v>0.41</v>
+      </c>
+    </row>
+    <row r="31" spans="2:14">
       <c r="B31" s="27" t="s">
-        <v>117</v>
+        <v>140</v>
       </c>
       <c r="C31" s="39" t="s">
         <v>201</v>
       </c>
       <c r="D31" s="44">
-        <v>30</v>
-      </c>
-      <c r="E31" s="39" t="s">
-        <v>198</v>
-      </c>
-      <c r="F31" s="56">
         <v>3</v>
       </c>
+      <c r="E31" s="25" t="s">
+        <v>199</v>
+      </c>
+      <c r="F31" s="37">
+        <v>7</v>
+      </c>
       <c r="G31" s="56">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H31" s="56">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I31" s="56">
         <f>SUM(G31+H31)</f>
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="J31" s="26"/>
-    </row>
-    <row r="32" spans="2:12" hidden="1">
+      <c r="L31" s="68" t="s">
+        <v>237</v>
+      </c>
+      <c r="M31" s="36">
+        <f>COUNTIF(H:H,9)</f>
+        <v>2</v>
+      </c>
+      <c r="N31" s="69">
+        <v>0.33</v>
+      </c>
+    </row>
+    <row r="32" spans="2:14">
       <c r="B32" s="27" t="s">
-        <v>123</v>
+        <v>139</v>
       </c>
       <c r="C32" s="39" t="s">
         <v>201</v>
       </c>
       <c r="D32" s="44">
-        <v>31</v>
-      </c>
-      <c r="E32" s="39" t="s">
-        <v>198</v>
+        <v>8</v>
+      </c>
+      <c r="E32" s="25" t="s">
+        <v>199</v>
       </c>
       <c r="F32" s="37">
-        <v>2</v>
-      </c>
-      <c r="G32" s="58">
-        <v>2</v>
+        <v>7</v>
+      </c>
+      <c r="G32" s="56">
+        <v>3</v>
       </c>
       <c r="H32" s="56">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I32" s="56">
         <f>SUM(G32+H32)</f>
+        <v>7</v>
+      </c>
+      <c r="J32" s="56"/>
+    </row>
+    <row r="33" spans="2:10">
+      <c r="B33" s="31" t="s">
+        <v>147</v>
+      </c>
+      <c r="C33" s="39" t="s">
+        <v>201</v>
+      </c>
+      <c r="D33" s="44">
+        <v>9</v>
+      </c>
+      <c r="E33" s="39" t="s">
+        <v>198</v>
+      </c>
+      <c r="F33" s="37">
+        <v>7</v>
+      </c>
+      <c r="G33" s="56">
+        <v>3</v>
+      </c>
+      <c r="H33" s="56">
         <v>4</v>
-      </c>
-      <c r="J32" s="26"/>
-    </row>
-    <row r="33" spans="2:10" hidden="1">
-      <c r="B33" s="31" t="s">
-        <v>191</v>
-      </c>
-      <c r="C33" s="39" t="s">
-        <v>202</v>
-      </c>
-      <c r="D33" s="45">
-        <v>1</v>
-      </c>
-      <c r="E33" s="39" t="s">
-        <v>200</v>
-      </c>
-      <c r="F33" s="37">
-        <v>14</v>
-      </c>
-      <c r="G33" s="56">
-        <v>5</v>
-      </c>
-      <c r="H33" s="56">
-        <v>6</v>
       </c>
       <c r="I33" s="56">
         <f>SUM(G33+H33)</f>
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="J33" s="26"/>
     </row>
-    <row r="34" spans="2:10" hidden="1">
+    <row r="34" spans="2:10">
       <c r="B34" s="27" t="s">
-        <v>144</v>
-      </c>
-      <c r="C34" s="39" t="s">
+        <v>141</v>
+      </c>
+      <c r="C34" s="42" t="s">
         <v>202</v>
       </c>
-      <c r="D34" s="45">
-        <v>2</v>
+      <c r="D34" s="44">
+        <v>22</v>
       </c>
       <c r="E34" s="25" t="s">
         <v>199</v>
       </c>
       <c r="F34" s="37">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="G34" s="56">
+        <v>4</v>
+      </c>
+      <c r="H34" s="56">
         <v>5</v>
-      </c>
-      <c r="H34" s="56">
-        <v>6</v>
       </c>
       <c r="I34" s="56">
         <f>SUM(G34+H34)</f>
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="J34" s="26"/>
     </row>
-    <row r="35" spans="2:10" hidden="1">
-      <c r="B35" s="31" t="s">
-        <v>183</v>
+    <row r="35" spans="2:10">
+      <c r="B35" s="27" t="s">
+        <v>133</v>
       </c>
       <c r="C35" s="39" t="s">
         <v>202</v>
       </c>
       <c r="D35" s="45">
-        <v>3</v>
+        <v>23</v>
       </c>
       <c r="E35" s="39" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="F35" s="37">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="G35" s="56">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H35" s="56">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="I35" s="56">
         <f>SUM(G35+H35)</f>
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="J35" s="26"/>
     </row>
-    <row r="36" spans="2:10" hidden="1">
+    <row r="36" spans="2:10">
       <c r="B36" s="31" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="C36" s="39" t="s">
-        <v>202</v>
-      </c>
-      <c r="D36" s="45">
-        <v>4</v>
+        <v>201</v>
+      </c>
+      <c r="D36" s="44">
+        <v>2</v>
       </c>
       <c r="E36" s="39" t="s">
         <v>196</v>
       </c>
       <c r="F36" s="37">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="G36" s="56">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H36" s="56">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="I36" s="56">
         <f>SUM(G36+H36)</f>
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="J36" s="26"/>
     </row>
-    <row r="37" spans="2:10" hidden="1">
+    <row r="37" spans="2:10">
       <c r="B37" s="31" t="s">
-        <v>182</v>
+        <v>169</v>
       </c>
       <c r="C37" s="39" t="s">
-        <v>202</v>
-      </c>
-      <c r="D37" s="45">
-        <v>5</v>
+        <v>201</v>
+      </c>
+      <c r="D37" s="44">
+        <v>6</v>
       </c>
       <c r="E37" s="39" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="F37" s="37">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="G37" s="56">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H37" s="56">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="I37" s="56">
         <f>SUM(G37+H37)</f>
-        <v>11</v>
-      </c>
-      <c r="J37" s="26"/>
-    </row>
-    <row r="38" spans="2:10" hidden="1">
+        <v>7</v>
+      </c>
+      <c r="J37" s="56"/>
+    </row>
+    <row r="38" spans="2:10">
       <c r="B38" s="31" t="s">
-        <v>184</v>
+        <v>177</v>
       </c>
       <c r="C38" s="39" t="s">
-        <v>202</v>
-      </c>
-      <c r="D38" s="45">
-        <v>6</v>
+        <v>201</v>
+      </c>
+      <c r="D38" s="44">
+        <v>7</v>
       </c>
       <c r="E38" s="39" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="F38" s="37">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="G38" s="56">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H38" s="56">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="I38" s="56">
         <f>SUM(G38+H38)</f>
-        <v>11</v>
-      </c>
-      <c r="J38" s="26"/>
-    </row>
-    <row r="39" spans="2:10" hidden="1">
-      <c r="B39" s="31" t="s">
-        <v>162</v>
+        <v>7</v>
+      </c>
+      <c r="J38" s="56"/>
+    </row>
+    <row r="39" spans="2:10">
+      <c r="B39" s="27" t="s">
+        <v>125</v>
       </c>
       <c r="C39" s="39" t="s">
         <v>202</v>
       </c>
       <c r="D39" s="45">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="E39" s="39" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="F39" s="37">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="G39" s="56">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H39" s="56">
         <v>5</v>
       </c>
       <c r="I39" s="56">
         <f>SUM(G39+H39)</f>
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="J39" s="26"/>
     </row>
-    <row r="40" spans="2:10" hidden="1">
+    <row r="40" spans="2:10">
       <c r="B40" s="31" t="s">
-        <v>149</v>
+        <v>171</v>
       </c>
       <c r="C40" s="39" t="s">
         <v>202</v>
       </c>
       <c r="D40" s="45">
+        <v>17</v>
+      </c>
+      <c r="E40" s="39" t="s">
+        <v>197</v>
+      </c>
+      <c r="F40" s="37">
         <v>8</v>
       </c>
-      <c r="E40" s="39" t="s">
-        <v>198</v>
-      </c>
-      <c r="F40" s="37">
-        <v>11</v>
-      </c>
       <c r="G40" s="56">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H40" s="56">
         <v>5</v>
       </c>
       <c r="I40" s="56">
         <f>SUM(G40+H40)</f>
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="J40" s="26"/>
     </row>
-    <row r="41" spans="2:10" hidden="1">
+    <row r="41" spans="2:10">
       <c r="B41" s="27" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C41" s="39" t="s">
         <v>202</v>
       </c>
       <c r="D41" s="45">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="E41" s="25" t="s">
         <v>199</v>
       </c>
       <c r="F41" s="37">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G41" s="56">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H41" s="56">
         <v>5</v>
       </c>
       <c r="I41" s="56">
         <f>SUM(G41+H41)</f>
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="J41" s="26"/>
     </row>
-    <row r="42" spans="2:10" hidden="1">
-      <c r="B42" s="31" t="s">
-        <v>148</v>
+    <row r="42" spans="2:10">
+      <c r="B42" s="27" t="s">
+        <v>124</v>
       </c>
       <c r="C42" s="39" t="s">
         <v>202</v>
       </c>
       <c r="D42" s="45">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="E42" s="39" t="s">
         <v>198</v>
       </c>
       <c r="F42" s="37">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G42" s="56">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H42" s="56">
         <v>5</v>
       </c>
       <c r="I42" s="56">
         <f>SUM(G42+H42)</f>
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="J42" s="26"/>
     </row>
-    <row r="43" spans="2:10" hidden="1">
-      <c r="B43" s="27" t="s">
-        <v>134</v>
+    <row r="43" spans="2:10">
+      <c r="B43" s="31" t="s">
+        <v>179</v>
       </c>
       <c r="C43" s="39" t="s">
         <v>202</v>
       </c>
       <c r="D43" s="45">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E43" s="39" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="F43" s="37">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G43" s="56">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H43" s="56">
         <v>5</v>
       </c>
       <c r="I43" s="56">
         <f>SUM(G43+H43)</f>
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="J43" s="26"/>
     </row>
-    <row r="44" spans="2:10" hidden="1">
+    <row r="44" spans="2:10">
       <c r="B44" s="31" t="s">
-        <v>172</v>
+        <v>160</v>
       </c>
       <c r="C44" s="39" t="s">
         <v>202</v>
       </c>
       <c r="D44" s="45">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E44" s="39" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="F44" s="37">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G44" s="56">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H44" s="56">
         <v>5</v>
       </c>
       <c r="I44" s="56">
         <f>SUM(G44+H44)</f>
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="J44" s="26"/>
     </row>
-    <row r="45" spans="2:10" hidden="1">
+    <row r="45" spans="2:10">
       <c r="B45" s="31" t="s">
-        <v>179</v>
+        <v>161</v>
       </c>
       <c r="C45" s="39" t="s">
         <v>202</v>
       </c>
       <c r="D45" s="45">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E45" s="39" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="F45" s="37">
         <v>9</v>
@@ -3394,18 +3579,18 @@
       </c>
       <c r="J45" s="26"/>
     </row>
-    <row r="46" spans="2:10" hidden="1">
+    <row r="46" spans="2:10">
       <c r="B46" s="31" t="s">
-        <v>160</v>
+        <v>173</v>
       </c>
       <c r="C46" s="39" t="s">
         <v>202</v>
       </c>
       <c r="D46" s="45">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="E46" s="39" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="F46" s="37">
         <v>9</v>
@@ -3422,18 +3607,18 @@
       </c>
       <c r="J46" s="26"/>
     </row>
-    <row r="47" spans="2:10" hidden="1">
-      <c r="B47" s="31" t="s">
-        <v>161</v>
+    <row r="47" spans="2:10">
+      <c r="B47" s="27" t="s">
+        <v>130</v>
       </c>
       <c r="C47" s="39" t="s">
         <v>202</v>
       </c>
       <c r="D47" s="45">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="E47" s="39" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="F47" s="37">
         <v>9</v>
@@ -3450,565 +3635,565 @@
       </c>
       <c r="J47" s="26"/>
     </row>
-    <row r="48" spans="2:10" hidden="1">
+    <row r="48" spans="2:10">
       <c r="B48" s="27" t="s">
-        <v>125</v>
+        <v>143</v>
       </c>
       <c r="C48" s="52" t="s">
         <v>202</v>
       </c>
       <c r="D48" s="54">
-        <v>16</v>
-      </c>
-      <c r="E48" s="39" t="s">
-        <v>198</v>
+        <v>9</v>
+      </c>
+      <c r="E48" s="25" t="s">
+        <v>199</v>
       </c>
       <c r="F48" s="59">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G48" s="57">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H48" s="57">
         <v>5</v>
       </c>
       <c r="I48" s="56">
         <f>SUM(G48+H48)</f>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="J48" s="26"/>
     </row>
-    <row r="49" spans="2:10" hidden="1">
+    <row r="49" spans="2:10">
       <c r="B49" s="31" t="s">
-        <v>171</v>
+        <v>148</v>
       </c>
       <c r="C49" s="52" t="s">
         <v>202</v>
       </c>
       <c r="D49" s="54">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="E49" s="39" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="F49" s="59">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G49" s="57">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H49" s="57">
         <v>5</v>
       </c>
       <c r="I49" s="56">
         <f>SUM(G49+H49)</f>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="J49" s="26"/>
     </row>
-    <row r="50" spans="2:10" hidden="1">
-      <c r="B50" s="31" t="s">
-        <v>173</v>
+    <row r="50" spans="2:10">
+      <c r="B50" s="27" t="s">
+        <v>134</v>
       </c>
       <c r="C50" s="39" t="s">
         <v>202</v>
       </c>
       <c r="D50" s="45">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="E50" s="39" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="F50" s="37">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G50" s="56">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H50" s="56">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I50" s="56">
         <f>SUM(G50+H50)</f>
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="J50" s="26"/>
     </row>
-    <row r="51" spans="2:10" hidden="1">
-      <c r="B51" s="27" t="s">
-        <v>130</v>
+    <row r="51" spans="2:10">
+      <c r="B51" s="31" t="s">
+        <v>172</v>
       </c>
       <c r="C51" s="39" t="s">
         <v>202</v>
       </c>
       <c r="D51" s="45">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="E51" s="39" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="F51" s="37">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G51" s="56">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H51" s="56">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I51" s="56">
         <f>SUM(G51+H51)</f>
+        <v>10</v>
+      </c>
+      <c r="J51" s="26"/>
+    </row>
+    <row r="52" spans="2:10">
+      <c r="B52" s="47" t="s">
+        <v>135</v>
+      </c>
+      <c r="C52" s="48" t="s">
+        <v>203</v>
+      </c>
+      <c r="D52" s="49">
         <v>8</v>
       </c>
-      <c r="J51" s="26"/>
-    </row>
-    <row r="52" spans="2:10" hidden="1">
-      <c r="B52" s="27" t="s">
-        <v>142</v>
-      </c>
-      <c r="C52" s="39" t="s">
+      <c r="E52" s="48" t="s">
+        <v>198</v>
+      </c>
+      <c r="F52" s="46">
+        <v>10</v>
+      </c>
+      <c r="G52" s="46">
+        <v>6</v>
+      </c>
+      <c r="H52" s="46">
+        <v>6</v>
+      </c>
+      <c r="I52" s="46">
+        <f>SUM(G52+H52)</f>
+        <v>12</v>
+      </c>
+      <c r="J52" s="46"/>
+    </row>
+    <row r="53" spans="2:10">
+      <c r="B53" s="32" t="s">
+        <v>164</v>
+      </c>
+      <c r="C53" s="33" t="s">
+        <v>203</v>
+      </c>
+      <c r="D53" s="46">
+        <v>9</v>
+      </c>
+      <c r="E53" s="33" t="s">
+        <v>196</v>
+      </c>
+      <c r="F53" s="46">
+        <v>10</v>
+      </c>
+      <c r="G53" s="46">
+        <v>6</v>
+      </c>
+      <c r="H53" s="46">
+        <v>6</v>
+      </c>
+      <c r="I53" s="46">
+        <f>SUM(G53+H53)</f>
+        <v>12</v>
+      </c>
+      <c r="J53" s="33"/>
+    </row>
+    <row r="54" spans="2:10">
+      <c r="B54" s="31" t="s">
+        <v>162</v>
+      </c>
+      <c r="C54" s="39" t="s">
         <v>202</v>
       </c>
-      <c r="D52" s="45">
-        <v>20</v>
-      </c>
-      <c r="E52" s="25" t="s">
-        <v>199</v>
-      </c>
-      <c r="F52" s="37">
-        <v>8</v>
-      </c>
-      <c r="G52" s="56">
-        <v>4</v>
-      </c>
-      <c r="H52" s="56">
-        <v>4</v>
-      </c>
-      <c r="I52" s="56">
-        <f>SUM(G52+H52)</f>
-        <v>8</v>
-      </c>
-      <c r="J52" s="26"/>
-    </row>
-    <row r="53" spans="2:10" hidden="1">
-      <c r="B53" s="27" t="s">
-        <v>124</v>
-      </c>
-      <c r="C53" s="39" t="s">
-        <v>202</v>
-      </c>
-      <c r="D53" s="45">
-        <v>21</v>
-      </c>
-      <c r="E53" s="39" t="s">
-        <v>198</v>
-      </c>
-      <c r="F53" s="37">
-        <v>8</v>
-      </c>
-      <c r="G53" s="56">
-        <v>4</v>
-      </c>
-      <c r="H53" s="56">
-        <v>4</v>
-      </c>
-      <c r="I53" s="56">
-        <f>SUM(G53+H53)</f>
-        <v>8</v>
-      </c>
-      <c r="J53" s="26"/>
-    </row>
-    <row r="54" spans="2:10" hidden="1">
-      <c r="B54" s="27" t="s">
-        <v>141</v>
-      </c>
-      <c r="C54" s="42" t="s">
-        <v>202</v>
-      </c>
-      <c r="D54" s="44">
-        <v>22</v>
-      </c>
-      <c r="E54" s="25" t="s">
-        <v>199</v>
+      <c r="D54" s="45">
+        <v>7</v>
+      </c>
+      <c r="E54" s="39" t="s">
+        <v>196</v>
       </c>
       <c r="F54" s="37">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="G54" s="56">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H54" s="56">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I54" s="56">
         <f>SUM(G54+H54)</f>
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="J54" s="26"/>
     </row>
-    <row r="55" spans="2:10" hidden="1">
-      <c r="B55" s="27" t="s">
-        <v>133</v>
+    <row r="55" spans="2:10">
+      <c r="B55" s="31" t="s">
+        <v>149</v>
       </c>
       <c r="C55" s="39" t="s">
         <v>202</v>
       </c>
       <c r="D55" s="45">
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="E55" s="39" t="s">
         <v>198</v>
       </c>
       <c r="F55" s="37">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="G55" s="56">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H55" s="56">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I55" s="56">
         <f>SUM(G55+H55)</f>
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="J55" s="26"/>
     </row>
-    <row r="56" spans="2:10" hidden="1">
-      <c r="B56" s="31" t="s">
-        <v>150</v>
-      </c>
-      <c r="C56" s="39" t="s">
-        <v>202</v>
-      </c>
-      <c r="D56" s="45">
-        <v>24</v>
-      </c>
-      <c r="E56" s="39" t="s">
-        <v>198</v>
-      </c>
-      <c r="F56" s="37">
+    <row r="56" spans="2:10">
+      <c r="B56" s="32" t="s">
+        <v>209</v>
+      </c>
+      <c r="C56" s="33" t="s">
+        <v>203</v>
+      </c>
+      <c r="D56" s="46">
+        <v>7</v>
+      </c>
+      <c r="E56" s="33" t="s">
+        <v>199</v>
+      </c>
+      <c r="F56" s="46">
+        <v>11</v>
+      </c>
+      <c r="G56" s="46">
         <v>6</v>
       </c>
-      <c r="G56" s="56">
-        <v>4</v>
-      </c>
-      <c r="H56" s="56">
-        <v>4</v>
-      </c>
-      <c r="I56" s="56">
+      <c r="H56" s="46">
+        <v>6</v>
+      </c>
+      <c r="I56" s="46">
         <f>SUM(G56+H56)</f>
-        <v>8</v>
-      </c>
-      <c r="J56" s="26"/>
-    </row>
-    <row r="57" spans="2:10" hidden="1">
-      <c r="B57" s="27" t="s">
-        <v>132</v>
-      </c>
-      <c r="C57" s="39" t="s">
-        <v>202</v>
-      </c>
-      <c r="D57" s="45">
-        <v>25</v>
-      </c>
-      <c r="E57" s="39" t="s">
-        <v>198</v>
-      </c>
-      <c r="F57" s="37">
+        <v>12</v>
+      </c>
+      <c r="J56" s="33"/>
+    </row>
+    <row r="57" spans="2:10">
+      <c r="B57" s="32" t="s">
+        <v>185</v>
+      </c>
+      <c r="C57" s="33" t="s">
+        <v>203</v>
+      </c>
+      <c r="D57" s="46">
         <v>6</v>
       </c>
-      <c r="G57" s="56">
-        <v>4</v>
-      </c>
-      <c r="H57" s="56">
-        <v>4</v>
-      </c>
-      <c r="I57" s="56">
+      <c r="E57" s="33" t="s">
+        <v>200</v>
+      </c>
+      <c r="F57" s="46">
+        <v>11</v>
+      </c>
+      <c r="G57" s="46">
+        <v>6</v>
+      </c>
+      <c r="H57" s="46">
+        <v>7</v>
+      </c>
+      <c r="I57" s="46">
         <f>SUM(G57+H57)</f>
-        <v>8</v>
-      </c>
-      <c r="J57" s="26"/>
-    </row>
-    <row r="58" spans="2:10" hidden="1">
-      <c r="B58" s="27" t="s">
-        <v>131</v>
+        <v>13</v>
+      </c>
+      <c r="J57" s="33"/>
+    </row>
+    <row r="58" spans="2:10">
+      <c r="B58" s="31" t="s">
+        <v>182</v>
       </c>
       <c r="C58" s="39" t="s">
         <v>202</v>
       </c>
       <c r="D58" s="45">
-        <v>26</v>
+        <v>5</v>
       </c>
       <c r="E58" s="39" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="F58" s="59">
+        <v>12</v>
+      </c>
+      <c r="G58" s="57">
         <v>5</v>
       </c>
-      <c r="G58" s="57">
-        <v>4</v>
-      </c>
       <c r="H58" s="56">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="I58" s="56">
         <f>SUM(G58+H58)</f>
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="J58" s="26"/>
     </row>
-    <row r="59" spans="2:10" hidden="1">
-      <c r="B59" s="27" t="s">
-        <v>136</v>
-      </c>
-      <c r="C59" s="64" t="s">
+    <row r="59" spans="2:10">
+      <c r="B59" s="31" t="s">
+        <v>184</v>
+      </c>
+      <c r="C59" s="52" t="s">
         <v>202</v>
       </c>
-      <c r="D59" s="53">
-        <v>27</v>
-      </c>
-      <c r="E59" s="27" t="s">
-        <v>199</v>
+      <c r="D59" s="54">
+        <v>6</v>
+      </c>
+      <c r="E59" s="52" t="s">
+        <v>200</v>
       </c>
       <c r="F59" s="37">
+        <v>12</v>
+      </c>
+      <c r="G59" s="57">
         <v>5</v>
       </c>
-      <c r="G59" s="57">
-        <v>4</v>
-      </c>
       <c r="H59" s="56">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="I59" s="56">
         <f>SUM(G59+H59)</f>
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="J59" s="26"/>
     </row>
     <row r="60" spans="2:10">
       <c r="B60" s="32" t="s">
-        <v>164</v>
+        <v>192</v>
       </c>
       <c r="C60" s="33" t="s">
         <v>203</v>
       </c>
-      <c r="D60" s="62">
-        <v>9</v>
+      <c r="D60" s="60">
+        <v>5</v>
       </c>
       <c r="E60" s="32" t="s">
         <v>196</v>
       </c>
       <c r="F60" s="46">
-        <v>10</v>
-      </c>
-      <c r="G60" s="62">
-        <v>6</v>
+        <v>12</v>
+      </c>
+      <c r="G60" s="60">
+        <v>7</v>
       </c>
       <c r="H60" s="46">
         <v>6</v>
       </c>
       <c r="I60" s="46">
         <f>SUM(G60+H60)</f>
+        <v>13</v>
+      </c>
+      <c r="J60" s="33"/>
+    </row>
+    <row r="61" spans="2:10">
+      <c r="B61" s="32" t="s">
+        <v>155</v>
+      </c>
+      <c r="C61" s="33" t="s">
+        <v>203</v>
+      </c>
+      <c r="D61" s="46">
+        <v>4</v>
+      </c>
+      <c r="E61" s="33" t="s">
+        <v>198</v>
+      </c>
+      <c r="F61" s="46">
         <v>12</v>
       </c>
-      <c r="J60" s="33"/>
-    </row>
-    <row r="61" spans="2:10">
-      <c r="B61" s="47" t="s">
-        <v>135</v>
-      </c>
-      <c r="C61" s="48" t="s">
-        <v>203</v>
-      </c>
-      <c r="D61" s="49">
-        <v>8</v>
-      </c>
-      <c r="E61" s="48" t="s">
-        <v>198</v>
-      </c>
-      <c r="F61" s="46">
-        <v>10</v>
-      </c>
       <c r="G61" s="46">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="H61" s="46">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="I61" s="46">
         <f>SUM(G61+H61)</f>
-        <v>12</v>
-      </c>
-      <c r="J61" s="46"/>
+        <v>14</v>
+      </c>
+      <c r="J61" s="33"/>
     </row>
     <row r="62" spans="2:10">
-      <c r="B62" s="32" t="s">
-        <v>209</v>
-      </c>
-      <c r="C62" s="33" t="s">
-        <v>203</v>
-      </c>
-      <c r="D62" s="46">
-        <v>7</v>
-      </c>
-      <c r="E62" s="33" t="s">
-        <v>199</v>
-      </c>
-      <c r="F62" s="46">
+      <c r="B62" s="31" t="s">
+        <v>183</v>
+      </c>
+      <c r="C62" s="39" t="s">
+        <v>202</v>
+      </c>
+      <c r="D62" s="45">
+        <v>3</v>
+      </c>
+      <c r="E62" s="39" t="s">
+        <v>200</v>
+      </c>
+      <c r="F62" s="37">
+        <v>13</v>
+      </c>
+      <c r="G62" s="56">
+        <v>5</v>
+      </c>
+      <c r="H62" s="56">
+        <v>6</v>
+      </c>
+      <c r="I62" s="56">
+        <f>SUM(G62+H62)</f>
         <v>11</v>
       </c>
-      <c r="G62" s="46">
+      <c r="J62" s="26"/>
+    </row>
+    <row r="63" spans="2:10">
+      <c r="B63" s="31" t="s">
+        <v>163</v>
+      </c>
+      <c r="C63" s="39" t="s">
+        <v>202</v>
+      </c>
+      <c r="D63" s="45">
+        <v>4</v>
+      </c>
+      <c r="E63" s="39" t="s">
+        <v>196</v>
+      </c>
+      <c r="F63" s="37">
+        <v>13</v>
+      </c>
+      <c r="G63" s="56">
+        <v>5</v>
+      </c>
+      <c r="H63" s="56">
         <v>6</v>
       </c>
-      <c r="H62" s="46">
-        <v>6</v>
-      </c>
-      <c r="I62" s="46">
-        <f>SUM(G62+H62)</f>
-        <v>12</v>
-      </c>
-      <c r="J62" s="33"/>
-    </row>
-    <row r="63" spans="2:10">
-      <c r="B63" s="32" t="s">
-        <v>185</v>
-      </c>
-      <c r="C63" s="33" t="s">
-        <v>203</v>
-      </c>
-      <c r="D63" s="46">
-        <v>6</v>
-      </c>
-      <c r="E63" s="33" t="s">
-        <v>200</v>
-      </c>
-      <c r="F63" s="46">
+      <c r="I63" s="56">
+        <f>SUM(G63+H63)</f>
         <v>11</v>
       </c>
-      <c r="G63" s="46">
-        <v>6</v>
-      </c>
-      <c r="H63" s="46">
-        <v>7</v>
-      </c>
-      <c r="I63" s="46">
-        <f>SUM(G63+H63)</f>
-        <v>13</v>
-      </c>
-      <c r="J63" s="33"/>
+      <c r="J63" s="26"/>
     </row>
     <row r="64" spans="2:10">
       <c r="B64" s="32" t="s">
-        <v>192</v>
+        <v>174</v>
       </c>
       <c r="C64" s="33" t="s">
         <v>203</v>
       </c>
       <c r="D64" s="46">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E64" s="33" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="F64" s="46">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G64" s="46">
         <v>7</v>
       </c>
       <c r="H64" s="46">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="I64" s="46">
         <f>SUM(G64+H64)</f>
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="J64" s="33"/>
     </row>
     <row r="65" spans="2:10">
-      <c r="B65" s="32" t="s">
-        <v>155</v>
-      </c>
-      <c r="C65" s="33" t="s">
+      <c r="B65" s="31" t="s">
+        <v>191</v>
+      </c>
+      <c r="C65" s="39" t="s">
+        <v>202</v>
+      </c>
+      <c r="D65" s="45">
+        <v>1</v>
+      </c>
+      <c r="E65" s="39" t="s">
+        <v>200</v>
+      </c>
+      <c r="F65" s="37">
+        <v>14</v>
+      </c>
+      <c r="G65" s="56">
+        <v>5</v>
+      </c>
+      <c r="H65" s="56">
+        <v>6</v>
+      </c>
+      <c r="I65" s="56">
+        <f>SUM(G65+H65)</f>
+        <v>11</v>
+      </c>
+      <c r="J65" s="26"/>
+    </row>
+    <row r="66" spans="2:10">
+      <c r="B66" s="27" t="s">
+        <v>144</v>
+      </c>
+      <c r="C66" s="39" t="s">
+        <v>202</v>
+      </c>
+      <c r="D66" s="45">
+        <v>2</v>
+      </c>
+      <c r="E66" s="25" t="s">
+        <v>199</v>
+      </c>
+      <c r="F66" s="37">
+        <v>14</v>
+      </c>
+      <c r="G66" s="56">
+        <v>5</v>
+      </c>
+      <c r="H66" s="56">
+        <v>6</v>
+      </c>
+      <c r="I66" s="56">
+        <f>SUM(G66+H66)</f>
+        <v>11</v>
+      </c>
+      <c r="J66" s="26"/>
+    </row>
+    <row r="67" spans="2:10">
+      <c r="B67" s="32" t="s">
+        <v>154</v>
+      </c>
+      <c r="C67" s="33" t="s">
         <v>203</v>
       </c>
-      <c r="D65" s="46">
-        <v>4</v>
-      </c>
-      <c r="E65" s="33" t="s">
-        <v>198</v>
-      </c>
-      <c r="F65" s="46">
-        <v>12</v>
-      </c>
-      <c r="G65" s="46">
+      <c r="D67" s="46">
+        <v>1</v>
+      </c>
+      <c r="E67" s="33" t="s">
+        <v>200</v>
+      </c>
+      <c r="F67" s="46">
+        <v>14</v>
+      </c>
+      <c r="G67" s="46">
         <v>7</v>
       </c>
-      <c r="H65" s="46">
-        <v>7</v>
-      </c>
-      <c r="I65" s="46">
-        <f>SUM(G65+H65)</f>
-        <v>14</v>
-      </c>
-      <c r="J65" s="33"/>
-    </row>
-    <row r="66" spans="2:10">
-      <c r="B66" s="32" t="s">
-        <v>174</v>
-      </c>
-      <c r="C66" s="33" t="s">
-        <v>203</v>
-      </c>
-      <c r="D66" s="46">
-        <v>3</v>
-      </c>
-      <c r="E66" s="33" t="s">
-        <v>197</v>
-      </c>
-      <c r="F66" s="46">
-        <v>13</v>
-      </c>
-      <c r="G66" s="46">
-        <v>7</v>
-      </c>
-      <c r="H66" s="46">
-        <v>7</v>
-      </c>
-      <c r="I66" s="46">
-        <f>SUM(G66+H66)</f>
-        <v>14</v>
-      </c>
-      <c r="J66" s="33"/>
-    </row>
-    <row r="67" spans="2:10">
-      <c r="B67" s="40" t="s">
-        <v>176</v>
-      </c>
-      <c r="C67" s="41" t="s">
-        <v>151</v>
-      </c>
-      <c r="D67" s="50">
-        <v>4</v>
-      </c>
-      <c r="E67" s="41" t="s">
-        <v>197</v>
-      </c>
-      <c r="F67" s="50">
-        <v>16</v>
-      </c>
-      <c r="G67" s="50">
+      <c r="H67" s="46">
         <v>8</v>
       </c>
-      <c r="H67" s="50">
-        <v>7</v>
-      </c>
-      <c r="I67" s="50">
+      <c r="I67" s="46">
         <f>SUM(G67+H67)</f>
         <v>15</v>
       </c>
-      <c r="J67" s="41"/>
+      <c r="J67" s="33"/>
     </row>
     <row r="68" spans="2:10">
       <c r="B68" s="32" t="s">
@@ -4039,42 +4224,42 @@
       <c r="J68" s="33"/>
     </row>
     <row r="69" spans="2:10">
-      <c r="B69" s="32" t="s">
-        <v>154</v>
-      </c>
-      <c r="C69" s="33" t="s">
-        <v>203</v>
-      </c>
-      <c r="D69" s="46">
-        <v>1</v>
-      </c>
-      <c r="E69" s="33" t="s">
-        <v>200</v>
-      </c>
-      <c r="F69" s="46">
-        <v>14</v>
-      </c>
-      <c r="G69" s="46">
+      <c r="B69" s="40" t="s">
+        <v>194</v>
+      </c>
+      <c r="C69" s="41" t="s">
+        <v>151</v>
+      </c>
+      <c r="D69" s="50">
+        <v>5</v>
+      </c>
+      <c r="E69" s="41" t="s">
+        <v>196</v>
+      </c>
+      <c r="F69" s="50">
+        <v>15</v>
+      </c>
+      <c r="G69" s="50">
+        <v>8</v>
+      </c>
+      <c r="H69" s="50">
         <v>7</v>
       </c>
-      <c r="H69" s="46">
-        <v>8</v>
-      </c>
-      <c r="I69" s="46">
+      <c r="I69" s="50">
         <f>SUM(G69+H69)</f>
         <v>15</v>
       </c>
-      <c r="J69" s="33"/>
+      <c r="J69" s="41"/>
     </row>
     <row r="70" spans="2:10">
       <c r="B70" s="40" t="s">
-        <v>194</v>
+        <v>165</v>
       </c>
       <c r="C70" s="41" t="s">
         <v>151</v>
       </c>
       <c r="D70" s="50">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E70" s="41" t="s">
         <v>196</v>
@@ -4096,19 +4281,19 @@
     </row>
     <row r="71" spans="2:10">
       <c r="B71" s="40" t="s">
-        <v>165</v>
+        <v>176</v>
       </c>
       <c r="C71" s="41" t="s">
         <v>151</v>
       </c>
       <c r="D71" s="50">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E71" s="41" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="F71" s="50">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G71" s="50">
         <v>8</v>
@@ -4264,18 +4449,11 @@
     </row>
   </sheetData>
   <autoFilter ref="B1:J76" xr:uid="{2C6BD44E-C49F-49F0-BAAC-5F0D8342ACD5}">
-    <filterColumn colId="1">
-      <filters>
-        <filter val="Boss"/>
-        <filter val="Épico"/>
-        <filter val="SemiBoss"/>
-      </filters>
-    </filterColumn>
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B33:J59">
-      <sortCondition ref="D1:D76"/>
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B2:J76">
+      <sortCondition ref="F1:F76"/>
     </sortState>
   </autoFilter>
-  <phoneticPr fontId="11" type="noConversion"/>
+  <phoneticPr fontId="12" type="noConversion"/>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -4313,26 +4491,26 @@
       <c r="B1" s="1"/>
     </row>
     <row r="2" spans="2:15">
-      <c r="B2" s="60" t="s">
+      <c r="B2" s="62" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="61"/>
-      <c r="E2" s="60" t="s">
+      <c r="C2" s="63"/>
+      <c r="E2" s="62" t="s">
         <v>1</v>
       </c>
-      <c r="F2" s="61"/>
-      <c r="H2" s="60" t="s">
+      <c r="F2" s="63"/>
+      <c r="H2" s="62" t="s">
         <v>2</v>
       </c>
-      <c r="I2" s="61"/>
-      <c r="K2" s="60" t="s">
+      <c r="I2" s="63"/>
+      <c r="K2" s="62" t="s">
         <v>3</v>
       </c>
-      <c r="L2" s="61"/>
-      <c r="N2" s="60" t="s">
+      <c r="L2" s="63"/>
+      <c r="N2" s="62" t="s">
         <v>4</v>
       </c>
-      <c r="O2" s="61"/>
+      <c r="O2" s="63"/>
     </row>
     <row r="3" spans="2:15">
       <c r="B3" s="2" t="s">

--- a/Images/Ganolia/Mecanismo.xlsx
+++ b/Images/Ganolia/Mecanismo.xlsx
@@ -8,20 +8,19 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\chs\Images\Ganolia\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33B45671-98C1-4AB1-92B8-F0B4B4CCF4BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08FB12C6-76FA-4D6B-BC8E-01F9A9FFE57A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="15000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="15000" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="CORE" sheetId="7" r:id="rId1"/>
+    <sheet name="Criaturas" sheetId="7" r:id="rId1"/>
     <sheet name="Classes" sheetId="1" r:id="rId2"/>
-    <sheet name="Aprendizagem&amp;Fabricacao" sheetId="4" r:id="rId3"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId4"/>
+    <externalReference r:id="rId3"/>
   </externalReferences>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">CORE!$B$1:$J$76</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Criaturas!$B$1:$J$76</definedName>
     <definedName name="Criaturas_1">INDEX([1]Criaturas!$B$1:$B$125,MATCH([1]Jogo!$C$48,[1]Criaturas!$A$1:$A$125,0))</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
@@ -29,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="459" uniqueCount="238">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="442" uniqueCount="224">
   <si>
     <t>Mago</t>
   </si>
@@ -273,18 +272,12 @@
     <t>Cruz</t>
   </si>
   <si>
-    <t>Magias</t>
-  </si>
-  <si>
     <t>Nome</t>
   </si>
   <si>
     <t>Distância</t>
   </si>
   <si>
-    <t>Equipamentos</t>
-  </si>
-  <si>
     <t>Probabilidade de Defesa</t>
   </si>
   <si>
@@ -334,42 +327,6 @@
   </si>
   <si>
     <t>AJUDA DE 1 A 2</t>
-  </si>
-  <si>
-    <t>Pergaminho Azul</t>
-  </si>
-  <si>
-    <t>01 Unidade por Jogador</t>
-  </si>
-  <si>
-    <t>Material utilizado para tele transporte</t>
-  </si>
-  <si>
-    <t>Pergaminho Dourado</t>
-  </si>
-  <si>
-    <t>01 Unidade por jogador</t>
-  </si>
-  <si>
-    <t>Token Mistico</t>
-  </si>
-  <si>
-    <t>Material utilizado como checkpoint quando morrer</t>
-  </si>
-  <si>
-    <t>Materiais</t>
-  </si>
-  <si>
-    <t>Requerimento: Nível</t>
-  </si>
-  <si>
-    <t>Aquisição: Drop &amp; Material &amp; Moedas</t>
-  </si>
-  <si>
-    <t>Aquisição: Drop &amp; Quests</t>
-  </si>
-  <si>
-    <t>Aquisição: Moedas</t>
   </si>
   <si>
     <t>Raridade</t>
@@ -913,7 +870,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="15">
+  <borders count="21">
     <border>
       <left/>
       <right/>
@@ -1103,12 +1060,74 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="70">
+  <cellXfs count="78">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1161,14 +1180,13 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="14" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="14" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="15" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1179,18 +1197,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="17" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="17" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1207,23 +1224,23 @@
     <xf numFmtId="0" fontId="15" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1232,21 +1249,39 @@
     <xf numFmtId="0" fontId="14" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2116,2336 +2151,2351 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C6BD44E-C49F-49F0-BAAC-5F0D8342ACD5}">
-  <dimension ref="B1:N76"/>
+  <dimension ref="B1:O76"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F14" sqref="F14"/>
+      <selection pane="bottomLeft" activeCell="C38" sqref="C38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="2" max="2" width="16.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="34.7109375" style="36" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="34.7109375" style="35" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="23.42578125" customWidth="1"/>
-    <col min="6" max="6" width="9.28515625" style="36" customWidth="1"/>
-    <col min="7" max="7" width="16.140625" style="36" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.85546875" style="36" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.85546875" style="36" customWidth="1"/>
+    <col min="6" max="6" width="9.28515625" style="35" customWidth="1"/>
+    <col min="7" max="7" width="16.140625" style="35" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.85546875" style="35" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.85546875" style="35" customWidth="1"/>
     <col min="10" max="10" width="17.28515625" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="19.85546875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="41.85546875" style="36" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="41.85546875" style="35" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:14" ht="21">
-      <c r="B1" s="28" t="s">
-        <v>81</v>
-      </c>
-      <c r="C1" s="29" t="s">
-        <v>113</v>
-      </c>
-      <c r="D1" s="43" t="s">
-        <v>208</v>
-      </c>
-      <c r="E1" s="30" t="s">
-        <v>195</v>
-      </c>
-      <c r="F1" s="55" t="s">
-        <v>206</v>
-      </c>
-      <c r="G1" s="55" t="s">
-        <v>212</v>
-      </c>
-      <c r="H1" s="55" t="s">
-        <v>205</v>
-      </c>
-      <c r="I1" s="55" t="s">
-        <v>211</v>
-      </c>
-      <c r="J1" s="29" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="2" spans="2:14">
-      <c r="B2" s="27" t="s">
-        <v>123</v>
-      </c>
-      <c r="C2" s="39" t="s">
-        <v>201</v>
-      </c>
-      <c r="D2" s="44">
+    <row r="1" spans="2:15" ht="21">
+      <c r="B1" s="27" t="s">
+        <v>80</v>
+      </c>
+      <c r="C1" s="28" t="s">
+        <v>99</v>
+      </c>
+      <c r="D1" s="41" t="s">
+        <v>194</v>
+      </c>
+      <c r="E1" s="29" t="s">
+        <v>181</v>
+      </c>
+      <c r="F1" s="53" t="s">
+        <v>192</v>
+      </c>
+      <c r="G1" s="53" t="s">
+        <v>198</v>
+      </c>
+      <c r="H1" s="53" t="s">
+        <v>191</v>
+      </c>
+      <c r="I1" s="53" t="s">
+        <v>197</v>
+      </c>
+      <c r="J1" s="28" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="2" spans="2:15">
+      <c r="B2" s="26" t="s">
+        <v>109</v>
+      </c>
+      <c r="C2" s="37" t="s">
+        <v>187</v>
+      </c>
+      <c r="D2" s="42">
         <v>31</v>
       </c>
-      <c r="E2" s="39" t="s">
-        <v>198</v>
-      </c>
-      <c r="F2" s="37">
+      <c r="E2" s="37" t="s">
+        <v>184</v>
+      </c>
+      <c r="F2" s="36">
         <v>2</v>
       </c>
-      <c r="G2" s="58">
+      <c r="G2" s="56">
         <v>2</v>
       </c>
-      <c r="H2" s="56">
+      <c r="H2" s="54">
         <v>2</v>
       </c>
-      <c r="I2" s="56">
-        <f>SUM(G2+H2)</f>
+      <c r="I2" s="54">
+        <f t="shared" ref="I2:I33" si="0">SUM(G2+H2)</f>
         <v>4</v>
       </c>
-      <c r="J2" s="26"/>
-    </row>
-    <row r="3" spans="2:14">
-      <c r="B3" s="27" t="s">
-        <v>117</v>
-      </c>
-      <c r="C3" s="39" t="s">
-        <v>201</v>
-      </c>
-      <c r="D3" s="44">
+      <c r="J2" s="25"/>
+    </row>
+    <row r="3" spans="2:15">
+      <c r="B3" s="26" t="s">
+        <v>103</v>
+      </c>
+      <c r="C3" s="37" t="s">
+        <v>187</v>
+      </c>
+      <c r="D3" s="42">
         <v>30</v>
       </c>
-      <c r="E3" s="39" t="s">
-        <v>198</v>
-      </c>
-      <c r="F3" s="56">
+      <c r="E3" s="37" t="s">
+        <v>184</v>
+      </c>
+      <c r="F3" s="54">
         <v>3</v>
       </c>
-      <c r="G3" s="56">
+      <c r="G3" s="54">
         <v>2</v>
       </c>
-      <c r="H3" s="56">
+      <c r="H3" s="54">
         <v>2</v>
       </c>
-      <c r="I3" s="56">
-        <f>SUM(G3+H3)</f>
+      <c r="I3" s="54">
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="J3" s="26"/>
-      <c r="L3" s="64" t="s">
-        <v>114</v>
-      </c>
-      <c r="M3" s="65">
+      <c r="J3" s="25"/>
+      <c r="L3" s="77" t="s">
+        <v>100</v>
+      </c>
+      <c r="M3" s="61">
         <f>COUNTIF(C:C,"Comum")</f>
         <v>31</v>
       </c>
-      <c r="N3" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="4" spans="2:14">
-      <c r="B4" s="27" t="s">
-        <v>118</v>
-      </c>
-      <c r="C4" s="39" t="s">
-        <v>201</v>
-      </c>
-      <c r="D4" s="44">
+      <c r="N3" s="67" t="s">
+        <v>209</v>
+      </c>
+      <c r="O3" s="68"/>
+    </row>
+    <row r="4" spans="2:15">
+      <c r="B4" s="26" t="s">
+        <v>104</v>
+      </c>
+      <c r="C4" s="37" t="s">
+        <v>187</v>
+      </c>
+      <c r="D4" s="42">
         <v>20</v>
       </c>
-      <c r="E4" s="39" t="s">
-        <v>198</v>
-      </c>
-      <c r="F4" s="37">
+      <c r="E4" s="37" t="s">
+        <v>184</v>
+      </c>
+      <c r="F4" s="36">
         <v>3</v>
       </c>
-      <c r="G4" s="56">
+      <c r="G4" s="54">
         <v>2</v>
       </c>
-      <c r="H4" s="56">
+      <c r="H4" s="54">
         <v>3</v>
       </c>
-      <c r="I4" s="56">
-        <f>SUM(G4+H4)</f>
+      <c r="I4" s="54">
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="J4" s="56"/>
-      <c r="L4" s="64" t="s">
-        <v>115</v>
-      </c>
-      <c r="M4" s="65">
+      <c r="J4" s="54"/>
+      <c r="L4" s="60" t="s">
+        <v>101</v>
+      </c>
+      <c r="M4" s="61">
         <f>COUNTIF(C:C,"Incomum")</f>
         <v>27</v>
       </c>
-      <c r="N4" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="5" spans="2:14">
-      <c r="B5" s="27" t="s">
-        <v>128</v>
-      </c>
-      <c r="C5" s="39" t="s">
-        <v>201</v>
-      </c>
-      <c r="D5" s="44">
+      <c r="N4" s="69" t="s">
+        <v>208</v>
+      </c>
+      <c r="O4" s="70"/>
+    </row>
+    <row r="5" spans="2:15">
+      <c r="B5" s="26" t="s">
+        <v>114</v>
+      </c>
+      <c r="C5" s="37" t="s">
+        <v>187</v>
+      </c>
+      <c r="D5" s="42">
         <v>21</v>
       </c>
-      <c r="E5" s="39" t="s">
-        <v>198</v>
-      </c>
-      <c r="F5" s="37">
+      <c r="E5" s="37" t="s">
+        <v>184</v>
+      </c>
+      <c r="F5" s="36">
         <v>3</v>
       </c>
-      <c r="G5" s="56">
+      <c r="G5" s="54">
         <v>2</v>
       </c>
-      <c r="H5" s="56">
+      <c r="H5" s="54">
         <v>3</v>
       </c>
-      <c r="I5" s="56">
-        <f>SUM(G5+H5)</f>
+      <c r="I5" s="54">
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="J5" s="56"/>
-      <c r="L5" s="64" t="s">
-        <v>204</v>
-      </c>
-      <c r="M5" s="65">
+      <c r="J5" s="54"/>
+      <c r="L5" s="60" t="s">
+        <v>190</v>
+      </c>
+      <c r="M5" s="61">
         <f>COUNTIF(C:C,"Épico")</f>
         <v>9</v>
       </c>
-      <c r="N5" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="6" spans="2:14">
-      <c r="B6" s="27" t="s">
-        <v>121</v>
-      </c>
-      <c r="C6" s="39" t="s">
-        <v>201</v>
-      </c>
-      <c r="D6" s="44">
+      <c r="N5" s="69" t="s">
+        <v>205</v>
+      </c>
+      <c r="O5" s="70"/>
+    </row>
+    <row r="6" spans="2:15">
+      <c r="B6" s="26" t="s">
+        <v>107</v>
+      </c>
+      <c r="C6" s="37" t="s">
+        <v>187</v>
+      </c>
+      <c r="D6" s="42">
         <v>22</v>
       </c>
-      <c r="E6" s="39" t="s">
-        <v>198</v>
-      </c>
-      <c r="F6" s="37">
+      <c r="E6" s="37" t="s">
+        <v>184</v>
+      </c>
+      <c r="F6" s="36">
         <v>3</v>
       </c>
-      <c r="G6" s="56">
+      <c r="G6" s="54">
         <v>2</v>
       </c>
-      <c r="H6" s="56">
+      <c r="H6" s="54">
         <v>3</v>
       </c>
-      <c r="I6" s="56">
-        <f>SUM(G6+H6)</f>
+      <c r="I6" s="54">
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="J6" s="56"/>
-      <c r="L6" s="64" t="s">
-        <v>152</v>
-      </c>
-      <c r="M6" s="65">
+      <c r="J6" s="54"/>
+      <c r="L6" s="60" t="s">
+        <v>138</v>
+      </c>
+      <c r="M6" s="61">
         <f>COUNTIF(C:C,"SemiBoss")</f>
         <v>6</v>
       </c>
-      <c r="N6" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="7" spans="2:14">
-      <c r="B7" s="31" t="s">
-        <v>156</v>
-      </c>
-      <c r="C7" s="39" t="s">
-        <v>201</v>
-      </c>
-      <c r="D7" s="44">
+      <c r="N6" s="69" t="s">
+        <v>207</v>
+      </c>
+      <c r="O6" s="70"/>
+    </row>
+    <row r="7" spans="2:15">
+      <c r="B7" s="30" t="s">
+        <v>142</v>
+      </c>
+      <c r="C7" s="37" t="s">
+        <v>187</v>
+      </c>
+      <c r="D7" s="42">
         <v>27</v>
       </c>
-      <c r="E7" s="39" t="s">
-        <v>196</v>
-      </c>
-      <c r="F7" s="37">
+      <c r="E7" s="37" t="s">
+        <v>182</v>
+      </c>
+      <c r="F7" s="36">
         <v>4</v>
       </c>
-      <c r="G7" s="56">
+      <c r="G7" s="54">
         <v>2</v>
       </c>
-      <c r="H7" s="56">
+      <c r="H7" s="54">
         <v>2</v>
       </c>
-      <c r="I7" s="56">
-        <f>SUM(G7+H7)</f>
+      <c r="I7" s="54">
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="J7" s="26"/>
-      <c r="L7" s="64" t="s">
-        <v>153</v>
-      </c>
-      <c r="M7" s="65">
+      <c r="J7" s="25"/>
+      <c r="L7" s="60" t="s">
+        <v>139</v>
+      </c>
+      <c r="M7" s="61">
         <f>COUNTIF(C:C,"Boss")</f>
         <v>2</v>
       </c>
-      <c r="N7" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="8" spans="2:14">
-      <c r="B8" s="31" t="s">
-        <v>157</v>
-      </c>
-      <c r="C8" s="39" t="s">
-        <v>201</v>
-      </c>
-      <c r="D8" s="44">
+      <c r="N7" s="69" t="s">
+        <v>206</v>
+      </c>
+      <c r="O7" s="70"/>
+    </row>
+    <row r="8" spans="2:15">
+      <c r="B8" s="30" t="s">
+        <v>143</v>
+      </c>
+      <c r="C8" s="37" t="s">
+        <v>187</v>
+      </c>
+      <c r="D8" s="42">
         <v>28</v>
       </c>
-      <c r="E8" s="39" t="s">
-        <v>196</v>
-      </c>
-      <c r="F8" s="37">
+      <c r="E8" s="37" t="s">
+        <v>182</v>
+      </c>
+      <c r="F8" s="36">
         <v>4</v>
       </c>
-      <c r="G8" s="56">
+      <c r="G8" s="54">
         <v>2</v>
       </c>
-      <c r="H8" s="56">
+      <c r="H8" s="54">
         <v>2</v>
       </c>
-      <c r="I8" s="56">
-        <f>SUM(G8+H8)</f>
+      <c r="I8" s="54">
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="J8" s="26"/>
-      <c r="L8" s="64" t="s">
-        <v>207</v>
-      </c>
-      <c r="M8" s="65">
+      <c r="J8" s="25"/>
+      <c r="L8" s="60" t="s">
+        <v>193</v>
+      </c>
+      <c r="M8" s="61">
         <f>SUM(M3:M7)</f>
         <v>75</v>
       </c>
-    </row>
-    <row r="9" spans="2:14">
-      <c r="B9" s="31" t="s">
-        <v>170</v>
-      </c>
-      <c r="C9" s="39" t="s">
+      <c r="N8" s="71"/>
+      <c r="O8" s="72"/>
+    </row>
+    <row r="9" spans="2:15">
+      <c r="B9" s="30" t="s">
+        <v>156</v>
+      </c>
+      <c r="C9" s="37" t="s">
+        <v>187</v>
+      </c>
+      <c r="D9" s="42">
+        <v>29</v>
+      </c>
+      <c r="E9" s="37" t="s">
+        <v>183</v>
+      </c>
+      <c r="F9" s="36">
+        <v>4</v>
+      </c>
+      <c r="G9" s="54">
+        <v>2</v>
+      </c>
+      <c r="H9" s="54">
+        <v>2</v>
+      </c>
+      <c r="I9" s="54">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="J9" s="25"/>
+    </row>
+    <row r="10" spans="2:15">
+      <c r="B10" s="26" t="s">
+        <v>115</v>
+      </c>
+      <c r="C10" s="37" t="s">
+        <v>187</v>
+      </c>
+      <c r="D10" s="42">
+        <v>14</v>
+      </c>
+      <c r="E10" s="37" t="s">
+        <v>184</v>
+      </c>
+      <c r="F10" s="36">
+        <v>4</v>
+      </c>
+      <c r="G10" s="54">
+        <v>3</v>
+      </c>
+      <c r="H10" s="54">
+        <v>3</v>
+      </c>
+      <c r="I10" s="54">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="J10" s="25"/>
+      <c r="L10" s="67" t="s">
+        <v>199</v>
+      </c>
+      <c r="M10" s="73"/>
+    </row>
+    <row r="11" spans="2:15">
+      <c r="B11" s="30" t="s">
+        <v>154</v>
+      </c>
+      <c r="C11" s="37" t="s">
+        <v>187</v>
+      </c>
+      <c r="D11" s="42">
+        <v>15</v>
+      </c>
+      <c r="E11" s="37" t="s">
+        <v>183</v>
+      </c>
+      <c r="F11" s="36">
+        <v>4</v>
+      </c>
+      <c r="G11" s="54">
+        <v>3</v>
+      </c>
+      <c r="H11" s="54">
+        <v>3</v>
+      </c>
+      <c r="I11" s="54">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="J11" s="25"/>
+      <c r="L11" s="74" t="s">
+        <v>200</v>
+      </c>
+      <c r="M11" s="75" t="s">
         <v>201</v>
       </c>
-      <c r="D9" s="44">
-        <v>29</v>
-      </c>
-      <c r="E9" s="39" t="s">
-        <v>197</v>
-      </c>
-      <c r="F9" s="37">
+    </row>
+    <row r="12" spans="2:15">
+      <c r="B12" s="26" t="s">
+        <v>105</v>
+      </c>
+      <c r="C12" s="37" t="s">
+        <v>187</v>
+      </c>
+      <c r="D12" s="42">
+        <v>18</v>
+      </c>
+      <c r="E12" s="37" t="s">
+        <v>184</v>
+      </c>
+      <c r="F12" s="36">
         <v>4</v>
       </c>
-      <c r="G9" s="56">
+      <c r="G12" s="54">
         <v>2</v>
       </c>
-      <c r="H9" s="56">
+      <c r="H12" s="54">
+        <v>3</v>
+      </c>
+      <c r="I12" s="54">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="J12" s="54"/>
+      <c r="L12" s="69"/>
+      <c r="M12" s="75" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="13" spans="2:15">
+      <c r="B13" s="26" t="s">
+        <v>106</v>
+      </c>
+      <c r="C13" s="37" t="s">
+        <v>187</v>
+      </c>
+      <c r="D13" s="42">
+        <v>19</v>
+      </c>
+      <c r="E13" s="37" t="s">
+        <v>184</v>
+      </c>
+      <c r="F13" s="36">
+        <v>4</v>
+      </c>
+      <c r="G13" s="54">
         <v>2</v>
       </c>
-      <c r="I9" s="56">
-        <f>SUM(G9+H9)</f>
+      <c r="H13" s="54">
+        <v>3</v>
+      </c>
+      <c r="I13" s="54">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="J13" s="54"/>
+      <c r="L13" s="69"/>
+      <c r="M13" s="75" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="14" spans="2:15">
+      <c r="B14" s="26" t="s">
+        <v>123</v>
+      </c>
+      <c r="C14" s="37" t="s">
+        <v>187</v>
+      </c>
+      <c r="D14" s="42">
+        <v>26</v>
+      </c>
+      <c r="E14" s="24" t="s">
+        <v>185</v>
+      </c>
+      <c r="F14" s="36">
         <v>4</v>
       </c>
-      <c r="J9" s="26"/>
-    </row>
-    <row r="10" spans="2:14">
-      <c r="B10" s="27" t="s">
-        <v>129</v>
-      </c>
-      <c r="C10" s="39" t="s">
-        <v>201</v>
-      </c>
-      <c r="D10" s="44">
-        <v>14</v>
-      </c>
-      <c r="E10" s="39" t="s">
-        <v>198</v>
-      </c>
-      <c r="F10" s="37">
-        <v>4</v>
-      </c>
-      <c r="G10" s="56">
+      <c r="G14" s="54">
+        <v>2</v>
+      </c>
+      <c r="H14" s="54">
         <v>3</v>
       </c>
-      <c r="H10" s="56">
+      <c r="I14" s="54">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="J14" s="25"/>
+      <c r="L14" s="71"/>
+      <c r="M14" s="76" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="15" spans="2:15">
+      <c r="B15" s="26" t="s">
+        <v>108</v>
+      </c>
+      <c r="C15" s="37" t="s">
+        <v>187</v>
+      </c>
+      <c r="D15" s="42">
+        <v>12</v>
+      </c>
+      <c r="E15" s="37" t="s">
+        <v>184</v>
+      </c>
+      <c r="F15" s="36">
+        <v>5</v>
+      </c>
+      <c r="G15" s="54">
         <v>3</v>
       </c>
-      <c r="I10" s="56">
-        <f>SUM(G10+H10)</f>
+      <c r="H15" s="54">
+        <v>3</v>
+      </c>
+      <c r="I15" s="54">
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="J10" s="26"/>
-      <c r="L10" t="s">
+      <c r="J15" s="25"/>
+    </row>
+    <row r="16" spans="2:15">
+      <c r="B16" s="26" t="s">
+        <v>124</v>
+      </c>
+      <c r="C16" s="37" t="s">
+        <v>187</v>
+      </c>
+      <c r="D16" s="42">
+        <v>13</v>
+      </c>
+      <c r="E16" s="24" t="s">
+        <v>185</v>
+      </c>
+      <c r="F16" s="36">
+        <v>5</v>
+      </c>
+      <c r="G16" s="54">
+        <v>3</v>
+      </c>
+      <c r="H16" s="54">
+        <v>3</v>
+      </c>
+      <c r="I16" s="54">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="J16" s="25"/>
+      <c r="L16" s="24" t="s">
+        <v>210</v>
+      </c>
+      <c r="M16" s="62">
+        <v>0.41</v>
+      </c>
+    </row>
+    <row r="17" spans="2:14">
+      <c r="B17" s="30" t="s">
+        <v>132</v>
+      </c>
+      <c r="C17" s="37" t="s">
+        <v>187</v>
+      </c>
+      <c r="D17" s="42">
+        <v>16</v>
+      </c>
+      <c r="E17" s="37" t="s">
+        <v>186</v>
+      </c>
+      <c r="F17" s="36">
+        <v>5</v>
+      </c>
+      <c r="G17" s="54">
+        <v>2</v>
+      </c>
+      <c r="H17" s="54">
+        <v>3</v>
+      </c>
+      <c r="I17" s="54">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="J17" s="25"/>
+      <c r="L17" s="24" t="s">
+        <v>211</v>
+      </c>
+      <c r="M17" s="62">
+        <v>0.36</v>
+      </c>
+    </row>
+    <row r="18" spans="2:14">
+      <c r="B18" s="30" t="s">
+        <v>164</v>
+      </c>
+      <c r="C18" s="37" t="s">
+        <v>187</v>
+      </c>
+      <c r="D18" s="42">
+        <v>17</v>
+      </c>
+      <c r="E18" s="37" t="s">
+        <v>186</v>
+      </c>
+      <c r="F18" s="36">
+        <v>5</v>
+      </c>
+      <c r="G18" s="54">
+        <v>2</v>
+      </c>
+      <c r="H18" s="54">
+        <v>3</v>
+      </c>
+      <c r="I18" s="54">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="J18" s="54"/>
+      <c r="L18" s="60" t="s">
+        <v>212</v>
+      </c>
+      <c r="M18" s="62">
+        <v>0.22</v>
+      </c>
+    </row>
+    <row r="19" spans="2:14">
+      <c r="B19" s="26" t="s">
+        <v>113</v>
+      </c>
+      <c r="C19" s="37" t="s">
+        <v>187</v>
+      </c>
+      <c r="D19" s="42">
+        <v>23</v>
+      </c>
+      <c r="E19" s="37" t="s">
+        <v>184</v>
+      </c>
+      <c r="F19" s="36">
+        <v>5</v>
+      </c>
+      <c r="G19" s="54">
+        <v>2</v>
+      </c>
+      <c r="H19" s="54">
+        <v>3</v>
+      </c>
+      <c r="I19" s="54">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="J19" s="59"/>
+      <c r="L19" s="24" t="s">
         <v>213</v>
       </c>
-    </row>
-    <row r="11" spans="2:14">
-      <c r="B11" s="31" t="s">
-        <v>168</v>
-      </c>
-      <c r="C11" s="39" t="s">
-        <v>201</v>
-      </c>
-      <c r="D11" s="44">
-        <v>15</v>
-      </c>
-      <c r="E11" s="39" t="s">
-        <v>197</v>
-      </c>
-      <c r="F11" s="37">
-        <v>4</v>
-      </c>
-      <c r="G11" s="56">
+      <c r="M19" s="62">
+        <v>0.22</v>
+      </c>
+    </row>
+    <row r="20" spans="2:14">
+      <c r="B20" s="30" t="s">
+        <v>167</v>
+      </c>
+      <c r="C20" s="37" t="s">
+        <v>187</v>
+      </c>
+      <c r="D20" s="42">
+        <v>24</v>
+      </c>
+      <c r="E20" s="37" t="s">
+        <v>186</v>
+      </c>
+      <c r="F20" s="36">
+        <v>5</v>
+      </c>
+      <c r="G20" s="54">
+        <v>2</v>
+      </c>
+      <c r="H20" s="54">
         <v>3</v>
       </c>
-      <c r="H11" s="56">
+      <c r="I20" s="54">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="J20" s="25"/>
+      <c r="L20" s="24" t="s">
+        <v>214</v>
+      </c>
+      <c r="M20" s="62">
+        <v>0.22</v>
+      </c>
+    </row>
+    <row r="21" spans="2:14">
+      <c r="B21" s="26" t="s">
+        <v>112</v>
+      </c>
+      <c r="C21" s="37" t="s">
+        <v>187</v>
+      </c>
+      <c r="D21" s="42">
+        <v>25</v>
+      </c>
+      <c r="E21" s="37" t="s">
+        <v>184</v>
+      </c>
+      <c r="F21" s="36">
+        <v>5</v>
+      </c>
+      <c r="G21" s="54">
+        <v>2</v>
+      </c>
+      <c r="H21" s="54">
         <v>3</v>
       </c>
-      <c r="I11" s="56">
-        <f>SUM(G11+H11)</f>
-        <v>6</v>
-      </c>
-      <c r="J11" s="26"/>
-      <c r="L11" s="36" t="s">
-        <v>214</v>
-      </c>
-      <c r="M11" s="36" t="s">
+      <c r="I21" s="54">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="J21" s="25"/>
+      <c r="L21" s="24" t="s">
         <v>215</v>
       </c>
-    </row>
-    <row r="12" spans="2:14">
-      <c r="B12" s="27" t="s">
-        <v>119</v>
-      </c>
-      <c r="C12" s="39" t="s">
-        <v>201</v>
-      </c>
-      <c r="D12" s="44">
-        <v>18</v>
-      </c>
-      <c r="E12" s="39" t="s">
-        <v>198</v>
-      </c>
-      <c r="F12" s="37">
-        <v>4</v>
-      </c>
-      <c r="G12" s="56">
-        <v>2</v>
-      </c>
-      <c r="H12" s="56">
-        <v>3</v>
-      </c>
-      <c r="I12" s="56">
-        <f>SUM(G12+H12)</f>
-        <v>5</v>
-      </c>
-      <c r="J12" s="56"/>
-      <c r="M12" s="36" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="13" spans="2:14">
-      <c r="B13" s="27" t="s">
-        <v>120</v>
-      </c>
-      <c r="C13" s="39" t="s">
-        <v>201</v>
-      </c>
-      <c r="D13" s="44">
-        <v>19</v>
-      </c>
-      <c r="E13" s="39" t="s">
-        <v>198</v>
-      </c>
-      <c r="F13" s="37">
-        <v>4</v>
-      </c>
-      <c r="G13" s="56">
-        <v>2</v>
-      </c>
-      <c r="H13" s="56">
-        <v>3</v>
-      </c>
-      <c r="I13" s="56">
-        <f>SUM(G13+H13)</f>
-        <v>5</v>
-      </c>
-      <c r="J13" s="56"/>
-      <c r="M13" s="36" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="14" spans="2:14">
-      <c r="B14" s="27" t="s">
-        <v>137</v>
-      </c>
-      <c r="C14" s="39" t="s">
-        <v>201</v>
-      </c>
-      <c r="D14" s="44">
-        <v>26</v>
-      </c>
-      <c r="E14" s="25" t="s">
-        <v>199</v>
-      </c>
-      <c r="F14" s="37">
-        <v>4</v>
-      </c>
-      <c r="G14" s="56">
-        <v>2</v>
-      </c>
-      <c r="H14" s="56">
-        <v>3</v>
-      </c>
-      <c r="I14" s="56">
-        <f>SUM(G14+H14)</f>
-        <v>5</v>
-      </c>
-      <c r="J14" s="26"/>
-      <c r="M14" s="36" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="15" spans="2:14">
-      <c r="B15" s="27" t="s">
-        <v>122</v>
-      </c>
-      <c r="C15" s="39" t="s">
-        <v>201</v>
-      </c>
-      <c r="D15" s="44">
-        <v>12</v>
-      </c>
-      <c r="E15" s="39" t="s">
-        <v>198</v>
-      </c>
-      <c r="F15" s="37">
-        <v>5</v>
-      </c>
-      <c r="G15" s="56">
-        <v>3</v>
-      </c>
-      <c r="H15" s="56">
-        <v>3</v>
-      </c>
-      <c r="I15" s="56">
-        <f>SUM(G15+H15)</f>
-        <v>6</v>
-      </c>
-      <c r="J15" s="26"/>
-    </row>
-    <row r="16" spans="2:14">
-      <c r="B16" s="27" t="s">
-        <v>138</v>
-      </c>
-      <c r="C16" s="39" t="s">
-        <v>201</v>
-      </c>
-      <c r="D16" s="44">
-        <v>13</v>
-      </c>
-      <c r="E16" s="25" t="s">
-        <v>199</v>
-      </c>
-      <c r="F16" s="37">
-        <v>5</v>
-      </c>
-      <c r="G16" s="56">
-        <v>3</v>
-      </c>
-      <c r="H16" s="56">
-        <v>3</v>
-      </c>
-      <c r="I16" s="56">
-        <f>SUM(G16+H16)</f>
-        <v>6</v>
-      </c>
-      <c r="J16" s="26"/>
-      <c r="L16" s="25" t="s">
-        <v>224</v>
-      </c>
-      <c r="M16" s="66">
-        <v>0.41</v>
-      </c>
-    </row>
-    <row r="17" spans="2:14">
-      <c r="B17" s="31" t="s">
-        <v>146</v>
-      </c>
-      <c r="C17" s="39" t="s">
-        <v>201</v>
-      </c>
-      <c r="D17" s="44">
-        <v>16</v>
-      </c>
-      <c r="E17" s="39" t="s">
-        <v>200</v>
-      </c>
-      <c r="F17" s="37">
-        <v>5</v>
-      </c>
-      <c r="G17" s="56">
-        <v>2</v>
-      </c>
-      <c r="H17" s="56">
-        <v>3</v>
-      </c>
-      <c r="I17" s="56">
-        <f>SUM(G17+H17)</f>
-        <v>5</v>
-      </c>
-      <c r="J17" s="26"/>
-      <c r="L17" s="25" t="s">
-        <v>225</v>
-      </c>
-      <c r="M17" s="66">
-        <v>0.36</v>
-      </c>
-    </row>
-    <row r="18" spans="2:14">
-      <c r="B18" s="31" t="s">
-        <v>178</v>
-      </c>
-      <c r="C18" s="39" t="s">
-        <v>201</v>
-      </c>
-      <c r="D18" s="44">
-        <v>17</v>
-      </c>
-      <c r="E18" s="39" t="s">
-        <v>200</v>
-      </c>
-      <c r="F18" s="37">
-        <v>5</v>
-      </c>
-      <c r="G18" s="56">
-        <v>2</v>
-      </c>
-      <c r="H18" s="56">
-        <v>3</v>
-      </c>
-      <c r="I18" s="56">
-        <f>SUM(G18+H18)</f>
-        <v>5</v>
-      </c>
-      <c r="J18" s="56"/>
-      <c r="L18" s="64" t="s">
-        <v>226</v>
-      </c>
-      <c r="M18" s="66">
-        <v>0.22</v>
-      </c>
-    </row>
-    <row r="19" spans="2:14">
-      <c r="B19" s="27" t="s">
-        <v>127</v>
-      </c>
-      <c r="C19" s="39" t="s">
-        <v>201</v>
-      </c>
-      <c r="D19" s="44">
-        <v>23</v>
-      </c>
-      <c r="E19" s="39" t="s">
-        <v>198</v>
-      </c>
-      <c r="F19" s="37">
-        <v>5</v>
-      </c>
-      <c r="G19" s="56">
-        <v>2</v>
-      </c>
-      <c r="H19" s="56">
-        <v>3</v>
-      </c>
-      <c r="I19" s="56">
-        <f>SUM(G19+H19)</f>
-        <v>5</v>
-      </c>
-      <c r="J19" s="61"/>
-      <c r="L19" s="25" t="s">
-        <v>227</v>
-      </c>
-      <c r="M19" s="66">
-        <v>0.22</v>
-      </c>
-    </row>
-    <row r="20" spans="2:14">
-      <c r="B20" s="31" t="s">
-        <v>181</v>
-      </c>
-      <c r="C20" s="39" t="s">
-        <v>201</v>
-      </c>
-      <c r="D20" s="44">
-        <v>24</v>
-      </c>
-      <c r="E20" s="39" t="s">
-        <v>200</v>
-      </c>
-      <c r="F20" s="37">
-        <v>5</v>
-      </c>
-      <c r="G20" s="56">
-        <v>2</v>
-      </c>
-      <c r="H20" s="56">
-        <v>3</v>
-      </c>
-      <c r="I20" s="56">
-        <f>SUM(G20+H20)</f>
-        <v>5</v>
-      </c>
-      <c r="J20" s="26"/>
-      <c r="L20" s="25" t="s">
-        <v>228</v>
-      </c>
-      <c r="M20" s="66">
-        <v>0.22</v>
-      </c>
-    </row>
-    <row r="21" spans="2:14">
-      <c r="B21" s="27" t="s">
-        <v>126</v>
-      </c>
-      <c r="C21" s="39" t="s">
-        <v>201</v>
-      </c>
-      <c r="D21" s="44">
-        <v>25</v>
-      </c>
-      <c r="E21" s="39" t="s">
-        <v>198</v>
-      </c>
-      <c r="F21" s="37">
-        <v>5</v>
-      </c>
-      <c r="G21" s="56">
-        <v>2</v>
-      </c>
-      <c r="H21" s="56">
-        <v>3</v>
-      </c>
-      <c r="I21" s="56">
-        <f>SUM(G21+H21)</f>
-        <v>5</v>
-      </c>
-      <c r="J21" s="26"/>
-      <c r="L21" s="25" t="s">
-        <v>229</v>
-      </c>
-      <c r="M21" s="37">
+      <c r="M21" s="36">
         <f>SUM(M16:M20)</f>
         <v>1.43</v>
       </c>
     </row>
     <row r="22" spans="2:14">
-      <c r="B22" s="27" t="s">
-        <v>131</v>
-      </c>
-      <c r="C22" s="39" t="s">
-        <v>202</v>
-      </c>
-      <c r="D22" s="45">
+      <c r="B22" s="26" t="s">
+        <v>117</v>
+      </c>
+      <c r="C22" s="37" t="s">
+        <v>188</v>
+      </c>
+      <c r="D22" s="43">
         <v>26</v>
       </c>
-      <c r="E22" s="39" t="s">
-        <v>198</v>
-      </c>
-      <c r="F22" s="37">
+      <c r="E22" s="37" t="s">
+        <v>184</v>
+      </c>
+      <c r="F22" s="36">
         <v>5</v>
       </c>
-      <c r="G22" s="56">
+      <c r="G22" s="54">
         <v>4</v>
       </c>
-      <c r="H22" s="56">
+      <c r="H22" s="54">
         <v>4</v>
       </c>
-      <c r="I22" s="56">
-        <f>SUM(G22+H22)</f>
+      <c r="I22" s="54">
+        <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="J22" s="26"/>
+      <c r="J22" s="25"/>
     </row>
     <row r="23" spans="2:14">
-      <c r="B23" s="27" t="s">
-        <v>136</v>
-      </c>
-      <c r="C23" s="42" t="s">
-        <v>202</v>
-      </c>
-      <c r="D23" s="44">
+      <c r="B23" s="26" t="s">
+        <v>122</v>
+      </c>
+      <c r="C23" s="40" t="s">
+        <v>188</v>
+      </c>
+      <c r="D23" s="42">
         <v>27</v>
       </c>
-      <c r="E23" s="25" t="s">
-        <v>199</v>
-      </c>
-      <c r="F23" s="37">
+      <c r="E23" s="24" t="s">
+        <v>185</v>
+      </c>
+      <c r="F23" s="36">
         <v>5</v>
       </c>
-      <c r="G23" s="56">
+      <c r="G23" s="54">
         <v>4</v>
       </c>
-      <c r="H23" s="56">
+      <c r="H23" s="54">
         <v>4</v>
       </c>
-      <c r="I23" s="56">
-        <f>SUM(G23+H23)</f>
+      <c r="I23" s="54">
+        <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="J23" s="26"/>
+      <c r="J23" s="25"/>
     </row>
     <row r="24" spans="2:14">
-      <c r="B24" s="31" t="s">
-        <v>189</v>
-      </c>
-      <c r="C24" s="39" t="s">
-        <v>201</v>
-      </c>
-      <c r="D24" s="44">
+      <c r="B24" s="30" t="s">
+        <v>175</v>
+      </c>
+      <c r="C24" s="37" t="s">
+        <v>187</v>
+      </c>
+      <c r="D24" s="42">
         <v>4</v>
       </c>
-      <c r="E24" s="39" t="s">
-        <v>196</v>
-      </c>
-      <c r="F24" s="37">
+      <c r="E24" s="37" t="s">
+        <v>182</v>
+      </c>
+      <c r="F24" s="36">
         <v>6</v>
       </c>
-      <c r="G24" s="56">
+      <c r="G24" s="54">
         <v>3</v>
       </c>
-      <c r="H24" s="56">
+      <c r="H24" s="54">
         <v>4</v>
       </c>
-      <c r="I24" s="56">
-        <f>SUM(G24+H24)</f>
+      <c r="I24" s="54">
+        <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="J24" s="26"/>
-      <c r="L24" s="38" t="s">
-        <v>230</v>
+      <c r="J24" s="25"/>
+      <c r="L24" s="65" t="s">
+        <v>216</v>
       </c>
       <c r="M24" s="36">
         <f>COUNTIF(H:H,2)</f>
         <v>5</v>
       </c>
+      <c r="N24" s="24"/>
     </row>
     <row r="25" spans="2:14">
-      <c r="B25" s="31" t="s">
-        <v>159</v>
-      </c>
-      <c r="C25" s="39" t="s">
-        <v>201</v>
-      </c>
-      <c r="D25" s="44">
+      <c r="B25" s="30" t="s">
+        <v>145</v>
+      </c>
+      <c r="C25" s="37" t="s">
+        <v>187</v>
+      </c>
+      <c r="D25" s="42">
         <v>5</v>
       </c>
-      <c r="E25" s="39" t="s">
-        <v>196</v>
-      </c>
-      <c r="F25" s="37">
+      <c r="E25" s="37" t="s">
+        <v>182</v>
+      </c>
+      <c r="F25" s="36">
         <v>6</v>
       </c>
-      <c r="G25" s="56">
+      <c r="G25" s="54">
         <v>3</v>
       </c>
-      <c r="H25" s="56">
+      <c r="H25" s="54">
         <v>4</v>
       </c>
-      <c r="I25" s="56">
-        <f>SUM(G25+H25)</f>
+      <c r="I25" s="54">
+        <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="J25" s="26"/>
-      <c r="L25" s="67" t="s">
-        <v>231</v>
+      <c r="J25" s="25"/>
+      <c r="L25" s="60" t="s">
+        <v>217</v>
       </c>
       <c r="M25" s="36">
         <f>COUNTIF(H:H,3)</f>
         <v>15</v>
       </c>
+      <c r="N25" s="24"/>
     </row>
     <row r="26" spans="2:14">
-      <c r="B26" s="31" t="s">
-        <v>167</v>
-      </c>
-      <c r="C26" s="39" t="s">
-        <v>201</v>
-      </c>
-      <c r="D26" s="44">
+      <c r="B26" s="30" t="s">
+        <v>153</v>
+      </c>
+      <c r="C26" s="37" t="s">
+        <v>187</v>
+      </c>
+      <c r="D26" s="42">
         <v>10</v>
       </c>
-      <c r="E26" s="39" t="s">
-        <v>197</v>
-      </c>
-      <c r="F26" s="37">
+      <c r="E26" s="37" t="s">
+        <v>183</v>
+      </c>
+      <c r="F26" s="36">
         <v>6</v>
       </c>
-      <c r="G26" s="56">
+      <c r="G26" s="54">
         <v>3</v>
       </c>
-      <c r="H26" s="56">
+      <c r="H26" s="54">
         <v>4</v>
       </c>
-      <c r="I26" s="56">
-        <f>SUM(G26+H26)</f>
+      <c r="I26" s="54">
+        <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="J26" s="26"/>
-      <c r="L26" s="68" t="s">
-        <v>232</v>
+      <c r="J26" s="25"/>
+      <c r="L26" s="60" t="s">
+        <v>218</v>
       </c>
       <c r="M26" s="36">
         <f>COUNTIF(H:H,4)</f>
         <v>16</v>
       </c>
+      <c r="N26" s="24"/>
     </row>
     <row r="27" spans="2:14">
-      <c r="B27" s="31" t="s">
-        <v>180</v>
-      </c>
-      <c r="C27" s="39" t="s">
-        <v>201</v>
-      </c>
-      <c r="D27" s="44">
+      <c r="B27" s="30" t="s">
+        <v>166</v>
+      </c>
+      <c r="C27" s="37" t="s">
+        <v>187</v>
+      </c>
+      <c r="D27" s="42">
         <v>11</v>
       </c>
-      <c r="E27" s="39" t="s">
-        <v>200</v>
-      </c>
-      <c r="F27" s="37">
+      <c r="E27" s="37" t="s">
+        <v>186</v>
+      </c>
+      <c r="F27" s="36">
         <v>6</v>
       </c>
-      <c r="G27" s="56">
+      <c r="G27" s="54">
         <v>3</v>
       </c>
-      <c r="H27" s="56">
+      <c r="H27" s="54">
         <v>4</v>
       </c>
-      <c r="I27" s="56">
-        <f>SUM(G27+H27)</f>
+      <c r="I27" s="54">
+        <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="J27" s="26"/>
-      <c r="L27" s="68" t="s">
-        <v>233</v>
+      <c r="J27" s="25"/>
+      <c r="L27" s="60" t="s">
+        <v>219</v>
       </c>
       <c r="M27" s="36">
         <f>COUNTIF(H:H,5)</f>
         <v>16</v>
       </c>
+      <c r="N27" s="24"/>
     </row>
     <row r="28" spans="2:14">
-      <c r="B28" s="31" t="s">
-        <v>150</v>
-      </c>
-      <c r="C28" s="39" t="s">
-        <v>202</v>
-      </c>
-      <c r="D28" s="45">
+      <c r="B28" s="30" t="s">
+        <v>136</v>
+      </c>
+      <c r="C28" s="37" t="s">
+        <v>188</v>
+      </c>
+      <c r="D28" s="43">
         <v>24</v>
       </c>
-      <c r="E28" s="39" t="s">
-        <v>198</v>
-      </c>
-      <c r="F28" s="37">
+      <c r="E28" s="37" t="s">
+        <v>184</v>
+      </c>
+      <c r="F28" s="36">
         <v>6</v>
       </c>
-      <c r="G28" s="56">
+      <c r="G28" s="54">
         <v>4</v>
       </c>
-      <c r="H28" s="56">
+      <c r="H28" s="54">
         <v>4</v>
       </c>
-      <c r="I28" s="56">
-        <f>SUM(G28+H28)</f>
+      <c r="I28" s="54">
+        <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="J28" s="26"/>
-      <c r="L28" s="68" t="s">
-        <v>234</v>
+      <c r="J28" s="25"/>
+      <c r="L28" s="60" t="s">
+        <v>220</v>
       </c>
       <c r="M28" s="36">
         <f>COUNTIF(H:H,6)</f>
         <v>10</v>
       </c>
-      <c r="N28" s="69">
+      <c r="N28" s="66">
         <v>0.57999999999999996</v>
       </c>
     </row>
     <row r="29" spans="2:14">
-      <c r="B29" s="27" t="s">
-        <v>132</v>
-      </c>
-      <c r="C29" s="39" t="s">
-        <v>202</v>
-      </c>
-      <c r="D29" s="45">
+      <c r="B29" s="26" t="s">
+        <v>118</v>
+      </c>
+      <c r="C29" s="37" t="s">
+        <v>188</v>
+      </c>
+      <c r="D29" s="43">
         <v>25</v>
       </c>
-      <c r="E29" s="39" t="s">
-        <v>198</v>
-      </c>
-      <c r="F29" s="37">
+      <c r="E29" s="37" t="s">
+        <v>184</v>
+      </c>
+      <c r="F29" s="36">
         <v>6</v>
       </c>
-      <c r="G29" s="56">
+      <c r="G29" s="54">
         <v>4</v>
       </c>
-      <c r="H29" s="56">
+      <c r="H29" s="54">
         <v>4</v>
       </c>
-      <c r="I29" s="56">
-        <f>SUM(G29+H29)</f>
+      <c r="I29" s="54">
+        <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="J29" s="26"/>
-      <c r="L29" s="68" t="s">
-        <v>235</v>
+      <c r="J29" s="25"/>
+      <c r="L29" s="60" t="s">
+        <v>221</v>
       </c>
       <c r="M29" s="36">
         <f>COUNTIF(H:H,7)</f>
         <v>6</v>
       </c>
-      <c r="N29" s="69">
+      <c r="N29" s="66">
         <v>0.5</v>
       </c>
     </row>
     <row r="30" spans="2:14">
-      <c r="B30" s="31" t="s">
-        <v>190</v>
-      </c>
-      <c r="C30" s="52" t="s">
-        <v>201</v>
-      </c>
-      <c r="D30" s="53">
+      <c r="B30" s="30" t="s">
+        <v>176</v>
+      </c>
+      <c r="C30" s="50" t="s">
+        <v>187</v>
+      </c>
+      <c r="D30" s="51">
         <v>1</v>
       </c>
-      <c r="E30" s="52" t="s">
-        <v>196</v>
-      </c>
-      <c r="F30" s="59">
+      <c r="E30" s="50" t="s">
+        <v>182</v>
+      </c>
+      <c r="F30" s="57">
         <v>7</v>
       </c>
-      <c r="G30" s="57">
+      <c r="G30" s="55">
         <v>3</v>
       </c>
-      <c r="H30" s="57">
+      <c r="H30" s="55">
         <v>4</v>
       </c>
-      <c r="I30" s="56">
-        <f>SUM(G30+H30)</f>
+      <c r="I30" s="54">
+        <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="J30" s="26"/>
-      <c r="L30" s="68" t="s">
-        <v>236</v>
+      <c r="J30" s="25"/>
+      <c r="L30" s="60" t="s">
+        <v>222</v>
       </c>
       <c r="M30" s="36">
         <f>COUNTIF(H:H,8)</f>
         <v>5</v>
       </c>
-      <c r="N30" s="69">
+      <c r="N30" s="66">
         <v>0.41</v>
       </c>
     </row>
     <row r="31" spans="2:14">
-      <c r="B31" s="27" t="s">
-        <v>140</v>
-      </c>
-      <c r="C31" s="39" t="s">
-        <v>201</v>
-      </c>
-      <c r="D31" s="44">
+      <c r="B31" s="26" t="s">
+        <v>126</v>
+      </c>
+      <c r="C31" s="37" t="s">
+        <v>187</v>
+      </c>
+      <c r="D31" s="42">
         <v>3</v>
       </c>
-      <c r="E31" s="25" t="s">
-        <v>199</v>
-      </c>
-      <c r="F31" s="37">
+      <c r="E31" s="24" t="s">
+        <v>185</v>
+      </c>
+      <c r="F31" s="36">
         <v>7</v>
       </c>
-      <c r="G31" s="56">
+      <c r="G31" s="54">
         <v>3</v>
       </c>
-      <c r="H31" s="56">
+      <c r="H31" s="54">
         <v>4</v>
       </c>
-      <c r="I31" s="56">
-        <f>SUM(G31+H31)</f>
+      <c r="I31" s="54">
+        <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="J31" s="26"/>
-      <c r="L31" s="68" t="s">
-        <v>237</v>
+      <c r="J31" s="25"/>
+      <c r="L31" s="60" t="s">
+        <v>223</v>
       </c>
       <c r="M31" s="36">
         <f>COUNTIF(H:H,9)</f>
         <v>2</v>
       </c>
-      <c r="N31" s="69">
+      <c r="N31" s="66">
         <v>0.33</v>
       </c>
     </row>
     <row r="32" spans="2:14">
-      <c r="B32" s="27" t="s">
-        <v>139</v>
-      </c>
-      <c r="C32" s="39" t="s">
-        <v>201</v>
-      </c>
-      <c r="D32" s="44">
+      <c r="B32" s="26" t="s">
+        <v>125</v>
+      </c>
+      <c r="C32" s="37" t="s">
+        <v>187</v>
+      </c>
+      <c r="D32" s="42">
         <v>8</v>
       </c>
-      <c r="E32" s="25" t="s">
-        <v>199</v>
-      </c>
-      <c r="F32" s="37">
+      <c r="E32" s="24" t="s">
+        <v>185</v>
+      </c>
+      <c r="F32" s="36">
         <v>7</v>
       </c>
-      <c r="G32" s="56">
+      <c r="G32" s="54">
         <v>3</v>
       </c>
-      <c r="H32" s="56">
+      <c r="H32" s="54">
         <v>4</v>
       </c>
-      <c r="I32" s="56">
-        <f>SUM(G32+H32)</f>
+      <c r="I32" s="54">
+        <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="J32" s="56"/>
+      <c r="J32" s="54"/>
     </row>
     <row r="33" spans="2:10">
-      <c r="B33" s="31" t="s">
+      <c r="B33" s="30" t="s">
+        <v>133</v>
+      </c>
+      <c r="C33" s="37" t="s">
+        <v>187</v>
+      </c>
+      <c r="D33" s="42">
+        <v>9</v>
+      </c>
+      <c r="E33" s="37" t="s">
+        <v>184</v>
+      </c>
+      <c r="F33" s="36">
+        <v>7</v>
+      </c>
+      <c r="G33" s="54">
+        <v>3</v>
+      </c>
+      <c r="H33" s="54">
+        <v>4</v>
+      </c>
+      <c r="I33" s="54">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="J33" s="25"/>
+    </row>
+    <row r="34" spans="2:10">
+      <c r="B34" s="26" t="s">
+        <v>127</v>
+      </c>
+      <c r="C34" s="40" t="s">
+        <v>188</v>
+      </c>
+      <c r="D34" s="42">
+        <v>22</v>
+      </c>
+      <c r="E34" s="24" t="s">
+        <v>185</v>
+      </c>
+      <c r="F34" s="36">
+        <v>7</v>
+      </c>
+      <c r="G34" s="54">
+        <v>4</v>
+      </c>
+      <c r="H34" s="54">
+        <v>5</v>
+      </c>
+      <c r="I34" s="54">
+        <f t="shared" ref="I34:I65" si="1">SUM(G34+H34)</f>
+        <v>9</v>
+      </c>
+      <c r="J34" s="25"/>
+    </row>
+    <row r="35" spans="2:10">
+      <c r="B35" s="26" t="s">
+        <v>119</v>
+      </c>
+      <c r="C35" s="37" t="s">
+        <v>188</v>
+      </c>
+      <c r="D35" s="43">
+        <v>23</v>
+      </c>
+      <c r="E35" s="37" t="s">
+        <v>184</v>
+      </c>
+      <c r="F35" s="36">
+        <v>7</v>
+      </c>
+      <c r="G35" s="54">
+        <v>4</v>
+      </c>
+      <c r="H35" s="54">
+        <v>4</v>
+      </c>
+      <c r="I35" s="54">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="J35" s="25"/>
+    </row>
+    <row r="36" spans="2:10">
+      <c r="B36" s="30" t="s">
+        <v>144</v>
+      </c>
+      <c r="C36" s="37" t="s">
+        <v>187</v>
+      </c>
+      <c r="D36" s="42">
+        <v>2</v>
+      </c>
+      <c r="E36" s="37" t="s">
+        <v>182</v>
+      </c>
+      <c r="F36" s="36">
+        <v>8</v>
+      </c>
+      <c r="G36" s="54">
+        <v>3</v>
+      </c>
+      <c r="H36" s="54">
+        <v>4</v>
+      </c>
+      <c r="I36" s="54">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
+      <c r="J36" s="25"/>
+    </row>
+    <row r="37" spans="2:10">
+      <c r="B37" s="30" t="s">
+        <v>155</v>
+      </c>
+      <c r="C37" s="37" t="s">
+        <v>187</v>
+      </c>
+      <c r="D37" s="42">
+        <v>6</v>
+      </c>
+      <c r="E37" s="37" t="s">
+        <v>183</v>
+      </c>
+      <c r="F37" s="36">
+        <v>8</v>
+      </c>
+      <c r="G37" s="54">
+        <v>3</v>
+      </c>
+      <c r="H37" s="54">
+        <v>4</v>
+      </c>
+      <c r="I37" s="54">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
+      <c r="J37" s="54"/>
+    </row>
+    <row r="38" spans="2:10">
+      <c r="B38" s="30" t="s">
+        <v>163</v>
+      </c>
+      <c r="C38" s="37" t="s">
+        <v>187</v>
+      </c>
+      <c r="D38" s="42">
+        <v>7</v>
+      </c>
+      <c r="E38" s="37" t="s">
+        <v>183</v>
+      </c>
+      <c r="F38" s="36">
+        <v>8</v>
+      </c>
+      <c r="G38" s="54">
+        <v>3</v>
+      </c>
+      <c r="H38" s="54">
+        <v>4</v>
+      </c>
+      <c r="I38" s="54">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
+      <c r="J38" s="54"/>
+    </row>
+    <row r="39" spans="2:10">
+      <c r="B39" s="26" t="s">
+        <v>111</v>
+      </c>
+      <c r="C39" s="37" t="s">
+        <v>188</v>
+      </c>
+      <c r="D39" s="43">
+        <v>16</v>
+      </c>
+      <c r="E39" s="37" t="s">
+        <v>184</v>
+      </c>
+      <c r="F39" s="36">
+        <v>8</v>
+      </c>
+      <c r="G39" s="54">
+        <v>4</v>
+      </c>
+      <c r="H39" s="54">
+        <v>5</v>
+      </c>
+      <c r="I39" s="54">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+      <c r="J39" s="25"/>
+    </row>
+    <row r="40" spans="2:10">
+      <c r="B40" s="30" t="s">
+        <v>157</v>
+      </c>
+      <c r="C40" s="37" t="s">
+        <v>188</v>
+      </c>
+      <c r="D40" s="43">
+        <v>17</v>
+      </c>
+      <c r="E40" s="37" t="s">
+        <v>183</v>
+      </c>
+      <c r="F40" s="36">
+        <v>8</v>
+      </c>
+      <c r="G40" s="54">
+        <v>4</v>
+      </c>
+      <c r="H40" s="54">
+        <v>5</v>
+      </c>
+      <c r="I40" s="54">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+      <c r="J40" s="25"/>
+    </row>
+    <row r="41" spans="2:10">
+      <c r="B41" s="26" t="s">
+        <v>128</v>
+      </c>
+      <c r="C41" s="37" t="s">
+        <v>188</v>
+      </c>
+      <c r="D41" s="43">
+        <v>20</v>
+      </c>
+      <c r="E41" s="24" t="s">
+        <v>185</v>
+      </c>
+      <c r="F41" s="36">
+        <v>8</v>
+      </c>
+      <c r="G41" s="54">
+        <v>4</v>
+      </c>
+      <c r="H41" s="54">
+        <v>5</v>
+      </c>
+      <c r="I41" s="54">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+      <c r="J41" s="25"/>
+    </row>
+    <row r="42" spans="2:10">
+      <c r="B42" s="26" t="s">
+        <v>110</v>
+      </c>
+      <c r="C42" s="37" t="s">
+        <v>188</v>
+      </c>
+      <c r="D42" s="43">
+        <v>21</v>
+      </c>
+      <c r="E42" s="37" t="s">
+        <v>184</v>
+      </c>
+      <c r="F42" s="36">
+        <v>8</v>
+      </c>
+      <c r="G42" s="54">
+        <v>4</v>
+      </c>
+      <c r="H42" s="54">
+        <v>5</v>
+      </c>
+      <c r="I42" s="54">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+      <c r="J42" s="25"/>
+    </row>
+    <row r="43" spans="2:10">
+      <c r="B43" s="30" t="s">
+        <v>165</v>
+      </c>
+      <c r="C43" s="37" t="s">
+        <v>188</v>
+      </c>
+      <c r="D43" s="43">
+        <v>13</v>
+      </c>
+      <c r="E43" s="37" t="s">
+        <v>186</v>
+      </c>
+      <c r="F43" s="36">
+        <v>9</v>
+      </c>
+      <c r="G43" s="54">
+        <v>4</v>
+      </c>
+      <c r="H43" s="54">
+        <v>5</v>
+      </c>
+      <c r="I43" s="54">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+      <c r="J43" s="25"/>
+    </row>
+    <row r="44" spans="2:10">
+      <c r="B44" s="30" t="s">
+        <v>146</v>
+      </c>
+      <c r="C44" s="37" t="s">
+        <v>188</v>
+      </c>
+      <c r="D44" s="43">
+        <v>14</v>
+      </c>
+      <c r="E44" s="37" t="s">
+        <v>182</v>
+      </c>
+      <c r="F44" s="36">
+        <v>9</v>
+      </c>
+      <c r="G44" s="54">
+        <v>4</v>
+      </c>
+      <c r="H44" s="54">
+        <v>5</v>
+      </c>
+      <c r="I44" s="54">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+      <c r="J44" s="25"/>
+    </row>
+    <row r="45" spans="2:10">
+      <c r="B45" s="30" t="s">
         <v>147</v>
       </c>
-      <c r="C33" s="39" t="s">
-        <v>201</v>
-      </c>
-      <c r="D33" s="44">
+      <c r="C45" s="37" t="s">
+        <v>188</v>
+      </c>
+      <c r="D45" s="43">
+        <v>15</v>
+      </c>
+      <c r="E45" s="37" t="s">
+        <v>182</v>
+      </c>
+      <c r="F45" s="36">
         <v>9</v>
       </c>
-      <c r="E33" s="39" t="s">
-        <v>198</v>
-      </c>
-      <c r="F33" s="37">
+      <c r="G45" s="54">
+        <v>4</v>
+      </c>
+      <c r="H45" s="54">
+        <v>5</v>
+      </c>
+      <c r="I45" s="54">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+      <c r="J45" s="25"/>
+    </row>
+    <row r="46" spans="2:10">
+      <c r="B46" s="30" t="s">
+        <v>159</v>
+      </c>
+      <c r="C46" s="37" t="s">
+        <v>188</v>
+      </c>
+      <c r="D46" s="43">
+        <v>18</v>
+      </c>
+      <c r="E46" s="37" t="s">
+        <v>183</v>
+      </c>
+      <c r="F46" s="36">
+        <v>9</v>
+      </c>
+      <c r="G46" s="54">
+        <v>4</v>
+      </c>
+      <c r="H46" s="54">
+        <v>5</v>
+      </c>
+      <c r="I46" s="54">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+      <c r="J46" s="25"/>
+    </row>
+    <row r="47" spans="2:10">
+      <c r="B47" s="26" t="s">
+        <v>116</v>
+      </c>
+      <c r="C47" s="37" t="s">
+        <v>188</v>
+      </c>
+      <c r="D47" s="43">
+        <v>19</v>
+      </c>
+      <c r="E47" s="37" t="s">
+        <v>184</v>
+      </c>
+      <c r="F47" s="36">
+        <v>9</v>
+      </c>
+      <c r="G47" s="54">
+        <v>4</v>
+      </c>
+      <c r="H47" s="54">
+        <v>5</v>
+      </c>
+      <c r="I47" s="54">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+      <c r="J47" s="25"/>
+    </row>
+    <row r="48" spans="2:10">
+      <c r="B48" s="26" t="s">
+        <v>129</v>
+      </c>
+      <c r="C48" s="50" t="s">
+        <v>188</v>
+      </c>
+      <c r="D48" s="52">
+        <v>9</v>
+      </c>
+      <c r="E48" s="24" t="s">
+        <v>185</v>
+      </c>
+      <c r="F48" s="57">
+        <v>10</v>
+      </c>
+      <c r="G48" s="55">
+        <v>5</v>
+      </c>
+      <c r="H48" s="55">
+        <v>5</v>
+      </c>
+      <c r="I48" s="54">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+      <c r="J48" s="25"/>
+    </row>
+    <row r="49" spans="2:10">
+      <c r="B49" s="30" t="s">
+        <v>134</v>
+      </c>
+      <c r="C49" s="50" t="s">
+        <v>188</v>
+      </c>
+      <c r="D49" s="52">
+        <v>10</v>
+      </c>
+      <c r="E49" s="37" t="s">
+        <v>184</v>
+      </c>
+      <c r="F49" s="57">
+        <v>10</v>
+      </c>
+      <c r="G49" s="55">
+        <v>5</v>
+      </c>
+      <c r="H49" s="55">
+        <v>5</v>
+      </c>
+      <c r="I49" s="54">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+      <c r="J49" s="25"/>
+    </row>
+    <row r="50" spans="2:10">
+      <c r="B50" s="26" t="s">
+        <v>120</v>
+      </c>
+      <c r="C50" s="37" t="s">
+        <v>188</v>
+      </c>
+      <c r="D50" s="43">
+        <v>11</v>
+      </c>
+      <c r="E50" s="37" t="s">
+        <v>184</v>
+      </c>
+      <c r="F50" s="36">
+        <v>10</v>
+      </c>
+      <c r="G50" s="54">
+        <v>5</v>
+      </c>
+      <c r="H50" s="54">
+        <v>5</v>
+      </c>
+      <c r="I50" s="54">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+      <c r="J50" s="25"/>
+    </row>
+    <row r="51" spans="2:10">
+      <c r="B51" s="30" t="s">
+        <v>158</v>
+      </c>
+      <c r="C51" s="37" t="s">
+        <v>188</v>
+      </c>
+      <c r="D51" s="43">
+        <v>12</v>
+      </c>
+      <c r="E51" s="37" t="s">
+        <v>183</v>
+      </c>
+      <c r="F51" s="36">
+        <v>10</v>
+      </c>
+      <c r="G51" s="54">
+        <v>5</v>
+      </c>
+      <c r="H51" s="54">
+        <v>5</v>
+      </c>
+      <c r="I51" s="54">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+      <c r="J51" s="25"/>
+    </row>
+    <row r="52" spans="2:10">
+      <c r="B52" s="45" t="s">
+        <v>121</v>
+      </c>
+      <c r="C52" s="46" t="s">
+        <v>189</v>
+      </c>
+      <c r="D52" s="47">
+        <v>8</v>
+      </c>
+      <c r="E52" s="46" t="s">
+        <v>184</v>
+      </c>
+      <c r="F52" s="44">
+        <v>10</v>
+      </c>
+      <c r="G52" s="44">
+        <v>6</v>
+      </c>
+      <c r="H52" s="44">
+        <v>6</v>
+      </c>
+      <c r="I52" s="44">
+        <f t="shared" si="1"/>
+        <v>12</v>
+      </c>
+      <c r="J52" s="44"/>
+    </row>
+    <row r="53" spans="2:10">
+      <c r="B53" s="31" t="s">
+        <v>150</v>
+      </c>
+      <c r="C53" s="32" t="s">
+        <v>189</v>
+      </c>
+      <c r="D53" s="44">
+        <v>9</v>
+      </c>
+      <c r="E53" s="32" t="s">
+        <v>182</v>
+      </c>
+      <c r="F53" s="44">
+        <v>10</v>
+      </c>
+      <c r="G53" s="44">
+        <v>6</v>
+      </c>
+      <c r="H53" s="44">
+        <v>6</v>
+      </c>
+      <c r="I53" s="44">
+        <f t="shared" si="1"/>
+        <v>12</v>
+      </c>
+      <c r="J53" s="32"/>
+    </row>
+    <row r="54" spans="2:10">
+      <c r="B54" s="30" t="s">
+        <v>148</v>
+      </c>
+      <c r="C54" s="37" t="s">
+        <v>188</v>
+      </c>
+      <c r="D54" s="43">
         <v>7</v>
       </c>
-      <c r="G33" s="56">
+      <c r="E54" s="37" t="s">
+        <v>182</v>
+      </c>
+      <c r="F54" s="36">
+        <v>11</v>
+      </c>
+      <c r="G54" s="54">
+        <v>5</v>
+      </c>
+      <c r="H54" s="54">
+        <v>5</v>
+      </c>
+      <c r="I54" s="54">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+      <c r="J54" s="25"/>
+    </row>
+    <row r="55" spans="2:10">
+      <c r="B55" s="30" t="s">
+        <v>135</v>
+      </c>
+      <c r="C55" s="37" t="s">
+        <v>188</v>
+      </c>
+      <c r="D55" s="43">
+        <v>8</v>
+      </c>
+      <c r="E55" s="37" t="s">
+        <v>184</v>
+      </c>
+      <c r="F55" s="36">
+        <v>11</v>
+      </c>
+      <c r="G55" s="54">
+        <v>5</v>
+      </c>
+      <c r="H55" s="54">
+        <v>5</v>
+      </c>
+      <c r="I55" s="54">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+      <c r="J55" s="25"/>
+    </row>
+    <row r="56" spans="2:10">
+      <c r="B56" s="31" t="s">
+        <v>195</v>
+      </c>
+      <c r="C56" s="32" t="s">
+        <v>189</v>
+      </c>
+      <c r="D56" s="44">
+        <v>7</v>
+      </c>
+      <c r="E56" s="32" t="s">
+        <v>185</v>
+      </c>
+      <c r="F56" s="44">
+        <v>11</v>
+      </c>
+      <c r="G56" s="44">
+        <v>6</v>
+      </c>
+      <c r="H56" s="44">
+        <v>6</v>
+      </c>
+      <c r="I56" s="44">
+        <f t="shared" si="1"/>
+        <v>12</v>
+      </c>
+      <c r="J56" s="32"/>
+    </row>
+    <row r="57" spans="2:10">
+      <c r="B57" s="31" t="s">
+        <v>171</v>
+      </c>
+      <c r="C57" s="32" t="s">
+        <v>189</v>
+      </c>
+      <c r="D57" s="44">
+        <v>6</v>
+      </c>
+      <c r="E57" s="32" t="s">
+        <v>186</v>
+      </c>
+      <c r="F57" s="44">
+        <v>11</v>
+      </c>
+      <c r="G57" s="44">
+        <v>6</v>
+      </c>
+      <c r="H57" s="44">
+        <v>7</v>
+      </c>
+      <c r="I57" s="44">
+        <f t="shared" si="1"/>
+        <v>13</v>
+      </c>
+      <c r="J57" s="32"/>
+    </row>
+    <row r="58" spans="2:10">
+      <c r="B58" s="30" t="s">
+        <v>168</v>
+      </c>
+      <c r="C58" s="37" t="s">
+        <v>188</v>
+      </c>
+      <c r="D58" s="43">
+        <v>5</v>
+      </c>
+      <c r="E58" s="37" t="s">
+        <v>186</v>
+      </c>
+      <c r="F58" s="57">
+        <v>12</v>
+      </c>
+      <c r="G58" s="55">
+        <v>5</v>
+      </c>
+      <c r="H58" s="54">
+        <v>6</v>
+      </c>
+      <c r="I58" s="54">
+        <f t="shared" si="1"/>
+        <v>11</v>
+      </c>
+      <c r="J58" s="25"/>
+    </row>
+    <row r="59" spans="2:10">
+      <c r="B59" s="30" t="s">
+        <v>170</v>
+      </c>
+      <c r="C59" s="50" t="s">
+        <v>188</v>
+      </c>
+      <c r="D59" s="52">
+        <v>6</v>
+      </c>
+      <c r="E59" s="50" t="s">
+        <v>186</v>
+      </c>
+      <c r="F59" s="36">
+        <v>12</v>
+      </c>
+      <c r="G59" s="55">
+        <v>5</v>
+      </c>
+      <c r="H59" s="54">
+        <v>6</v>
+      </c>
+      <c r="I59" s="54">
+        <f t="shared" si="1"/>
+        <v>11</v>
+      </c>
+      <c r="J59" s="25"/>
+    </row>
+    <row r="60" spans="2:10">
+      <c r="B60" s="31" t="s">
+        <v>178</v>
+      </c>
+      <c r="C60" s="32" t="s">
+        <v>189</v>
+      </c>
+      <c r="D60" s="58">
+        <v>5</v>
+      </c>
+      <c r="E60" s="31" t="s">
+        <v>182</v>
+      </c>
+      <c r="F60" s="44">
+        <v>12</v>
+      </c>
+      <c r="G60" s="58">
+        <v>7</v>
+      </c>
+      <c r="H60" s="44">
+        <v>6</v>
+      </c>
+      <c r="I60" s="44">
+        <f t="shared" si="1"/>
+        <v>13</v>
+      </c>
+      <c r="J60" s="32"/>
+    </row>
+    <row r="61" spans="2:10">
+      <c r="B61" s="31" t="s">
+        <v>141</v>
+      </c>
+      <c r="C61" s="32" t="s">
+        <v>189</v>
+      </c>
+      <c r="D61" s="44">
+        <v>4</v>
+      </c>
+      <c r="E61" s="32" t="s">
+        <v>184</v>
+      </c>
+      <c r="F61" s="44">
+        <v>12</v>
+      </c>
+      <c r="G61" s="44">
+        <v>7</v>
+      </c>
+      <c r="H61" s="44">
+        <v>7</v>
+      </c>
+      <c r="I61" s="44">
+        <f t="shared" si="1"/>
+        <v>14</v>
+      </c>
+      <c r="J61" s="32"/>
+    </row>
+    <row r="62" spans="2:10">
+      <c r="B62" s="30" t="s">
+        <v>169</v>
+      </c>
+      <c r="C62" s="37" t="s">
+        <v>188</v>
+      </c>
+      <c r="D62" s="43">
         <v>3</v>
       </c>
-      <c r="H33" s="56">
+      <c r="E62" s="37" t="s">
+        <v>186</v>
+      </c>
+      <c r="F62" s="36">
+        <v>13</v>
+      </c>
+      <c r="G62" s="54">
+        <v>5</v>
+      </c>
+      <c r="H62" s="54">
+        <v>6</v>
+      </c>
+      <c r="I62" s="54">
+        <f t="shared" si="1"/>
+        <v>11</v>
+      </c>
+      <c r="J62" s="25"/>
+    </row>
+    <row r="63" spans="2:10">
+      <c r="B63" s="30" t="s">
+        <v>149</v>
+      </c>
+      <c r="C63" s="37" t="s">
+        <v>188</v>
+      </c>
+      <c r="D63" s="43">
         <v>4</v>
       </c>
-      <c r="I33" s="56">
-        <f>SUM(G33+H33)</f>
+      <c r="E63" s="37" t="s">
+        <v>182</v>
+      </c>
+      <c r="F63" s="36">
+        <v>13</v>
+      </c>
+      <c r="G63" s="54">
+        <v>5</v>
+      </c>
+      <c r="H63" s="54">
+        <v>6</v>
+      </c>
+      <c r="I63" s="54">
+        <f t="shared" si="1"/>
+        <v>11</v>
+      </c>
+      <c r="J63" s="25"/>
+    </row>
+    <row r="64" spans="2:10">
+      <c r="B64" s="31" t="s">
+        <v>160</v>
+      </c>
+      <c r="C64" s="32" t="s">
+        <v>189</v>
+      </c>
+      <c r="D64" s="44">
+        <v>3</v>
+      </c>
+      <c r="E64" s="32" t="s">
+        <v>183</v>
+      </c>
+      <c r="F64" s="44">
+        <v>13</v>
+      </c>
+      <c r="G64" s="44">
         <v>7</v>
       </c>
-      <c r="J33" s="26"/>
-    </row>
-    <row r="34" spans="2:10">
-      <c r="B34" s="27" t="s">
-        <v>141</v>
-      </c>
-      <c r="C34" s="42" t="s">
-        <v>202</v>
-      </c>
-      <c r="D34" s="44">
-        <v>22</v>
-      </c>
-      <c r="E34" s="25" t="s">
-        <v>199</v>
-      </c>
-      <c r="F34" s="37">
+      <c r="H64" s="44">
         <v>7</v>
       </c>
-      <c r="G34" s="56">
+      <c r="I64" s="44">
+        <f t="shared" si="1"/>
+        <v>14</v>
+      </c>
+      <c r="J64" s="32"/>
+    </row>
+    <row r="65" spans="2:10">
+      <c r="B65" s="30" t="s">
+        <v>177</v>
+      </c>
+      <c r="C65" s="37" t="s">
+        <v>188</v>
+      </c>
+      <c r="D65" s="43">
+        <v>1</v>
+      </c>
+      <c r="E65" s="37" t="s">
+        <v>186</v>
+      </c>
+      <c r="F65" s="36">
+        <v>14</v>
+      </c>
+      <c r="G65" s="54">
+        <v>5</v>
+      </c>
+      <c r="H65" s="54">
+        <v>6</v>
+      </c>
+      <c r="I65" s="54">
+        <f t="shared" si="1"/>
+        <v>11</v>
+      </c>
+      <c r="J65" s="25"/>
+    </row>
+    <row r="66" spans="2:10">
+      <c r="B66" s="26" t="s">
+        <v>130</v>
+      </c>
+      <c r="C66" s="37" t="s">
+        <v>188</v>
+      </c>
+      <c r="D66" s="43">
+        <v>2</v>
+      </c>
+      <c r="E66" s="24" t="s">
+        <v>185</v>
+      </c>
+      <c r="F66" s="36">
+        <v>14</v>
+      </c>
+      <c r="G66" s="54">
+        <v>5</v>
+      </c>
+      <c r="H66" s="54">
+        <v>6</v>
+      </c>
+      <c r="I66" s="54">
+        <f t="shared" ref="I66:I97" si="2">SUM(G66+H66)</f>
+        <v>11</v>
+      </c>
+      <c r="J66" s="25"/>
+    </row>
+    <row r="67" spans="2:10">
+      <c r="B67" s="31" t="s">
+        <v>140</v>
+      </c>
+      <c r="C67" s="32" t="s">
+        <v>189</v>
+      </c>
+      <c r="D67" s="44">
+        <v>1</v>
+      </c>
+      <c r="E67" s="32" t="s">
+        <v>186</v>
+      </c>
+      <c r="F67" s="44">
+        <v>14</v>
+      </c>
+      <c r="G67" s="44">
+        <v>7</v>
+      </c>
+      <c r="H67" s="44">
+        <v>8</v>
+      </c>
+      <c r="I67" s="44">
+        <f t="shared" si="2"/>
+        <v>15</v>
+      </c>
+      <c r="J67" s="32"/>
+    </row>
+    <row r="68" spans="2:10">
+      <c r="B68" s="31" t="s">
+        <v>161</v>
+      </c>
+      <c r="C68" s="32" t="s">
+        <v>189</v>
+      </c>
+      <c r="D68" s="44">
+        <v>2</v>
+      </c>
+      <c r="E68" s="32" t="s">
+        <v>183</v>
+      </c>
+      <c r="F68" s="44">
+        <v>14</v>
+      </c>
+      <c r="G68" s="44">
+        <v>7</v>
+      </c>
+      <c r="H68" s="44">
+        <v>8</v>
+      </c>
+      <c r="I68" s="44">
+        <f t="shared" si="2"/>
+        <v>15</v>
+      </c>
+      <c r="J68" s="32"/>
+    </row>
+    <row r="69" spans="2:10">
+      <c r="B69" s="38" t="s">
+        <v>180</v>
+      </c>
+      <c r="C69" s="39" t="s">
+        <v>137</v>
+      </c>
+      <c r="D69" s="48">
+        <v>5</v>
+      </c>
+      <c r="E69" s="39" t="s">
+        <v>182</v>
+      </c>
+      <c r="F69" s="48">
+        <v>15</v>
+      </c>
+      <c r="G69" s="48">
+        <v>8</v>
+      </c>
+      <c r="H69" s="48">
+        <v>7</v>
+      </c>
+      <c r="I69" s="48">
+        <f t="shared" si="2"/>
+        <v>15</v>
+      </c>
+      <c r="J69" s="39"/>
+    </row>
+    <row r="70" spans="2:10">
+      <c r="B70" s="38" t="s">
+        <v>151</v>
+      </c>
+      <c r="C70" s="39" t="s">
+        <v>137</v>
+      </c>
+      <c r="D70" s="48">
+        <v>6</v>
+      </c>
+      <c r="E70" s="39" t="s">
+        <v>182</v>
+      </c>
+      <c r="F70" s="48">
+        <v>15</v>
+      </c>
+      <c r="G70" s="48">
+        <v>8</v>
+      </c>
+      <c r="H70" s="48">
+        <v>7</v>
+      </c>
+      <c r="I70" s="48">
+        <f t="shared" si="2"/>
+        <v>15</v>
+      </c>
+      <c r="J70" s="39"/>
+    </row>
+    <row r="71" spans="2:10">
+      <c r="B71" s="38" t="s">
+        <v>162</v>
+      </c>
+      <c r="C71" s="39" t="s">
+        <v>137</v>
+      </c>
+      <c r="D71" s="48">
         <v>4</v>
       </c>
-      <c r="H34" s="56">
-        <v>5</v>
-      </c>
-      <c r="I34" s="56">
-        <f>SUM(G34+H34)</f>
+      <c r="E71" s="39" t="s">
+        <v>183</v>
+      </c>
+      <c r="F71" s="48">
+        <v>16</v>
+      </c>
+      <c r="G71" s="48">
+        <v>8</v>
+      </c>
+      <c r="H71" s="48">
+        <v>7</v>
+      </c>
+      <c r="I71" s="48">
+        <f t="shared" si="2"/>
+        <v>15</v>
+      </c>
+      <c r="J71" s="39"/>
+    </row>
+    <row r="72" spans="2:10">
+      <c r="B72" s="38" t="s">
+        <v>152</v>
+      </c>
+      <c r="C72" s="39" t="s">
+        <v>137</v>
+      </c>
+      <c r="D72" s="48">
+        <v>3</v>
+      </c>
+      <c r="E72" s="39" t="s">
+        <v>182</v>
+      </c>
+      <c r="F72" s="48">
+        <v>16</v>
+      </c>
+      <c r="G72" s="48">
+        <v>8</v>
+      </c>
+      <c r="H72" s="48">
+        <v>8</v>
+      </c>
+      <c r="I72" s="48">
+        <f t="shared" si="2"/>
+        <v>16</v>
+      </c>
+      <c r="J72" s="39"/>
+    </row>
+    <row r="73" spans="2:10">
+      <c r="B73" s="38" t="s">
+        <v>179</v>
+      </c>
+      <c r="C73" s="39" t="s">
+        <v>137</v>
+      </c>
+      <c r="D73" s="48">
+        <v>1</v>
+      </c>
+      <c r="E73" s="39" t="s">
+        <v>183</v>
+      </c>
+      <c r="F73" s="48">
+        <v>17</v>
+      </c>
+      <c r="G73" s="48">
         <v>9</v>
       </c>
-      <c r="J34" s="26"/>
-    </row>
-    <row r="35" spans="2:10">
-      <c r="B35" s="27" t="s">
-        <v>133</v>
-      </c>
-      <c r="C35" s="39" t="s">
-        <v>202</v>
-      </c>
-      <c r="D35" s="45">
-        <v>23</v>
-      </c>
-      <c r="E35" s="39" t="s">
-        <v>198</v>
-      </c>
-      <c r="F35" s="37">
-        <v>7</v>
-      </c>
-      <c r="G35" s="56">
-        <v>4</v>
-      </c>
-      <c r="H35" s="56">
-        <v>4</v>
-      </c>
-      <c r="I35" s="56">
-        <f>SUM(G35+H35)</f>
+      <c r="H73" s="48">
         <v>8</v>
       </c>
-      <c r="J35" s="26"/>
-    </row>
-    <row r="36" spans="2:10">
-      <c r="B36" s="31" t="s">
-        <v>158</v>
-      </c>
-      <c r="C36" s="39" t="s">
-        <v>201</v>
-      </c>
-      <c r="D36" s="44">
+      <c r="I73" s="48">
+        <f t="shared" si="2"/>
+        <v>17</v>
+      </c>
+      <c r="J73" s="39"/>
+    </row>
+    <row r="74" spans="2:10">
+      <c r="B74" s="38" t="s">
+        <v>131</v>
+      </c>
+      <c r="C74" s="39" t="s">
+        <v>137</v>
+      </c>
+      <c r="D74" s="48">
         <v>2</v>
       </c>
-      <c r="E36" s="39" t="s">
+      <c r="E74" s="39" t="s">
+        <v>185</v>
+      </c>
+      <c r="F74" s="48">
+        <v>17</v>
+      </c>
+      <c r="G74" s="48">
+        <v>9</v>
+      </c>
+      <c r="H74" s="48">
+        <v>8</v>
+      </c>
+      <c r="I74" s="48">
+        <f t="shared" si="2"/>
+        <v>17</v>
+      </c>
+      <c r="J74" s="39"/>
+    </row>
+    <row r="75" spans="2:10">
+      <c r="B75" s="33" t="s">
+        <v>174</v>
+      </c>
+      <c r="C75" s="34" t="s">
+        <v>173</v>
+      </c>
+      <c r="D75" s="49" t="s">
         <v>196</v>
       </c>
-      <c r="F36" s="37">
-        <v>8</v>
-      </c>
-      <c r="G36" s="56">
-        <v>3</v>
-      </c>
-      <c r="H36" s="56">
-        <v>4</v>
-      </c>
-      <c r="I36" s="56">
-        <f>SUM(G36+H36)</f>
-        <v>7</v>
-      </c>
-      <c r="J36" s="26"/>
-    </row>
-    <row r="37" spans="2:10">
-      <c r="B37" s="31" t="s">
-        <v>169</v>
-      </c>
-      <c r="C37" s="39" t="s">
-        <v>201</v>
-      </c>
-      <c r="D37" s="44">
-        <v>6</v>
-      </c>
-      <c r="E37" s="39" t="s">
-        <v>197</v>
-      </c>
-      <c r="F37" s="37">
-        <v>8</v>
-      </c>
-      <c r="G37" s="56">
-        <v>3</v>
-      </c>
-      <c r="H37" s="56">
-        <v>4</v>
-      </c>
-      <c r="I37" s="56">
-        <f>SUM(G37+H37)</f>
-        <v>7</v>
-      </c>
-      <c r="J37" s="56"/>
-    </row>
-    <row r="38" spans="2:10">
-      <c r="B38" s="31" t="s">
-        <v>177</v>
-      </c>
-      <c r="C38" s="39" t="s">
-        <v>201</v>
-      </c>
-      <c r="D38" s="44">
-        <v>7</v>
-      </c>
-      <c r="E38" s="39" t="s">
-        <v>197</v>
-      </c>
-      <c r="F38" s="37">
-        <v>8</v>
-      </c>
-      <c r="G38" s="56">
-        <v>3</v>
-      </c>
-      <c r="H38" s="56">
-        <v>4</v>
-      </c>
-      <c r="I38" s="56">
-        <f>SUM(G38+H38)</f>
-        <v>7</v>
-      </c>
-      <c r="J38" s="56"/>
-    </row>
-    <row r="39" spans="2:10">
-      <c r="B39" s="27" t="s">
-        <v>125</v>
-      </c>
-      <c r="C39" s="39" t="s">
-        <v>202</v>
-      </c>
-      <c r="D39" s="45">
-        <v>16</v>
-      </c>
-      <c r="E39" s="39" t="s">
-        <v>198</v>
-      </c>
-      <c r="F39" s="37">
-        <v>8</v>
-      </c>
-      <c r="G39" s="56">
-        <v>4</v>
-      </c>
-      <c r="H39" s="56">
-        <v>5</v>
-      </c>
-      <c r="I39" s="56">
-        <f>SUM(G39+H39)</f>
+      <c r="E75" s="34" t="s">
+        <v>183</v>
+      </c>
+      <c r="F75" s="49">
+        <v>20</v>
+      </c>
+      <c r="G75" s="49">
+        <v>10</v>
+      </c>
+      <c r="H75" s="49">
         <v>9</v>
       </c>
-      <c r="J39" s="26"/>
-    </row>
-    <row r="40" spans="2:10">
-      <c r="B40" s="31" t="s">
-        <v>171</v>
-      </c>
-      <c r="C40" s="39" t="s">
-        <v>202</v>
-      </c>
-      <c r="D40" s="45">
-        <v>17</v>
-      </c>
-      <c r="E40" s="39" t="s">
-        <v>197</v>
-      </c>
-      <c r="F40" s="37">
-        <v>8</v>
-      </c>
-      <c r="G40" s="56">
-        <v>4</v>
-      </c>
-      <c r="H40" s="56">
-        <v>5</v>
-      </c>
-      <c r="I40" s="56">
-        <f>SUM(G40+H40)</f>
+      <c r="I75" s="49">
+        <f t="shared" si="2"/>
+        <v>19</v>
+      </c>
+      <c r="J75" s="34"/>
+    </row>
+    <row r="76" spans="2:10">
+      <c r="B76" s="33" t="s">
+        <v>172</v>
+      </c>
+      <c r="C76" s="34" t="s">
+        <v>173</v>
+      </c>
+      <c r="D76" s="49" t="s">
+        <v>196</v>
+      </c>
+      <c r="E76" s="34" t="s">
+        <v>183</v>
+      </c>
+      <c r="F76" s="49">
+        <v>20</v>
+      </c>
+      <c r="G76" s="49">
+        <v>10</v>
+      </c>
+      <c r="H76" s="49">
         <v>9</v>
       </c>
-      <c r="J40" s="26"/>
-    </row>
-    <row r="41" spans="2:10">
-      <c r="B41" s="27" t="s">
-        <v>142</v>
-      </c>
-      <c r="C41" s="39" t="s">
-        <v>202</v>
-      </c>
-      <c r="D41" s="45">
-        <v>20</v>
-      </c>
-      <c r="E41" s="25" t="s">
-        <v>199</v>
-      </c>
-      <c r="F41" s="37">
-        <v>8</v>
-      </c>
-      <c r="G41" s="56">
-        <v>4</v>
-      </c>
-      <c r="H41" s="56">
-        <v>5</v>
-      </c>
-      <c r="I41" s="56">
-        <f>SUM(G41+H41)</f>
-        <v>9</v>
-      </c>
-      <c r="J41" s="26"/>
-    </row>
-    <row r="42" spans="2:10">
-      <c r="B42" s="27" t="s">
-        <v>124</v>
-      </c>
-      <c r="C42" s="39" t="s">
-        <v>202</v>
-      </c>
-      <c r="D42" s="45">
-        <v>21</v>
-      </c>
-      <c r="E42" s="39" t="s">
-        <v>198</v>
-      </c>
-      <c r="F42" s="37">
-        <v>8</v>
-      </c>
-      <c r="G42" s="56">
-        <v>4</v>
-      </c>
-      <c r="H42" s="56">
-        <v>5</v>
-      </c>
-      <c r="I42" s="56">
-        <f>SUM(G42+H42)</f>
-        <v>9</v>
-      </c>
-      <c r="J42" s="26"/>
-    </row>
-    <row r="43" spans="2:10">
-      <c r="B43" s="31" t="s">
-        <v>179</v>
-      </c>
-      <c r="C43" s="39" t="s">
-        <v>202</v>
-      </c>
-      <c r="D43" s="45">
-        <v>13</v>
-      </c>
-      <c r="E43" s="39" t="s">
-        <v>200</v>
-      </c>
-      <c r="F43" s="37">
-        <v>9</v>
-      </c>
-      <c r="G43" s="56">
-        <v>4</v>
-      </c>
-      <c r="H43" s="56">
-        <v>5</v>
-      </c>
-      <c r="I43" s="56">
-        <f>SUM(G43+H43)</f>
-        <v>9</v>
-      </c>
-      <c r="J43" s="26"/>
-    </row>
-    <row r="44" spans="2:10">
-      <c r="B44" s="31" t="s">
-        <v>160</v>
-      </c>
-      <c r="C44" s="39" t="s">
-        <v>202</v>
-      </c>
-      <c r="D44" s="45">
-        <v>14</v>
-      </c>
-      <c r="E44" s="39" t="s">
-        <v>196</v>
-      </c>
-      <c r="F44" s="37">
-        <v>9</v>
-      </c>
-      <c r="G44" s="56">
-        <v>4</v>
-      </c>
-      <c r="H44" s="56">
-        <v>5</v>
-      </c>
-      <c r="I44" s="56">
-        <f>SUM(G44+H44)</f>
-        <v>9</v>
-      </c>
-      <c r="J44" s="26"/>
-    </row>
-    <row r="45" spans="2:10">
-      <c r="B45" s="31" t="s">
-        <v>161</v>
-      </c>
-      <c r="C45" s="39" t="s">
-        <v>202</v>
-      </c>
-      <c r="D45" s="45">
-        <v>15</v>
-      </c>
-      <c r="E45" s="39" t="s">
-        <v>196</v>
-      </c>
-      <c r="F45" s="37">
-        <v>9</v>
-      </c>
-      <c r="G45" s="56">
-        <v>4</v>
-      </c>
-      <c r="H45" s="56">
-        <v>5</v>
-      </c>
-      <c r="I45" s="56">
-        <f>SUM(G45+H45)</f>
-        <v>9</v>
-      </c>
-      <c r="J45" s="26"/>
-    </row>
-    <row r="46" spans="2:10">
-      <c r="B46" s="31" t="s">
-        <v>173</v>
-      </c>
-      <c r="C46" s="39" t="s">
-        <v>202</v>
-      </c>
-      <c r="D46" s="45">
-        <v>18</v>
-      </c>
-      <c r="E46" s="39" t="s">
-        <v>197</v>
-      </c>
-      <c r="F46" s="37">
-        <v>9</v>
-      </c>
-      <c r="G46" s="56">
-        <v>4</v>
-      </c>
-      <c r="H46" s="56">
-        <v>5</v>
-      </c>
-      <c r="I46" s="56">
-        <f>SUM(G46+H46)</f>
-        <v>9</v>
-      </c>
-      <c r="J46" s="26"/>
-    </row>
-    <row r="47" spans="2:10">
-      <c r="B47" s="27" t="s">
-        <v>130</v>
-      </c>
-      <c r="C47" s="39" t="s">
-        <v>202</v>
-      </c>
-      <c r="D47" s="45">
+      <c r="I76" s="49">
+        <f t="shared" si="2"/>
         <v>19</v>
       </c>
-      <c r="E47" s="39" t="s">
-        <v>198</v>
-      </c>
-      <c r="F47" s="37">
-        <v>9</v>
-      </c>
-      <c r="G47" s="56">
-        <v>4</v>
-      </c>
-      <c r="H47" s="56">
-        <v>5</v>
-      </c>
-      <c r="I47" s="56">
-        <f>SUM(G47+H47)</f>
-        <v>9</v>
-      </c>
-      <c r="J47" s="26"/>
-    </row>
-    <row r="48" spans="2:10">
-      <c r="B48" s="27" t="s">
-        <v>143</v>
-      </c>
-      <c r="C48" s="52" t="s">
-        <v>202</v>
-      </c>
-      <c r="D48" s="54">
-        <v>9</v>
-      </c>
-      <c r="E48" s="25" t="s">
-        <v>199</v>
-      </c>
-      <c r="F48" s="59">
-        <v>10</v>
-      </c>
-      <c r="G48" s="57">
-        <v>5</v>
-      </c>
-      <c r="H48" s="57">
-        <v>5</v>
-      </c>
-      <c r="I48" s="56">
-        <f>SUM(G48+H48)</f>
-        <v>10</v>
-      </c>
-      <c r="J48" s="26"/>
-    </row>
-    <row r="49" spans="2:10">
-      <c r="B49" s="31" t="s">
-        <v>148</v>
-      </c>
-      <c r="C49" s="52" t="s">
-        <v>202</v>
-      </c>
-      <c r="D49" s="54">
-        <v>10</v>
-      </c>
-      <c r="E49" s="39" t="s">
-        <v>198</v>
-      </c>
-      <c r="F49" s="59">
-        <v>10</v>
-      </c>
-      <c r="G49" s="57">
-        <v>5</v>
-      </c>
-      <c r="H49" s="57">
-        <v>5</v>
-      </c>
-      <c r="I49" s="56">
-        <f>SUM(G49+H49)</f>
-        <v>10</v>
-      </c>
-      <c r="J49" s="26"/>
-    </row>
-    <row r="50" spans="2:10">
-      <c r="B50" s="27" t="s">
-        <v>134</v>
-      </c>
-      <c r="C50" s="39" t="s">
-        <v>202</v>
-      </c>
-      <c r="D50" s="45">
-        <v>11</v>
-      </c>
-      <c r="E50" s="39" t="s">
-        <v>198</v>
-      </c>
-      <c r="F50" s="37">
-        <v>10</v>
-      </c>
-      <c r="G50" s="56">
-        <v>5</v>
-      </c>
-      <c r="H50" s="56">
-        <v>5</v>
-      </c>
-      <c r="I50" s="56">
-        <f>SUM(G50+H50)</f>
-        <v>10</v>
-      </c>
-      <c r="J50" s="26"/>
-    </row>
-    <row r="51" spans="2:10">
-      <c r="B51" s="31" t="s">
-        <v>172</v>
-      </c>
-      <c r="C51" s="39" t="s">
-        <v>202</v>
-      </c>
-      <c r="D51" s="45">
-        <v>12</v>
-      </c>
-      <c r="E51" s="39" t="s">
-        <v>197</v>
-      </c>
-      <c r="F51" s="37">
-        <v>10</v>
-      </c>
-      <c r="G51" s="56">
-        <v>5</v>
-      </c>
-      <c r="H51" s="56">
-        <v>5</v>
-      </c>
-      <c r="I51" s="56">
-        <f>SUM(G51+H51)</f>
-        <v>10</v>
-      </c>
-      <c r="J51" s="26"/>
-    </row>
-    <row r="52" spans="2:10">
-      <c r="B52" s="47" t="s">
-        <v>135</v>
-      </c>
-      <c r="C52" s="48" t="s">
-        <v>203</v>
-      </c>
-      <c r="D52" s="49">
-        <v>8</v>
-      </c>
-      <c r="E52" s="48" t="s">
-        <v>198</v>
-      </c>
-      <c r="F52" s="46">
-        <v>10</v>
-      </c>
-      <c r="G52" s="46">
-        <v>6</v>
-      </c>
-      <c r="H52" s="46">
-        <v>6</v>
-      </c>
-      <c r="I52" s="46">
-        <f>SUM(G52+H52)</f>
-        <v>12</v>
-      </c>
-      <c r="J52" s="46"/>
-    </row>
-    <row r="53" spans="2:10">
-      <c r="B53" s="32" t="s">
-        <v>164</v>
-      </c>
-      <c r="C53" s="33" t="s">
-        <v>203</v>
-      </c>
-      <c r="D53" s="46">
-        <v>9</v>
-      </c>
-      <c r="E53" s="33" t="s">
-        <v>196</v>
-      </c>
-      <c r="F53" s="46">
-        <v>10</v>
-      </c>
-      <c r="G53" s="46">
-        <v>6</v>
-      </c>
-      <c r="H53" s="46">
-        <v>6</v>
-      </c>
-      <c r="I53" s="46">
-        <f>SUM(G53+H53)</f>
-        <v>12</v>
-      </c>
-      <c r="J53" s="33"/>
-    </row>
-    <row r="54" spans="2:10">
-      <c r="B54" s="31" t="s">
-        <v>162</v>
-      </c>
-      <c r="C54" s="39" t="s">
-        <v>202</v>
-      </c>
-      <c r="D54" s="45">
-        <v>7</v>
-      </c>
-      <c r="E54" s="39" t="s">
-        <v>196</v>
-      </c>
-      <c r="F54" s="37">
-        <v>11</v>
-      </c>
-      <c r="G54" s="56">
-        <v>5</v>
-      </c>
-      <c r="H54" s="56">
-        <v>5</v>
-      </c>
-      <c r="I54" s="56">
-        <f>SUM(G54+H54)</f>
-        <v>10</v>
-      </c>
-      <c r="J54" s="26"/>
-    </row>
-    <row r="55" spans="2:10">
-      <c r="B55" s="31" t="s">
-        <v>149</v>
-      </c>
-      <c r="C55" s="39" t="s">
-        <v>202</v>
-      </c>
-      <c r="D55" s="45">
-        <v>8</v>
-      </c>
-      <c r="E55" s="39" t="s">
-        <v>198</v>
-      </c>
-      <c r="F55" s="37">
-        <v>11</v>
-      </c>
-      <c r="G55" s="56">
-        <v>5</v>
-      </c>
-      <c r="H55" s="56">
-        <v>5</v>
-      </c>
-      <c r="I55" s="56">
-        <f>SUM(G55+H55)</f>
-        <v>10</v>
-      </c>
-      <c r="J55" s="26"/>
-    </row>
-    <row r="56" spans="2:10">
-      <c r="B56" s="32" t="s">
-        <v>209</v>
-      </c>
-      <c r="C56" s="33" t="s">
-        <v>203</v>
-      </c>
-      <c r="D56" s="46">
-        <v>7</v>
-      </c>
-      <c r="E56" s="33" t="s">
-        <v>199</v>
-      </c>
-      <c r="F56" s="46">
-        <v>11</v>
-      </c>
-      <c r="G56" s="46">
-        <v>6</v>
-      </c>
-      <c r="H56" s="46">
-        <v>6</v>
-      </c>
-      <c r="I56" s="46">
-        <f>SUM(G56+H56)</f>
-        <v>12</v>
-      </c>
-      <c r="J56" s="33"/>
-    </row>
-    <row r="57" spans="2:10">
-      <c r="B57" s="32" t="s">
-        <v>185</v>
-      </c>
-      <c r="C57" s="33" t="s">
-        <v>203</v>
-      </c>
-      <c r="D57" s="46">
-        <v>6</v>
-      </c>
-      <c r="E57" s="33" t="s">
-        <v>200</v>
-      </c>
-      <c r="F57" s="46">
-        <v>11</v>
-      </c>
-      <c r="G57" s="46">
-        <v>6</v>
-      </c>
-      <c r="H57" s="46">
-        <v>7</v>
-      </c>
-      <c r="I57" s="46">
-        <f>SUM(G57+H57)</f>
-        <v>13</v>
-      </c>
-      <c r="J57" s="33"/>
-    </row>
-    <row r="58" spans="2:10">
-      <c r="B58" s="31" t="s">
-        <v>182</v>
-      </c>
-      <c r="C58" s="39" t="s">
-        <v>202</v>
-      </c>
-      <c r="D58" s="45">
-        <v>5</v>
-      </c>
-      <c r="E58" s="39" t="s">
-        <v>200</v>
-      </c>
-      <c r="F58" s="59">
-        <v>12</v>
-      </c>
-      <c r="G58" s="57">
-        <v>5</v>
-      </c>
-      <c r="H58" s="56">
-        <v>6</v>
-      </c>
-      <c r="I58" s="56">
-        <f>SUM(G58+H58)</f>
-        <v>11</v>
-      </c>
-      <c r="J58" s="26"/>
-    </row>
-    <row r="59" spans="2:10">
-      <c r="B59" s="31" t="s">
-        <v>184</v>
-      </c>
-      <c r="C59" s="52" t="s">
-        <v>202</v>
-      </c>
-      <c r="D59" s="54">
-        <v>6</v>
-      </c>
-      <c r="E59" s="52" t="s">
-        <v>200</v>
-      </c>
-      <c r="F59" s="37">
-        <v>12</v>
-      </c>
-      <c r="G59" s="57">
-        <v>5</v>
-      </c>
-      <c r="H59" s="56">
-        <v>6</v>
-      </c>
-      <c r="I59" s="56">
-        <f>SUM(G59+H59)</f>
-        <v>11</v>
-      </c>
-      <c r="J59" s="26"/>
-    </row>
-    <row r="60" spans="2:10">
-      <c r="B60" s="32" t="s">
-        <v>192</v>
-      </c>
-      <c r="C60" s="33" t="s">
-        <v>203</v>
-      </c>
-      <c r="D60" s="60">
-        <v>5</v>
-      </c>
-      <c r="E60" s="32" t="s">
-        <v>196</v>
-      </c>
-      <c r="F60" s="46">
-        <v>12</v>
-      </c>
-      <c r="G60" s="60">
-        <v>7</v>
-      </c>
-      <c r="H60" s="46">
-        <v>6</v>
-      </c>
-      <c r="I60" s="46">
-        <f>SUM(G60+H60)</f>
-        <v>13</v>
-      </c>
-      <c r="J60" s="33"/>
-    </row>
-    <row r="61" spans="2:10">
-      <c r="B61" s="32" t="s">
-        <v>155</v>
-      </c>
-      <c r="C61" s="33" t="s">
-        <v>203</v>
-      </c>
-      <c r="D61" s="46">
-        <v>4</v>
-      </c>
-      <c r="E61" s="33" t="s">
-        <v>198</v>
-      </c>
-      <c r="F61" s="46">
-        <v>12</v>
-      </c>
-      <c r="G61" s="46">
-        <v>7</v>
-      </c>
-      <c r="H61" s="46">
-        <v>7</v>
-      </c>
-      <c r="I61" s="46">
-        <f>SUM(G61+H61)</f>
-        <v>14</v>
-      </c>
-      <c r="J61" s="33"/>
-    </row>
-    <row r="62" spans="2:10">
-      <c r="B62" s="31" t="s">
-        <v>183</v>
-      </c>
-      <c r="C62" s="39" t="s">
-        <v>202</v>
-      </c>
-      <c r="D62" s="45">
-        <v>3</v>
-      </c>
-      <c r="E62" s="39" t="s">
-        <v>200</v>
-      </c>
-      <c r="F62" s="37">
-        <v>13</v>
-      </c>
-      <c r="G62" s="56">
-        <v>5</v>
-      </c>
-      <c r="H62" s="56">
-        <v>6</v>
-      </c>
-      <c r="I62" s="56">
-        <f>SUM(G62+H62)</f>
-        <v>11</v>
-      </c>
-      <c r="J62" s="26"/>
-    </row>
-    <row r="63" spans="2:10">
-      <c r="B63" s="31" t="s">
-        <v>163</v>
-      </c>
-      <c r="C63" s="39" t="s">
-        <v>202</v>
-      </c>
-      <c r="D63" s="45">
-        <v>4</v>
-      </c>
-      <c r="E63" s="39" t="s">
-        <v>196</v>
-      </c>
-      <c r="F63" s="37">
-        <v>13</v>
-      </c>
-      <c r="G63" s="56">
-        <v>5</v>
-      </c>
-      <c r="H63" s="56">
-        <v>6</v>
-      </c>
-      <c r="I63" s="56">
-        <f>SUM(G63+H63)</f>
-        <v>11</v>
-      </c>
-      <c r="J63" s="26"/>
-    </row>
-    <row r="64" spans="2:10">
-      <c r="B64" s="32" t="s">
-        <v>174</v>
-      </c>
-      <c r="C64" s="33" t="s">
-        <v>203</v>
-      </c>
-      <c r="D64" s="46">
-        <v>3</v>
-      </c>
-      <c r="E64" s="33" t="s">
-        <v>197</v>
-      </c>
-      <c r="F64" s="46">
-        <v>13</v>
-      </c>
-      <c r="G64" s="46">
-        <v>7</v>
-      </c>
-      <c r="H64" s="46">
-        <v>7</v>
-      </c>
-      <c r="I64" s="46">
-        <f>SUM(G64+H64)</f>
-        <v>14</v>
-      </c>
-      <c r="J64" s="33"/>
-    </row>
-    <row r="65" spans="2:10">
-      <c r="B65" s="31" t="s">
-        <v>191</v>
-      </c>
-      <c r="C65" s="39" t="s">
-        <v>202</v>
-      </c>
-      <c r="D65" s="45">
-        <v>1</v>
-      </c>
-      <c r="E65" s="39" t="s">
-        <v>200</v>
-      </c>
-      <c r="F65" s="37">
-        <v>14</v>
-      </c>
-      <c r="G65" s="56">
-        <v>5</v>
-      </c>
-      <c r="H65" s="56">
-        <v>6</v>
-      </c>
-      <c r="I65" s="56">
-        <f>SUM(G65+H65)</f>
-        <v>11</v>
-      </c>
-      <c r="J65" s="26"/>
-    </row>
-    <row r="66" spans="2:10">
-      <c r="B66" s="27" t="s">
-        <v>144</v>
-      </c>
-      <c r="C66" s="39" t="s">
-        <v>202</v>
-      </c>
-      <c r="D66" s="45">
-        <v>2</v>
-      </c>
-      <c r="E66" s="25" t="s">
-        <v>199</v>
-      </c>
-      <c r="F66" s="37">
-        <v>14</v>
-      </c>
-      <c r="G66" s="56">
-        <v>5</v>
-      </c>
-      <c r="H66" s="56">
-        <v>6</v>
-      </c>
-      <c r="I66" s="56">
-        <f>SUM(G66+H66)</f>
-        <v>11</v>
-      </c>
-      <c r="J66" s="26"/>
-    </row>
-    <row r="67" spans="2:10">
-      <c r="B67" s="32" t="s">
-        <v>154</v>
-      </c>
-      <c r="C67" s="33" t="s">
-        <v>203</v>
-      </c>
-      <c r="D67" s="46">
-        <v>1</v>
-      </c>
-      <c r="E67" s="33" t="s">
-        <v>200</v>
-      </c>
-      <c r="F67" s="46">
-        <v>14</v>
-      </c>
-      <c r="G67" s="46">
-        <v>7</v>
-      </c>
-      <c r="H67" s="46">
-        <v>8</v>
-      </c>
-      <c r="I67" s="46">
-        <f>SUM(G67+H67)</f>
-        <v>15</v>
-      </c>
-      <c r="J67" s="33"/>
-    </row>
-    <row r="68" spans="2:10">
-      <c r="B68" s="32" t="s">
-        <v>175</v>
-      </c>
-      <c r="C68" s="33" t="s">
-        <v>203</v>
-      </c>
-      <c r="D68" s="46">
-        <v>2</v>
-      </c>
-      <c r="E68" s="33" t="s">
-        <v>197</v>
-      </c>
-      <c r="F68" s="46">
-        <v>14</v>
-      </c>
-      <c r="G68" s="46">
-        <v>7</v>
-      </c>
-      <c r="H68" s="46">
-        <v>8</v>
-      </c>
-      <c r="I68" s="46">
-        <f>SUM(G68+H68)</f>
-        <v>15</v>
-      </c>
-      <c r="J68" s="33"/>
-    </row>
-    <row r="69" spans="2:10">
-      <c r="B69" s="40" t="s">
-        <v>194</v>
-      </c>
-      <c r="C69" s="41" t="s">
-        <v>151</v>
-      </c>
-      <c r="D69" s="50">
-        <v>5</v>
-      </c>
-      <c r="E69" s="41" t="s">
-        <v>196</v>
-      </c>
-      <c r="F69" s="50">
-        <v>15</v>
-      </c>
-      <c r="G69" s="50">
-        <v>8</v>
-      </c>
-      <c r="H69" s="50">
-        <v>7</v>
-      </c>
-      <c r="I69" s="50">
-        <f>SUM(G69+H69)</f>
-        <v>15</v>
-      </c>
-      <c r="J69" s="41"/>
-    </row>
-    <row r="70" spans="2:10">
-      <c r="B70" s="40" t="s">
-        <v>165</v>
-      </c>
-      <c r="C70" s="41" t="s">
-        <v>151</v>
-      </c>
-      <c r="D70" s="50">
-        <v>6</v>
-      </c>
-      <c r="E70" s="41" t="s">
-        <v>196</v>
-      </c>
-      <c r="F70" s="50">
-        <v>15</v>
-      </c>
-      <c r="G70" s="50">
-        <v>8</v>
-      </c>
-      <c r="H70" s="50">
-        <v>7</v>
-      </c>
-      <c r="I70" s="50">
-        <f>SUM(G70+H70)</f>
-        <v>15</v>
-      </c>
-      <c r="J70" s="41"/>
-    </row>
-    <row r="71" spans="2:10">
-      <c r="B71" s="40" t="s">
-        <v>176</v>
-      </c>
-      <c r="C71" s="41" t="s">
-        <v>151</v>
-      </c>
-      <c r="D71" s="50">
-        <v>4</v>
-      </c>
-      <c r="E71" s="41" t="s">
-        <v>197</v>
-      </c>
-      <c r="F71" s="50">
-        <v>16</v>
-      </c>
-      <c r="G71" s="50">
-        <v>8</v>
-      </c>
-      <c r="H71" s="50">
-        <v>7</v>
-      </c>
-      <c r="I71" s="50">
-        <f>SUM(G71+H71)</f>
-        <v>15</v>
-      </c>
-      <c r="J71" s="41"/>
-    </row>
-    <row r="72" spans="2:10">
-      <c r="B72" s="40" t="s">
-        <v>166</v>
-      </c>
-      <c r="C72" s="41" t="s">
-        <v>151</v>
-      </c>
-      <c r="D72" s="50">
-        <v>3</v>
-      </c>
-      <c r="E72" s="41" t="s">
-        <v>196</v>
-      </c>
-      <c r="F72" s="50">
-        <v>16</v>
-      </c>
-      <c r="G72" s="50">
-        <v>8</v>
-      </c>
-      <c r="H72" s="50">
-        <v>8</v>
-      </c>
-      <c r="I72" s="50">
-        <f>SUM(G72+H72)</f>
-        <v>16</v>
-      </c>
-      <c r="J72" s="41"/>
-    </row>
-    <row r="73" spans="2:10">
-      <c r="B73" s="40" t="s">
-        <v>193</v>
-      </c>
-      <c r="C73" s="41" t="s">
-        <v>151</v>
-      </c>
-      <c r="D73" s="50">
-        <v>1</v>
-      </c>
-      <c r="E73" s="41" t="s">
-        <v>197</v>
-      </c>
-      <c r="F73" s="50">
-        <v>17</v>
-      </c>
-      <c r="G73" s="50">
-        <v>9</v>
-      </c>
-      <c r="H73" s="50">
-        <v>8</v>
-      </c>
-      <c r="I73" s="50">
-        <f>SUM(G73+H73)</f>
-        <v>17</v>
-      </c>
-      <c r="J73" s="41"/>
-    </row>
-    <row r="74" spans="2:10">
-      <c r="B74" s="40" t="s">
-        <v>145</v>
-      </c>
-      <c r="C74" s="41" t="s">
-        <v>151</v>
-      </c>
-      <c r="D74" s="50">
-        <v>2</v>
-      </c>
-      <c r="E74" s="41" t="s">
-        <v>199</v>
-      </c>
-      <c r="F74" s="50">
-        <v>17</v>
-      </c>
-      <c r="G74" s="50">
-        <v>9</v>
-      </c>
-      <c r="H74" s="50">
-        <v>8</v>
-      </c>
-      <c r="I74" s="50">
-        <f>SUM(G74+H74)</f>
-        <v>17</v>
-      </c>
-      <c r="J74" s="41"/>
-    </row>
-    <row r="75" spans="2:10">
-      <c r="B75" s="34" t="s">
-        <v>188</v>
-      </c>
-      <c r="C75" s="35" t="s">
-        <v>187</v>
-      </c>
-      <c r="D75" s="51" t="s">
-        <v>210</v>
-      </c>
-      <c r="E75" s="35" t="s">
-        <v>197</v>
-      </c>
-      <c r="F75" s="51">
-        <v>20</v>
-      </c>
-      <c r="G75" s="51">
-        <v>10</v>
-      </c>
-      <c r="H75" s="51">
-        <v>9</v>
-      </c>
-      <c r="I75" s="51">
-        <f>SUM(G75+H75)</f>
-        <v>19</v>
-      </c>
-      <c r="J75" s="35"/>
-    </row>
-    <row r="76" spans="2:10">
-      <c r="B76" s="34" t="s">
-        <v>186</v>
-      </c>
-      <c r="C76" s="35" t="s">
-        <v>187</v>
-      </c>
-      <c r="D76" s="51" t="s">
-        <v>210</v>
-      </c>
-      <c r="E76" s="35" t="s">
-        <v>197</v>
-      </c>
-      <c r="F76" s="51">
-        <v>20</v>
-      </c>
-      <c r="G76" s="51">
-        <v>10</v>
-      </c>
-      <c r="H76" s="51">
-        <v>9</v>
-      </c>
-      <c r="I76" s="51">
-        <f>SUM(G76+H76)</f>
-        <v>19</v>
-      </c>
-      <c r="J76" s="35"/>
+      <c r="J76" s="34"/>
     </row>
   </sheetData>
   <autoFilter ref="B1:J76" xr:uid="{2C6BD44E-C49F-49F0-BAAC-5F0D8342ACD5}">
@@ -4463,7 +4513,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:O983"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
@@ -4491,26 +4541,26 @@
       <c r="B1" s="1"/>
     </row>
     <row r="2" spans="2:15">
-      <c r="B2" s="62" t="s">
+      <c r="B2" s="63" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="63"/>
-      <c r="E2" s="62" t="s">
+      <c r="C2" s="64"/>
+      <c r="E2" s="63" t="s">
         <v>1</v>
       </c>
-      <c r="F2" s="63"/>
-      <c r="H2" s="62" t="s">
+      <c r="F2" s="64"/>
+      <c r="H2" s="63" t="s">
         <v>2</v>
       </c>
-      <c r="I2" s="63"/>
-      <c r="K2" s="62" t="s">
+      <c r="I2" s="64"/>
+      <c r="K2" s="63" t="s">
         <v>3</v>
       </c>
-      <c r="L2" s="63"/>
-      <c r="N2" s="62" t="s">
+      <c r="L2" s="64"/>
+      <c r="N2" s="63" t="s">
         <v>4</v>
       </c>
-      <c r="O2" s="63"/>
+      <c r="O2" s="64"/>
     </row>
     <row r="3" spans="2:15">
       <c r="B3" s="2" t="s">
@@ -4651,13 +4701,13 @@
         <v>78</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="H7" s="1" t="s">
         <v>78</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="K7" s="1" t="s">
         <v>78</v>
@@ -4669,39 +4719,39 @@
         <v>78</v>
       </c>
       <c r="O7" s="1" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="8" spans="2:15">
       <c r="B8" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C8" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="I8" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="E8" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="F8" s="1" t="s">
+      <c r="K8" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="L8" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="N8" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="O8" s="1" t="s">
         <v>96</v>
-      </c>
-      <c r="H8" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="I8" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="K8" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="L8" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="N8" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="O8" s="1" t="s">
-        <v>98</v>
       </c>
     </row>
     <row r="9" spans="2:15">
@@ -4738,130 +4788,130 @@
     </row>
     <row r="10" spans="2:15">
       <c r="B10" s="21" t="s">
+        <v>82</v>
+      </c>
+      <c r="C10" s="21" t="s">
+        <v>83</v>
+      </c>
+      <c r="E10" s="21" t="s">
+        <v>82</v>
+      </c>
+      <c r="F10" s="21" t="s">
         <v>84</v>
       </c>
-      <c r="C10" s="21" t="s">
-        <v>85</v>
-      </c>
-      <c r="E10" s="21" t="s">
-        <v>84</v>
-      </c>
-      <c r="F10" s="21" t="s">
-        <v>86</v>
-      </c>
       <c r="H10" s="21" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="I10" s="21" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="K10" s="21" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="L10" s="21" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="N10" s="21" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="O10" s="21" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="11" spans="2:15">
       <c r="B11" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="C11" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="C11" s="1" t="s">
-        <v>89</v>
-      </c>
       <c r="E11" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="K11" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="L11" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="F11" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="H11" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="I11" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="K11" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="L11" s="1" t="s">
-        <v>89</v>
-      </c>
       <c r="N11" s="1" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="O11" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="12" spans="2:15">
       <c r="B12" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="C12" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="C12" s="1" t="s">
-        <v>92</v>
-      </c>
       <c r="E12" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="I12" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="F12" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="H12" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="I12" s="1" t="s">
-        <v>92</v>
-      </c>
       <c r="K12" s="1" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="L12" s="1" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="N12" s="1" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="O12" s="1" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="13" spans="2:15">
       <c r="B13" s="1" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="K13" s="1" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="L13" s="1" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="N13" s="1" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="O13" s="1" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="14" spans="2:15">
@@ -8254,107 +8304,4 @@
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0" footer="0"/>
   <pageSetup orientation="landscape"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2EE20556-8C43-42EB-8B10-D8C5431C27EC}">
-  <dimension ref="A1:A20"/>
-  <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="A20" sqref="A20"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="47" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:1">
-      <c r="A1" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1">
-      <c r="A2" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1">
-      <c r="A3" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1">
-      <c r="A5" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1">
-      <c r="A6" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1">
-      <c r="A7" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1">
-      <c r="A9" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1">
-      <c r="A10" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="11" spans="1:1">
-      <c r="A11" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="13" spans="1:1">
-      <c r="A13" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="14" spans="1:1">
-      <c r="A14" s="24" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="15" spans="1:1">
-      <c r="A15" s="24" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="16" spans="1:1">
-      <c r="A16" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1">
-      <c r="A17" s="24" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1">
-      <c r="A18" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1">
-      <c r="A19" s="24" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1">
-      <c r="A20" s="24" t="s">
-        <v>112</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-</worksheet>
 </file>